--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26480" uniqueCount="5587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27680" uniqueCount="5818">
   <si>
     <t>Codice</t>
   </si>
@@ -16778,6 +16778,699 @@
   </si>
   <si>
     <t>B37200319</t>
+  </si>
+  <si>
+    <t>ADSL1004496226</t>
+  </si>
+  <si>
+    <t>90880470</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>CONTRADA GRANELLI SNC</t>
+  </si>
+  <si>
+    <t>08/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>DTU0065829930</t>
+  </si>
+  <si>
+    <t>93114759325</t>
+  </si>
+  <si>
+    <t>E70090880470</t>
+  </si>
+  <si>
+    <t>30/06/2025 11:48</t>
+  </si>
+  <si>
+    <t>B36201365</t>
+  </si>
+  <si>
+    <t>ADSL1004596246</t>
+  </si>
+  <si>
+    <t>91545436</t>
+  </si>
+  <si>
+    <t>VIA FLORIDIANI DI HARTFORD 43</t>
+  </si>
+  <si>
+    <t>08/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>DTU0066211775</t>
+  </si>
+  <si>
+    <t>G600069366</t>
+  </si>
+  <si>
+    <t>E70091545436</t>
+  </si>
+  <si>
+    <t>22/07/2025 12:46</t>
+  </si>
+  <si>
+    <t>B36804632</t>
+  </si>
+  <si>
+    <t>ADSL1004601422</t>
+  </si>
+  <si>
+    <t>91576395</t>
+  </si>
+  <si>
+    <t>VIA SANTA ALESSANDRA 200</t>
+  </si>
+  <si>
+    <t>DTU0066245196</t>
+  </si>
+  <si>
+    <t>93114726312</t>
+  </si>
+  <si>
+    <t>E70091576395</t>
+  </si>
+  <si>
+    <t>23/07/2025 11:52</t>
+  </si>
+  <si>
+    <t>B36832445</t>
+  </si>
+  <si>
+    <t>ADSL1004604327</t>
+  </si>
+  <si>
+    <t>91594942</t>
+  </si>
+  <si>
+    <t>VICO MANFREDONIA 62</t>
+  </si>
+  <si>
+    <t>08/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>DTU0066206799</t>
+  </si>
+  <si>
+    <t>93114731603</t>
+  </si>
+  <si>
+    <t>E70091594942</t>
+  </si>
+  <si>
+    <t>23/07/2025 19:58</t>
+  </si>
+  <si>
+    <t>B36846450</t>
+  </si>
+  <si>
+    <t>ADSL1004638859</t>
+  </si>
+  <si>
+    <t>91818922</t>
+  </si>
+  <si>
+    <t>09/08/2025</t>
+  </si>
+  <si>
+    <t>VIA BUON PASTORE 9</t>
+  </si>
+  <si>
+    <t>DTU0066424201</t>
+  </si>
+  <si>
+    <t>93114720984</t>
+  </si>
+  <si>
+    <t>E70091818922</t>
+  </si>
+  <si>
+    <t>31/07/2025 21:08</t>
+  </si>
+  <si>
+    <t>B37054854</t>
+  </si>
+  <si>
+    <t>ADSL1004638901</t>
+  </si>
+  <si>
+    <t>91819072</t>
+  </si>
+  <si>
+    <t>VIA DELLE ORTENSIE - CASSIBILE 23</t>
+  </si>
+  <si>
+    <t>DTU0066417860</t>
+  </si>
+  <si>
+    <t>0931861753</t>
+  </si>
+  <si>
+    <t>E70091819072</t>
+  </si>
+  <si>
+    <t>31/07/2025 21:24</t>
+  </si>
+  <si>
+    <t>B37055037</t>
+  </si>
+  <si>
+    <t>ADSL1004640147</t>
+  </si>
+  <si>
+    <t>91828827</t>
+  </si>
+  <si>
+    <t>V. SERGIO SALLICANO 7</t>
+  </si>
+  <si>
+    <t>DTU0066432422</t>
+  </si>
+  <si>
+    <t>0931892130</t>
+  </si>
+  <si>
+    <t>E70091828827</t>
+  </si>
+  <si>
+    <t>01/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>B37067392</t>
+  </si>
+  <si>
+    <t>ADSL1004644155</t>
+  </si>
+  <si>
+    <t>91852385</t>
+  </si>
+  <si>
+    <t>VIA SAN MARTINO 21</t>
+  </si>
+  <si>
+    <t>DTU0066447965</t>
+  </si>
+  <si>
+    <t>93114724406</t>
+  </si>
+  <si>
+    <t>E70091852385</t>
+  </si>
+  <si>
+    <t>02/08/2025 08:22</t>
+  </si>
+  <si>
+    <t>B37089921</t>
+  </si>
+  <si>
+    <t>ADSL1004644177</t>
+  </si>
+  <si>
+    <t>91852526</t>
+  </si>
+  <si>
+    <t>DTU0066444847</t>
+  </si>
+  <si>
+    <t>93114759494</t>
+  </si>
+  <si>
+    <t>E70091852526</t>
+  </si>
+  <si>
+    <t>B37090053</t>
+  </si>
+  <si>
+    <t>ADSL1004649119</t>
+  </si>
+  <si>
+    <t>91882851</t>
+  </si>
+  <si>
+    <t>E70091882851</t>
+  </si>
+  <si>
+    <t>04/08/2025 11:34</t>
+  </si>
+  <si>
+    <t>B37123909</t>
+  </si>
+  <si>
+    <t>ADSL1004651015</t>
+  </si>
+  <si>
+    <t>91896339</t>
+  </si>
+  <si>
+    <t>VIALE VITTORIO VENETO 168</t>
+  </si>
+  <si>
+    <t>08/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>DTU0066471503</t>
+  </si>
+  <si>
+    <t>0931314256</t>
+  </si>
+  <si>
+    <t>E70091896339</t>
+  </si>
+  <si>
+    <t>04/08/2025 16:02</t>
+  </si>
+  <si>
+    <t>B37133668</t>
+  </si>
+  <si>
+    <t>ADSL1004651849</t>
+  </si>
+  <si>
+    <t>91901631</t>
+  </si>
+  <si>
+    <t>VIA ROCCO CHINNICI 35</t>
+  </si>
+  <si>
+    <t>DTU0066473590</t>
+  </si>
+  <si>
+    <t>0931861023</t>
+  </si>
+  <si>
+    <t>E70091901631</t>
+  </si>
+  <si>
+    <t>04/08/2025 18:24</t>
+  </si>
+  <si>
+    <t>B37137619</t>
+  </si>
+  <si>
+    <t>ADSL1004653710</t>
+  </si>
+  <si>
+    <t>91913426</t>
+  </si>
+  <si>
+    <t>VIA GORIZIA 29</t>
+  </si>
+  <si>
+    <t>DTU0066468947</t>
+  </si>
+  <si>
+    <t>0931861779</t>
+  </si>
+  <si>
+    <t>E70091913426</t>
+  </si>
+  <si>
+    <t>05/08/2025 10:46</t>
+  </si>
+  <si>
+    <t>B37150991</t>
+  </si>
+  <si>
+    <t>ADSL1004655319</t>
+  </si>
+  <si>
+    <t>91925218</t>
+  </si>
+  <si>
+    <t>VIA OLINTO MARINELLI 60</t>
+  </si>
+  <si>
+    <t>DTU0066392758</t>
+  </si>
+  <si>
+    <t>0931861788</t>
+  </si>
+  <si>
+    <t>E70091925218</t>
+  </si>
+  <si>
+    <t>05/08/2025 14:26</t>
+  </si>
+  <si>
+    <t>B37159844</t>
+  </si>
+  <si>
+    <t>ADSL1004657179</t>
+  </si>
+  <si>
+    <t>91940618</t>
+  </si>
+  <si>
+    <t>STRADA MONASTERI 21</t>
+  </si>
+  <si>
+    <t>DTU0066488291</t>
+  </si>
+  <si>
+    <t>0931861351</t>
+  </si>
+  <si>
+    <t>E70091940618</t>
+  </si>
+  <si>
+    <t>05/08/2025 18:58</t>
+  </si>
+  <si>
+    <t>B37171790</t>
+  </si>
+  <si>
+    <t>ADSL1004658110</t>
+  </si>
+  <si>
+    <t>91944912</t>
+  </si>
+  <si>
+    <t>VIA PITAGORA 9</t>
+  </si>
+  <si>
+    <t>DTU0066490344</t>
+  </si>
+  <si>
+    <t>93114759507</t>
+  </si>
+  <si>
+    <t>E70091944912</t>
+  </si>
+  <si>
+    <t>06/08/2025 00:42</t>
+  </si>
+  <si>
+    <t>B37176245</t>
+  </si>
+  <si>
+    <t>ADSL1004658476</t>
+  </si>
+  <si>
+    <t>91948219</t>
+  </si>
+  <si>
+    <t>VIA FRATELLI ROSSELLI 16</t>
+  </si>
+  <si>
+    <t>DTU0066470868</t>
+  </si>
+  <si>
+    <t>93114757711</t>
+  </si>
+  <si>
+    <t>E70091948219</t>
+  </si>
+  <si>
+    <t>06/08/2025 09:26</t>
+  </si>
+  <si>
+    <t>B37183066</t>
+  </si>
+  <si>
+    <t>ADSL1004658565</t>
+  </si>
+  <si>
+    <t>91949213</t>
+  </si>
+  <si>
+    <t>VIA UGO FOSCOLO 2</t>
+  </si>
+  <si>
+    <t>DTU0066231131</t>
+  </si>
+  <si>
+    <t>0931861633</t>
+  </si>
+  <si>
+    <t>E70091949213</t>
+  </si>
+  <si>
+    <t>06/08/2025 09:46</t>
+  </si>
+  <si>
+    <t>B37183836</t>
+  </si>
+  <si>
+    <t>ADSL1004661531</t>
+  </si>
+  <si>
+    <t>91968308</t>
+  </si>
+  <si>
+    <t>VICO MOLISE 25</t>
+  </si>
+  <si>
+    <t>DTU0064870957</t>
+  </si>
+  <si>
+    <t>G600060765</t>
+  </si>
+  <si>
+    <t>E70091968308</t>
+  </si>
+  <si>
+    <t>06/08/2025 16:24</t>
+  </si>
+  <si>
+    <t>B37198489</t>
+  </si>
+  <si>
+    <t>ADSL1004662186</t>
+  </si>
+  <si>
+    <t>91971616</t>
+  </si>
+  <si>
+    <t>VIA GIOVANNI GIOLITTI 13</t>
+  </si>
+  <si>
+    <t>08/08/2025 17:00</t>
+  </si>
+  <si>
+    <t>DTU0066435088</t>
+  </si>
+  <si>
+    <t>93114737186</t>
+  </si>
+  <si>
+    <t>E70091971616</t>
+  </si>
+  <si>
+    <t>06/08/2025 17:58</t>
+  </si>
+  <si>
+    <t>B37200990</t>
+  </si>
+  <si>
+    <t>ADSL1004662196</t>
+  </si>
+  <si>
+    <t>91971643</t>
+  </si>
+  <si>
+    <t>VIA DANTE ALIGHIERI 157</t>
+  </si>
+  <si>
+    <t>DTU0066434990</t>
+  </si>
+  <si>
+    <t>93114759348</t>
+  </si>
+  <si>
+    <t>E70091971643</t>
+  </si>
+  <si>
+    <t>B37200959</t>
+  </si>
+  <si>
+    <t>ADSL1004662616</t>
+  </si>
+  <si>
+    <t>91974133</t>
+  </si>
+  <si>
+    <t>VIA ALESSANDRO MANZONI 162</t>
+  </si>
+  <si>
+    <t>DTU0066383168</t>
+  </si>
+  <si>
+    <t>93114732508</t>
+  </si>
+  <si>
+    <t>E70091974133</t>
+  </si>
+  <si>
+    <t>06/08/2025 19:54</t>
+  </si>
+  <si>
+    <t>B37202916</t>
+  </si>
+  <si>
+    <t>ADSL1004663824</t>
+  </si>
+  <si>
+    <t>91981788</t>
+  </si>
+  <si>
+    <t>DTU0066507604</t>
+  </si>
+  <si>
+    <t>0931861133</t>
+  </si>
+  <si>
+    <t>E70091981788</t>
+  </si>
+  <si>
+    <t>07/08/2025 10:20</t>
+  </si>
+  <si>
+    <t>B37215093</t>
+  </si>
+  <si>
+    <t>ADSL1004664757</t>
+  </si>
+  <si>
+    <t>91989708</t>
+  </si>
+  <si>
+    <t>VIA MIDDLETOWN CONNECTICUT 4</t>
+  </si>
+  <si>
+    <t>DTU0066188568</t>
+  </si>
+  <si>
+    <t>0931861991</t>
+  </si>
+  <si>
+    <t>E70091989708</t>
+  </si>
+  <si>
+    <t>07/08/2025 12:58</t>
+  </si>
+  <si>
+    <t>B37222502</t>
+  </si>
+  <si>
+    <t>ADSL1004665607</t>
+  </si>
+  <si>
+    <t>91995534</t>
+  </si>
+  <si>
+    <t>VIA G.CONSIGLIO 15</t>
+  </si>
+  <si>
+    <t>09/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>DTU0066503104</t>
+  </si>
+  <si>
+    <t>93114732457</t>
+  </si>
+  <si>
+    <t>E70091995534</t>
+  </si>
+  <si>
+    <t>07/08/2025 14:58</t>
+  </si>
+  <si>
+    <t>B37226774</t>
+  </si>
+  <si>
+    <t>ADSL1004665642</t>
+  </si>
+  <si>
+    <t>91995775</t>
+  </si>
+  <si>
+    <t>VIA TINTORETTO 10</t>
+  </si>
+  <si>
+    <t>DTU0066510487</t>
+  </si>
+  <si>
+    <t>0931861102</t>
+  </si>
+  <si>
+    <t>E70091995775</t>
+  </si>
+  <si>
+    <t>07/08/2025 15:04</t>
+  </si>
+  <si>
+    <t>B37226913</t>
+  </si>
+  <si>
+    <t>ADSL1004665648</t>
+  </si>
+  <si>
+    <t>91995781</t>
+  </si>
+  <si>
+    <t>VIA TENENTE SIPIONE 52</t>
+  </si>
+  <si>
+    <t>DTU0066500280</t>
+  </si>
+  <si>
+    <t>0931861794</t>
+  </si>
+  <si>
+    <t>E70091995781</t>
+  </si>
+  <si>
+    <t>B37226911</t>
+  </si>
+  <si>
+    <t>ADSL1004665674</t>
+  </si>
+  <si>
+    <t>91995861</t>
+  </si>
+  <si>
+    <t>VIA GIOVANNI PASCOLI 12</t>
+  </si>
+  <si>
+    <t>DTU0066166667</t>
+  </si>
+  <si>
+    <t>93114743815</t>
+  </si>
+  <si>
+    <t>E70091995861</t>
+  </si>
+  <si>
+    <t>B37226947</t>
+  </si>
+  <si>
+    <t>ADSL1004667851</t>
+  </si>
+  <si>
+    <t>92008667</t>
+  </si>
+  <si>
+    <t>VIA D'AGATA MICALE 73</t>
+  </si>
+  <si>
+    <t>DTU0066532798</t>
+  </si>
+  <si>
+    <t>93114757375</t>
+  </si>
+  <si>
+    <t>E70092008667</t>
+  </si>
+  <si>
+    <t>07/08/2025 23:00</t>
+  </si>
+  <si>
+    <t>B37237662</t>
   </si>
 </sst>
 </file>
@@ -17107,10 +17800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN662"/>
+  <dimension ref="A1:AN692"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A647" workbookViewId="0">
+      <selection activeCell="B665" sqref="B665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -97885,6 +98578,3666 @@
         <v>5586</v>
       </c>
     </row>
+    <row r="663" spans="1:40">
+      <c r="A663" s="1" t="s">
+        <v>5587</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>5588</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K663" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L663" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M663" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N663" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O663" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P663" s="1" t="s">
+        <v>5590</v>
+      </c>
+      <c r="Q663" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="R663" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S663" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T663" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U663" s="1" t="s">
+        <v>5592</v>
+      </c>
+      <c r="V663" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="W663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X663" s="1" t="s">
+        <v>5594</v>
+      </c>
+      <c r="Y663" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z663" s="1" t="s">
+        <v>5595</v>
+      </c>
+      <c r="AA663" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB663" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC663" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD663" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE663" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF663" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG663" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI663" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK663" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM663" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN663" s="1" t="s">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="664" spans="1:40">
+      <c r="A664" s="1" t="s">
+        <v>5597</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>5598</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G664" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H664" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I664" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J664" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K664" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L664" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M664" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N664" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O664" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="P664" s="1" t="s">
+        <v>5599</v>
+      </c>
+      <c r="Q664" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R664" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S664" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T664" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U664" s="1" t="s">
+        <v>5601</v>
+      </c>
+      <c r="V664" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="W664" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X664" s="1" t="s">
+        <v>5603</v>
+      </c>
+      <c r="Y664" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z664" s="1" t="s">
+        <v>5604</v>
+      </c>
+      <c r="AA664" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB664" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC664" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD664" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE664" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AF664" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG664" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AH664" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AI664" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ664" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK664" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL664" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM664" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN664" s="1" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="665" spans="1:40">
+      <c r="A665" s="1" t="s">
+        <v>5606</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>5607</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K665" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L665" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M665" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N665" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O665" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P665" s="1" t="s">
+        <v>5608</v>
+      </c>
+      <c r="Q665" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R665" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S665" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T665" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U665" s="1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="V665" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="W665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X665" s="1" t="s">
+        <v>5611</v>
+      </c>
+      <c r="Y665" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z665" s="1" t="s">
+        <v>5612</v>
+      </c>
+      <c r="AA665" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB665" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC665" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD665" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE665" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF665" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG665" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI665" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK665" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM665" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN665" s="1" t="s">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="666" spans="1:40">
+      <c r="A666" s="1" t="s">
+        <v>5614</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>5615</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G666" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H666" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I666" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J666" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K666" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L666" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M666" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N666" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O666" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P666" s="1" t="s">
+        <v>5616</v>
+      </c>
+      <c r="Q666" s="1" t="s">
+        <v>5617</v>
+      </c>
+      <c r="R666" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S666" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T666" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U666" s="1" t="s">
+        <v>5618</v>
+      </c>
+      <c r="V666" s="1" t="s">
+        <v>5619</v>
+      </c>
+      <c r="W666" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X666" s="1" t="s">
+        <v>5620</v>
+      </c>
+      <c r="Y666" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z666" s="1" t="s">
+        <v>5621</v>
+      </c>
+      <c r="AA666" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB666" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC666" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD666" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE666" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF666" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG666" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH666" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI666" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ666" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK666" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL666" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM666" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN666" s="1" t="s">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="667" spans="1:40">
+      <c r="A667" s="1" t="s">
+        <v>5623</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G667" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H667" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I667" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J667" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K667" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L667" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M667" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N667" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O667" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P667" s="1" t="s">
+        <v>5626</v>
+      </c>
+      <c r="Q667" s="1" t="s">
+        <v>5231</v>
+      </c>
+      <c r="R667" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S667" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T667" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U667" s="1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="V667" s="1" t="s">
+        <v>5628</v>
+      </c>
+      <c r="W667" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X667" s="1" t="s">
+        <v>5629</v>
+      </c>
+      <c r="Y667" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z667" s="1" t="s">
+        <v>5630</v>
+      </c>
+      <c r="AA667" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB667" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC667" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD667" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE667" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF667" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG667" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH667" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI667" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ667" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK667" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL667" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM667" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN667" s="1" t="s">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="668" spans="1:40">
+      <c r="A668" s="1" t="s">
+        <v>5632</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>5633</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G668" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H668" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I668" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J668" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K668" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L668" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M668" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N668" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O668" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P668" s="1" t="s">
+        <v>5634</v>
+      </c>
+      <c r="Q668" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R668" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S668" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T668" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U668" s="1" t="s">
+        <v>5635</v>
+      </c>
+      <c r="V668" s="1" t="s">
+        <v>5636</v>
+      </c>
+      <c r="W668" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X668" s="1" t="s">
+        <v>5637</v>
+      </c>
+      <c r="Y668" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z668" s="1" t="s">
+        <v>5638</v>
+      </c>
+      <c r="AA668" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB668" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC668" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD668" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE668" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF668" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG668" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH668" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI668" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ668" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK668" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL668" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM668" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN668" s="1" t="s">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="669" spans="1:40">
+      <c r="A669" s="1" t="s">
+        <v>5640</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>5641</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G669" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H669" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I669" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J669" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K669" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L669" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M669" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N669" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O669" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P669" s="1" t="s">
+        <v>5642</v>
+      </c>
+      <c r="Q669" s="1" t="s">
+        <v>5617</v>
+      </c>
+      <c r="R669" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S669" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T669" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U669" s="1" t="s">
+        <v>5643</v>
+      </c>
+      <c r="V669" s="1" t="s">
+        <v>5644</v>
+      </c>
+      <c r="W669" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X669" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="Y669" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z669" s="1" t="s">
+        <v>5646</v>
+      </c>
+      <c r="AA669" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB669" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC669" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD669" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE669" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF669" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG669" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH669" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI669" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ669" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK669" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL669" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM669" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN669" s="1" t="s">
+        <v>5647</v>
+      </c>
+    </row>
+    <row r="670" spans="1:40">
+      <c r="A670" s="1" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>5228</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G670" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H670" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I670" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J670" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K670" s="1" t="s">
+        <v>5229</v>
+      </c>
+      <c r="L670" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M670" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N670" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O670" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P670" s="1" t="s">
+        <v>5230</v>
+      </c>
+      <c r="Q670" s="1" t="s">
+        <v>5231</v>
+      </c>
+      <c r="R670" s="1" t="s">
+        <v>5250</v>
+      </c>
+      <c r="S670" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T670" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="U670" s="1" t="s">
+        <v>5233</v>
+      </c>
+      <c r="V670" s="1" t="s">
+        <v>5234</v>
+      </c>
+      <c r="W670" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X670" s="1" t="s">
+        <v>5235</v>
+      </c>
+      <c r="Y670" s="1" t="s">
+        <v>5236</v>
+      </c>
+      <c r="Z670" s="1" t="s">
+        <v>5237</v>
+      </c>
+      <c r="AA670" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB670" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC670" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD670" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE670" s="1" t="s">
+        <v>5238</v>
+      </c>
+      <c r="AF670" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG670" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH670" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI670" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ670" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK670" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL670" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM670" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN670" s="1" t="s">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="671" spans="1:40">
+      <c r="A671" s="1" t="s">
+        <v>5648</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>5649</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G671" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H671" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I671" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J671" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K671" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L671" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M671" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N671" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O671" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P671" s="1" t="s">
+        <v>5650</v>
+      </c>
+      <c r="Q671" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R671" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S671" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T671" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U671" s="1" t="s">
+        <v>5651</v>
+      </c>
+      <c r="V671" s="1" t="s">
+        <v>5652</v>
+      </c>
+      <c r="W671" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X671" s="1" t="s">
+        <v>5653</v>
+      </c>
+      <c r="Y671" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z671" s="1" t="s">
+        <v>5654</v>
+      </c>
+      <c r="AA671" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB671" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC671" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD671" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE671" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF671" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG671" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH671" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI671" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ671" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK671" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL671" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM671" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN671" s="1" t="s">
+        <v>5655</v>
+      </c>
+    </row>
+    <row r="672" spans="1:40">
+      <c r="A672" s="1" t="s">
+        <v>5656</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>5657</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G672" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H672" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I672" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J672" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K672" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L672" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M672" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N672" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O672" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P672" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="Q672" s="1" t="s">
+        <v>5617</v>
+      </c>
+      <c r="R672" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S672" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T672" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U672" s="1" t="s">
+        <v>5658</v>
+      </c>
+      <c r="V672" s="1" t="s">
+        <v>5659</v>
+      </c>
+      <c r="W672" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X672" s="1" t="s">
+        <v>5660</v>
+      </c>
+      <c r="Y672" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z672" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="AA672" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB672" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC672" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD672" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE672" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF672" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG672" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH672" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI672" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ672" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK672" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL672" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM672" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN672" s="1" t="s">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="673" spans="1:40">
+      <c r="A673" s="1" t="s">
+        <v>5662</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>5663</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G673" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H673" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J673" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K673" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L673" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M673" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N673" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O673" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P673" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q673" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R673" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S673" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T673" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U673" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="V673" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="W673" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X673" s="1" t="s">
+        <v>5664</v>
+      </c>
+      <c r="Y673" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z673" s="1" t="s">
+        <v>5665</v>
+      </c>
+      <c r="AA673" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB673" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC673" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD673" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE673" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF673" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG673" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH673" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI673" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ673" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK673" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL673" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM673" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN673" s="1" t="s">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="674" spans="1:40">
+      <c r="A674" s="1" t="s">
+        <v>5667</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>5668</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G674" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H674" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I674" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J674" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K674" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L674" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M674" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N674" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O674" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P674" s="1" t="s">
+        <v>5669</v>
+      </c>
+      <c r="Q674" s="1" t="s">
+        <v>5670</v>
+      </c>
+      <c r="R674" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S674" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T674" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U674" s="1" t="s">
+        <v>5671</v>
+      </c>
+      <c r="V674" s="1" t="s">
+        <v>5672</v>
+      </c>
+      <c r="W674" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X674" s="1" t="s">
+        <v>5673</v>
+      </c>
+      <c r="Y674" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z674" s="1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="AA674" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB674" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC674" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD674" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE674" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF674" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG674" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH674" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI674" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ674" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK674" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL674" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM674" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN674" s="1" t="s">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="675" spans="1:40">
+      <c r="A675" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>5677</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G675" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H675" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I675" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J675" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K675" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L675" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M675" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N675" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O675" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P675" s="1" t="s">
+        <v>5678</v>
+      </c>
+      <c r="Q675" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="R675" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S675" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T675" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U675" s="1" t="s">
+        <v>5679</v>
+      </c>
+      <c r="V675" s="1" t="s">
+        <v>5680</v>
+      </c>
+      <c r="W675" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X675" s="1" t="s">
+        <v>5681</v>
+      </c>
+      <c r="Y675" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z675" s="1" t="s">
+        <v>5682</v>
+      </c>
+      <c r="AA675" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB675" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC675" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD675" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE675" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF675" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG675" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH675" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI675" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ675" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK675" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL675" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM675" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN675" s="1" t="s">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="676" spans="1:40">
+      <c r="A676" s="1" t="s">
+        <v>5684</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>5685</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G676" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H676" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I676" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J676" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K676" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L676" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M676" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="N676" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O676" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P676" s="1" t="s">
+        <v>5686</v>
+      </c>
+      <c r="Q676" s="1" t="s">
+        <v>5617</v>
+      </c>
+      <c r="R676" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S676" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T676" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U676" s="1" t="s">
+        <v>5687</v>
+      </c>
+      <c r="V676" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="W676" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X676" s="1" t="s">
+        <v>5689</v>
+      </c>
+      <c r="Y676" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z676" s="1" t="s">
+        <v>5690</v>
+      </c>
+      <c r="AA676" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AB676" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC676" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD676" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE676" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF676" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG676" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH676" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI676" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ676" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK676" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL676" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM676" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN676" s="1" t="s">
+        <v>5691</v>
+      </c>
+    </row>
+    <row r="677" spans="1:40">
+      <c r="A677" s="1" t="s">
+        <v>5692</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>5693</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H677" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I677" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J677" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K677" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L677" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M677" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N677" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O677" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P677" s="1" t="s">
+        <v>5694</v>
+      </c>
+      <c r="Q677" s="1" t="s">
+        <v>5670</v>
+      </c>
+      <c r="R677" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S677" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T677" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U677" s="1" t="s">
+        <v>5695</v>
+      </c>
+      <c r="V677" s="1" t="s">
+        <v>5696</v>
+      </c>
+      <c r="W677" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X677" s="1" t="s">
+        <v>5697</v>
+      </c>
+      <c r="Y677" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z677" s="1" t="s">
+        <v>5698</v>
+      </c>
+      <c r="AA677" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB677" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC677" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD677" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE677" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF677" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG677" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH677" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI677" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ677" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK677" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL677" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM677" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN677" s="1" t="s">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="678" spans="1:40">
+      <c r="A678" s="1" t="s">
+        <v>5700</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>5701</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G678" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H678" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I678" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="J678" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K678" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L678" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M678" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N678" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O678" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P678" s="1" t="s">
+        <v>5702</v>
+      </c>
+      <c r="Q678" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R678" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S678" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T678" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U678" s="1" t="s">
+        <v>5703</v>
+      </c>
+      <c r="V678" s="1" t="s">
+        <v>5704</v>
+      </c>
+      <c r="W678" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X678" s="1" t="s">
+        <v>5705</v>
+      </c>
+      <c r="Y678" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z678" s="1" t="s">
+        <v>5706</v>
+      </c>
+      <c r="AA678" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB678" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC678" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD678" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE678" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF678" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG678" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH678" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI678" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ678" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK678" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL678" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM678" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN678" s="1" t="s">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="679" spans="1:40">
+      <c r="A679" s="1" t="s">
+        <v>5708</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>5709</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G679" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H679" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I679" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J679" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K679" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L679" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M679" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N679" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O679" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P679" s="1" t="s">
+        <v>5710</v>
+      </c>
+      <c r="Q679" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R679" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S679" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T679" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U679" s="1" t="s">
+        <v>5711</v>
+      </c>
+      <c r="V679" s="1" t="s">
+        <v>5712</v>
+      </c>
+      <c r="W679" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X679" s="1" t="s">
+        <v>5713</v>
+      </c>
+      <c r="Y679" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z679" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="AA679" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB679" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC679" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD679" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE679" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF679" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG679" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH679" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI679" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ679" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK679" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL679" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM679" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN679" s="1" t="s">
+        <v>5715</v>
+      </c>
+    </row>
+    <row r="680" spans="1:40">
+      <c r="A680" s="1" t="s">
+        <v>5716</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>5717</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G680" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H680" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I680" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J680" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K680" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L680" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M680" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N680" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O680" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P680" s="1" t="s">
+        <v>5718</v>
+      </c>
+      <c r="Q680" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="R680" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S680" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T680" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U680" s="1" t="s">
+        <v>5719</v>
+      </c>
+      <c r="V680" s="1" t="s">
+        <v>5720</v>
+      </c>
+      <c r="W680" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X680" s="1" t="s">
+        <v>5721</v>
+      </c>
+      <c r="Y680" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z680" s="1" t="s">
+        <v>5722</v>
+      </c>
+      <c r="AA680" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB680" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC680" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD680" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE680" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF680" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG680" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH680" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI680" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ680" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK680" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL680" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM680" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN680" s="1" t="s">
+        <v>5723</v>
+      </c>
+    </row>
+    <row r="681" spans="1:40">
+      <c r="A681" s="1" t="s">
+        <v>5724</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>5725</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G681" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H681" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I681" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J681" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K681" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L681" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M681" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N681" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O681" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P681" s="1" t="s">
+        <v>5726</v>
+      </c>
+      <c r="Q681" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="R681" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S681" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T681" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U681" s="1" t="s">
+        <v>5727</v>
+      </c>
+      <c r="V681" s="1" t="s">
+        <v>5728</v>
+      </c>
+      <c r="W681" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X681" s="1" t="s">
+        <v>5729</v>
+      </c>
+      <c r="Y681" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z681" s="1" t="s">
+        <v>5730</v>
+      </c>
+      <c r="AA681" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB681" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC681" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD681" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE681" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF681" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG681" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH681" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI681" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ681" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK681" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL681" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM681" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN681" s="1" t="s">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="682" spans="1:40">
+      <c r="A682" s="1" t="s">
+        <v>5732</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>5733</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G682" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H682" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I682" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J682" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K682" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L682" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M682" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N682" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O682" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="P682" s="1" t="s">
+        <v>5734</v>
+      </c>
+      <c r="Q682" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R682" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S682" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T682" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U682" s="1" t="s">
+        <v>5735</v>
+      </c>
+      <c r="V682" s="1" t="s">
+        <v>5736</v>
+      </c>
+      <c r="W682" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X682" s="1" t="s">
+        <v>5737</v>
+      </c>
+      <c r="Y682" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z682" s="1" t="s">
+        <v>5738</v>
+      </c>
+      <c r="AA682" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB682" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC682" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD682" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE682" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AF682" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG682" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AH682" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AI682" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ682" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK682" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL682" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM682" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN682" s="1" t="s">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="683" spans="1:40">
+      <c r="A683" s="1" t="s">
+        <v>5740</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>5741</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G683" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H683" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I683" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J683" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K683" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L683" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M683" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N683" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O683" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P683" s="1" t="s">
+        <v>5742</v>
+      </c>
+      <c r="Q683" s="1" t="s">
+        <v>5743</v>
+      </c>
+      <c r="R683" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S683" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T683" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U683" s="1" t="s">
+        <v>5744</v>
+      </c>
+      <c r="V683" s="1" t="s">
+        <v>5745</v>
+      </c>
+      <c r="W683" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X683" s="1" t="s">
+        <v>5746</v>
+      </c>
+      <c r="Y683" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z683" s="1" t="s">
+        <v>5747</v>
+      </c>
+      <c r="AA683" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB683" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC683" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD683" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE683" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF683" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG683" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH683" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI683" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ683" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK683" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL683" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM683" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN683" s="1" t="s">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="684" spans="1:40">
+      <c r="A684" s="1" t="s">
+        <v>5749</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>5750</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G684" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H684" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I684" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J684" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K684" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L684" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M684" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N684" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O684" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P684" s="1" t="s">
+        <v>5751</v>
+      </c>
+      <c r="Q684" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R684" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S684" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T684" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U684" s="1" t="s">
+        <v>5752</v>
+      </c>
+      <c r="V684" s="1" t="s">
+        <v>5753</v>
+      </c>
+      <c r="W684" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X684" s="1" t="s">
+        <v>5754</v>
+      </c>
+      <c r="Y684" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z684" s="1" t="s">
+        <v>5747</v>
+      </c>
+      <c r="AA684" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB684" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC684" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD684" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE684" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF684" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG684" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH684" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI684" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ684" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK684" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL684" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM684" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN684" s="1" t="s">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="685" spans="1:40">
+      <c r="A685" s="1" t="s">
+        <v>5756</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>5757</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G685" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H685" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I685" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J685" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K685" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L685" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M685" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N685" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O685" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P685" s="1" t="s">
+        <v>5758</v>
+      </c>
+      <c r="Q685" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="R685" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S685" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T685" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U685" s="1" t="s">
+        <v>5759</v>
+      </c>
+      <c r="V685" s="1" t="s">
+        <v>5760</v>
+      </c>
+      <c r="W685" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X685" s="1" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y685" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z685" s="1" t="s">
+        <v>5762</v>
+      </c>
+      <c r="AA685" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB685" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC685" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD685" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE685" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF685" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG685" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH685" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI685" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ685" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK685" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL685" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM685" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN685" s="1" t="s">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="686" spans="1:40">
+      <c r="A686" s="1" t="s">
+        <v>5764</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>5765</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H686" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I686" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J686" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K686" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L686" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M686" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N686" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O686" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P686" s="1" t="s">
+        <v>4696</v>
+      </c>
+      <c r="Q686" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="R686" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S686" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T686" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U686" s="1" t="s">
+        <v>5766</v>
+      </c>
+      <c r="V686" s="1" t="s">
+        <v>5767</v>
+      </c>
+      <c r="W686" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X686" s="1" t="s">
+        <v>5768</v>
+      </c>
+      <c r="Y686" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z686" s="1" t="s">
+        <v>5769</v>
+      </c>
+      <c r="AA686" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB686" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC686" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD686" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE686" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF686" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG686" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH686" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI686" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ686" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK686" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL686" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM686" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN686" s="1" t="s">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="687" spans="1:40">
+      <c r="A687" s="1" t="s">
+        <v>5771</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>5772</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G687" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H687" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I687" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J687" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K687" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L687" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M687" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="N687" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O687" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P687" s="1" t="s">
+        <v>5773</v>
+      </c>
+      <c r="Q687" s="1" t="s">
+        <v>5670</v>
+      </c>
+      <c r="R687" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S687" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T687" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U687" s="1" t="s">
+        <v>5774</v>
+      </c>
+      <c r="V687" s="1" t="s">
+        <v>5775</v>
+      </c>
+      <c r="W687" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X687" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="Y687" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z687" s="1" t="s">
+        <v>5777</v>
+      </c>
+      <c r="AA687" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AB687" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC687" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD687" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE687" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF687" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG687" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH687" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI687" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ687" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK687" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL687" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM687" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN687" s="1" t="s">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="688" spans="1:40">
+      <c r="A688" s="1" t="s">
+        <v>5779</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>5780</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G688" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H688" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I688" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J688" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K688" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L688" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M688" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N688" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O688" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P688" s="1" t="s">
+        <v>5781</v>
+      </c>
+      <c r="Q688" s="1" t="s">
+        <v>5782</v>
+      </c>
+      <c r="R688" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S688" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T688" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U688" s="1" t="s">
+        <v>5783</v>
+      </c>
+      <c r="V688" s="1" t="s">
+        <v>5784</v>
+      </c>
+      <c r="W688" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="X688" s="1" t="s">
+        <v>5785</v>
+      </c>
+      <c r="Y688" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z688" s="1" t="s">
+        <v>5786</v>
+      </c>
+      <c r="AA688" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB688" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC688" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD688" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE688" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF688" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG688" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH688" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI688" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ688" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK688" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL688" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM688" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN688" s="1" t="s">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="689" spans="1:40">
+      <c r="A689" s="1" t="s">
+        <v>5788</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>5789</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G689" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H689" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I689" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J689" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K689" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L689" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M689" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N689" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O689" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P689" s="1" t="s">
+        <v>5790</v>
+      </c>
+      <c r="Q689" s="1" t="s">
+        <v>5617</v>
+      </c>
+      <c r="R689" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S689" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T689" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U689" s="1" t="s">
+        <v>5791</v>
+      </c>
+      <c r="V689" s="1" t="s">
+        <v>5792</v>
+      </c>
+      <c r="W689" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X689" s="1" t="s">
+        <v>5793</v>
+      </c>
+      <c r="Y689" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z689" s="1" t="s">
+        <v>5794</v>
+      </c>
+      <c r="AA689" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB689" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC689" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD689" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE689" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF689" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG689" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH689" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI689" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ689" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK689" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL689" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM689" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN689" s="1" t="s">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="690" spans="1:40">
+      <c r="A690" s="1" t="s">
+        <v>5796</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>5797</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G690" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H690" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I690" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J690" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K690" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L690" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M690" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N690" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O690" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P690" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="Q690" s="1" t="s">
+        <v>5670</v>
+      </c>
+      <c r="R690" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S690" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T690" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U690" s="1" t="s">
+        <v>5799</v>
+      </c>
+      <c r="V690" s="1" t="s">
+        <v>5800</v>
+      </c>
+      <c r="W690" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X690" s="1" t="s">
+        <v>5801</v>
+      </c>
+      <c r="Y690" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z690" s="1" t="s">
+        <v>5794</v>
+      </c>
+      <c r="AA690" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB690" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC690" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD690" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE690" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF690" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG690" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH690" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI690" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ690" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK690" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL690" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM690" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN690" s="1" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="691" spans="1:40">
+      <c r="A691" s="1" t="s">
+        <v>5803</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>5804</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G691" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H691" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I691" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J691" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K691" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L691" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M691" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N691" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O691" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P691" s="1" t="s">
+        <v>5805</v>
+      </c>
+      <c r="Q691" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="R691" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S691" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T691" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U691" s="1" t="s">
+        <v>5806</v>
+      </c>
+      <c r="V691" s="1" t="s">
+        <v>5807</v>
+      </c>
+      <c r="W691" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X691" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="Y691" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z691" s="1" t="s">
+        <v>5794</v>
+      </c>
+      <c r="AA691" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB691" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC691" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD691" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE691" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF691" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG691" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH691" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI691" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ691" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK691" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL691" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM691" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN691" s="1" t="s">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="692" spans="1:40">
+      <c r="A692" s="1" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>5811</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G692" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H692" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I692" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J692" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K692" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L692" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M692" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N692" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O692" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P692" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="Q692" s="1" t="s">
+        <v>5231</v>
+      </c>
+      <c r="R692" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S692" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T692" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U692" s="1" t="s">
+        <v>5813</v>
+      </c>
+      <c r="V692" s="1" t="s">
+        <v>5814</v>
+      </c>
+      <c r="W692" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="X692" s="1" t="s">
+        <v>5815</v>
+      </c>
+      <c r="Y692" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z692" s="1" t="s">
+        <v>5816</v>
+      </c>
+      <c r="AA692" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB692" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC692" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD692" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE692" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF692" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG692" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH692" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI692" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ692" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK692" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL692" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM692" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN692" s="1" t="s">
+        <v>5817</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AN662"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19480" uniqueCount="2677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21325" uniqueCount="2905">
   <si>
     <t>Codice</t>
   </si>
@@ -8048,6 +8048,690 @@
   </si>
   <si>
     <t>B37356133</t>
+  </si>
+  <si>
+    <t>ADSL1004644777</t>
+  </si>
+  <si>
+    <t>91856150</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>VIA DURANDO 83</t>
+  </si>
+  <si>
+    <t>18/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>Di Giorgio Danilo</t>
+  </si>
+  <si>
+    <t>DTU0066440550</t>
+  </si>
+  <si>
+    <t>0931861081</t>
+  </si>
+  <si>
+    <t>E70091856150</t>
+  </si>
+  <si>
+    <t>02/08/2025 11:48</t>
+  </si>
+  <si>
+    <t>B37092745</t>
+  </si>
+  <si>
+    <t>ADSL1004680493</t>
+  </si>
+  <si>
+    <t>92090161</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>VIA DURANDO 37</t>
+  </si>
+  <si>
+    <t>18/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>DTU0066546195</t>
+  </si>
+  <si>
+    <t>93114759542</t>
+  </si>
+  <si>
+    <t>E70092090161</t>
+  </si>
+  <si>
+    <t>12/08/2025 11:26</t>
+  </si>
+  <si>
+    <t>B37327185</t>
+  </si>
+  <si>
+    <t>ADSL1004661733</t>
+  </si>
+  <si>
+    <t>91969438</t>
+  </si>
+  <si>
+    <t>VIA MICHELE RAFFA 5</t>
+  </si>
+  <si>
+    <t>DTU0066380619</t>
+  </si>
+  <si>
+    <t>93114723840</t>
+  </si>
+  <si>
+    <t>E70091969438</t>
+  </si>
+  <si>
+    <t>06/08/2025 16:54</t>
+  </si>
+  <si>
+    <t>B37199304</t>
+  </si>
+  <si>
+    <t>ADSL1004689735</t>
+  </si>
+  <si>
+    <t>92151176</t>
+  </si>
+  <si>
+    <t>VIA GIUSEPPE BIANCA 45</t>
+  </si>
+  <si>
+    <t>DTU0066434683</t>
+  </si>
+  <si>
+    <t>93114732619</t>
+  </si>
+  <si>
+    <t>E70092151176</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:34</t>
+  </si>
+  <si>
+    <t>B37384839</t>
+  </si>
+  <si>
+    <t>ADSL1004652648</t>
+  </si>
+  <si>
+    <t>91905520</t>
+  </si>
+  <si>
+    <t>VIA TENENTE SIPIONE 75</t>
+  </si>
+  <si>
+    <t>18/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>GIONFRIDDO ANDREA</t>
+  </si>
+  <si>
+    <t>DTU0066478981</t>
+  </si>
+  <si>
+    <t>93114759315</t>
+  </si>
+  <si>
+    <t>E70091905520</t>
+  </si>
+  <si>
+    <t>04/08/2025 21:50</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>B37140762</t>
+  </si>
+  <si>
+    <t>ADSL1004662198</t>
+  </si>
+  <si>
+    <t>91971640</t>
+  </si>
+  <si>
+    <t>VIA NICCOLO' TOMMASEO 156</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>DTU0066444802</t>
+  </si>
+  <si>
+    <t>93114759395</t>
+  </si>
+  <si>
+    <t>E70091971640</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>B37200973</t>
+  </si>
+  <si>
+    <t>ADSL1004586274</t>
+  </si>
+  <si>
+    <t>91483309</t>
+  </si>
+  <si>
+    <t>VIA TALETE DI MILETO 20</t>
+  </si>
+  <si>
+    <t>DTU0066201646</t>
+  </si>
+  <si>
+    <t>93114743776</t>
+  </si>
+  <si>
+    <t>E70091483309</t>
+  </si>
+  <si>
+    <t>19/07/2025 11:20</t>
+  </si>
+  <si>
+    <t>B36741323</t>
+  </si>
+  <si>
+    <t>ADSL1004660072</t>
+  </si>
+  <si>
+    <t>91958945</t>
+  </si>
+  <si>
+    <t>VIA LABRIOLA 1</t>
+  </si>
+  <si>
+    <t>DTU0066485778</t>
+  </si>
+  <si>
+    <t>0931861701</t>
+  </si>
+  <si>
+    <t>E70091958945</t>
+  </si>
+  <si>
+    <t>06/08/2025 13:02</t>
+  </si>
+  <si>
+    <t>B37191446</t>
+  </si>
+  <si>
+    <t>ADSL1004666206</t>
+  </si>
+  <si>
+    <t>92000384</t>
+  </si>
+  <si>
+    <t>CONTRADA SAN VITO 5</t>
+  </si>
+  <si>
+    <t>DTU0066535832</t>
+  </si>
+  <si>
+    <t>0931951783</t>
+  </si>
+  <si>
+    <t>E70092000384</t>
+  </si>
+  <si>
+    <t>07/08/2025 16:18</t>
+  </si>
+  <si>
+    <t>B37230799</t>
+  </si>
+  <si>
+    <t>ADSL1004677235</t>
+  </si>
+  <si>
+    <t>92066867</t>
+  </si>
+  <si>
+    <t>PIAZZA SANDRO PERTINI 3</t>
+  </si>
+  <si>
+    <t>DTU0066359933</t>
+  </si>
+  <si>
+    <t>93114724726</t>
+  </si>
+  <si>
+    <t>E70092066867</t>
+  </si>
+  <si>
+    <t>B37304986</t>
+  </si>
+  <si>
+    <t>ADSL1004677896</t>
+  </si>
+  <si>
+    <t>92071526</t>
+  </si>
+  <si>
+    <t>DTU0066511928</t>
+  </si>
+  <si>
+    <t>93114759376</t>
+  </si>
+  <si>
+    <t>E70092071526</t>
+  </si>
+  <si>
+    <t>B37308305</t>
+  </si>
+  <si>
+    <t>ADSL1004644924</t>
+  </si>
+  <si>
+    <t>91856987</t>
+  </si>
+  <si>
+    <t>VIALE VITTORIO VENETO 96</t>
+  </si>
+  <si>
+    <t>DTU0066449876</t>
+  </si>
+  <si>
+    <t>0931949484</t>
+  </si>
+  <si>
+    <t>E70091856987</t>
+  </si>
+  <si>
+    <t>02/08/2025 12:22</t>
+  </si>
+  <si>
+    <t>B37093331</t>
+  </si>
+  <si>
+    <t>ADSL1004669243</t>
+  </si>
+  <si>
+    <t>92019266</t>
+  </si>
+  <si>
+    <t>VIALE PIETRO NENNI 10/C</t>
+  </si>
+  <si>
+    <t>DTU0066550761</t>
+  </si>
+  <si>
+    <t>0931949071</t>
+  </si>
+  <si>
+    <t>E70092019266</t>
+  </si>
+  <si>
+    <t>08/08/2025 12:02</t>
+  </si>
+  <si>
+    <t>B37250979</t>
+  </si>
+  <si>
+    <t>ADSL1004687862</t>
+  </si>
+  <si>
+    <t>92137330</t>
+  </si>
+  <si>
+    <t>V. POLISENA 50</t>
+  </si>
+  <si>
+    <t>DTU0066533570</t>
+  </si>
+  <si>
+    <t>0931311017</t>
+  </si>
+  <si>
+    <t>E70092137330</t>
+  </si>
+  <si>
+    <t>14/08/2025 09:42</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>B37374057</t>
+  </si>
+  <si>
+    <t>ADSL1004688722</t>
+  </si>
+  <si>
+    <t>92144078</t>
+  </si>
+  <si>
+    <t>VIA DEGLI ZAFFIRI 56</t>
+  </si>
+  <si>
+    <t>DTU0066403321</t>
+  </si>
+  <si>
+    <t>93114754160</t>
+  </si>
+  <si>
+    <t>E70092144078</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:16</t>
+  </si>
+  <si>
+    <t>B37379413</t>
+  </si>
+  <si>
+    <t>ADSL1004604595</t>
+  </si>
+  <si>
+    <t>91596088</t>
+  </si>
+  <si>
+    <t>VIA ANGELO CAVARRA 62</t>
+  </si>
+  <si>
+    <t>DTU0066204685</t>
+  </si>
+  <si>
+    <t>93114748987</t>
+  </si>
+  <si>
+    <t>E70091596088</t>
+  </si>
+  <si>
+    <t>23/07/2025 21:44</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>B36847604</t>
+  </si>
+  <si>
+    <t>ADSL1004640005</t>
+  </si>
+  <si>
+    <t>91827955</t>
+  </si>
+  <si>
+    <t>CONTRADA LENZAVACCHE SNC</t>
+  </si>
+  <si>
+    <t>DTU0066431693</t>
+  </si>
+  <si>
+    <t>93114755959</t>
+  </si>
+  <si>
+    <t>E70091827955</t>
+  </si>
+  <si>
+    <t>01/08/2025 11:10</t>
+  </si>
+  <si>
+    <t>B37066832</t>
+  </si>
+  <si>
+    <t>ADSL1004670312</t>
+  </si>
+  <si>
+    <t>92025230</t>
+  </si>
+  <si>
+    <t>VIA SALVO D'ACQUISTO 0</t>
+  </si>
+  <si>
+    <t>DTU0066545999</t>
+  </si>
+  <si>
+    <t>93114745453</t>
+  </si>
+  <si>
+    <t>E70092025230</t>
+  </si>
+  <si>
+    <t>08/08/2025 14:24</t>
+  </si>
+  <si>
+    <t>B37255643</t>
+  </si>
+  <si>
+    <t>ADSL1004680630</t>
+  </si>
+  <si>
+    <t>92091238</t>
+  </si>
+  <si>
+    <t>VIA GAETANO SALVEMINI 60</t>
+  </si>
+  <si>
+    <t>DTU0066597475</t>
+  </si>
+  <si>
+    <t>93114756799</t>
+  </si>
+  <si>
+    <t>E70092091238</t>
+  </si>
+  <si>
+    <t>12/08/2025 11:52</t>
+  </si>
+  <si>
+    <t>B37328052</t>
+  </si>
+  <si>
+    <t>ADSL1004689561</t>
+  </si>
+  <si>
+    <t>92150116</t>
+  </si>
+  <si>
+    <t>VIA BERNARDINO GRIMALDI 38</t>
+  </si>
+  <si>
+    <t>DTU0066635413</t>
+  </si>
+  <si>
+    <t>0931861444</t>
+  </si>
+  <si>
+    <t>E70092150116</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:04</t>
+  </si>
+  <si>
+    <t>B37384114</t>
+  </si>
+  <si>
+    <t>ADSL1004664529</t>
+  </si>
+  <si>
+    <t>91988270</t>
+  </si>
+  <si>
+    <t>VIA VENEZIA 31</t>
+  </si>
+  <si>
+    <t>DTU0066529669</t>
+  </si>
+  <si>
+    <t>0931587312</t>
+  </si>
+  <si>
+    <t>E70091988270</t>
+  </si>
+  <si>
+    <t>07/08/2025 12:28</t>
+  </si>
+  <si>
+    <t>B37221226</t>
+  </si>
+  <si>
+    <t>ADSL1004676409</t>
+  </si>
+  <si>
+    <t>92061561</t>
+  </si>
+  <si>
+    <t>CORSO VITTORIO EMANUELE 70</t>
+  </si>
+  <si>
+    <t>DTU0066563589</t>
+  </si>
+  <si>
+    <t>93114744515</t>
+  </si>
+  <si>
+    <t>E70092061561</t>
+  </si>
+  <si>
+    <t>11/08/2025 10:58</t>
+  </si>
+  <si>
+    <t>B37301340</t>
+  </si>
+  <si>
+    <t>ADSL1004681982</t>
+  </si>
+  <si>
+    <t>92100208</t>
+  </si>
+  <si>
+    <t>VIA PLATONE 3</t>
+  </si>
+  <si>
+    <t>DTU0066602487</t>
+  </si>
+  <si>
+    <t>0931561148</t>
+  </si>
+  <si>
+    <t>E70092100208</t>
+  </si>
+  <si>
+    <t>12/08/2025 15:28</t>
+  </si>
+  <si>
+    <t>B37334469</t>
+  </si>
+  <si>
+    <t>ADSL1004685494</t>
+  </si>
+  <si>
+    <t>92123213</t>
+  </si>
+  <si>
+    <t>VIA GAETANO RIZZA 3</t>
+  </si>
+  <si>
+    <t>DTU0066590451</t>
+  </si>
+  <si>
+    <t>93114746671</t>
+  </si>
+  <si>
+    <t>E70092123213</t>
+  </si>
+  <si>
+    <t>13/08/2025 14:20</t>
+  </si>
+  <si>
+    <t>B37357711</t>
+  </si>
+  <si>
+    <t>ADSL1004686715</t>
+  </si>
+  <si>
+    <t>92130431</t>
+  </si>
+  <si>
+    <t>VIA VENEZIA 20</t>
+  </si>
+  <si>
+    <t>DTU0066622221</t>
+  </si>
+  <si>
+    <t>0931775695</t>
+  </si>
+  <si>
+    <t>E70092130431</t>
+  </si>
+  <si>
+    <t>13/08/2025 17:52</t>
+  </si>
+  <si>
+    <t>B37362824</t>
+  </si>
+  <si>
+    <t>ADSL1004660605</t>
+  </si>
+  <si>
+    <t>91962384</t>
+  </si>
+  <si>
+    <t>ERLHRI-O-P</t>
+  </si>
+  <si>
+    <t>VIA GAETANO BARRESI 10/A</t>
+  </si>
+  <si>
+    <t>DTU0066506594</t>
+  </si>
+  <si>
+    <t>0931318533</t>
+  </si>
+  <si>
+    <t>E70091962384</t>
+  </si>
+  <si>
+    <t>FTTH ARL RI DEL35: BRTO+RACC+CON/CONF PROD</t>
+  </si>
+  <si>
+    <t>06/08/2025 14:22</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>B37193960</t>
+  </si>
+  <si>
+    <t>ADSL1004676235</t>
+  </si>
+  <si>
+    <t>92060101</t>
+  </si>
+  <si>
+    <t>VIA LUIGI CASSIA 64/B</t>
+  </si>
+  <si>
+    <t>DTU0066566607</t>
+  </si>
+  <si>
+    <t>0931704700</t>
+  </si>
+  <si>
+    <t>E70092060101</t>
+  </si>
+  <si>
+    <t>11/08/2025 10:24</t>
+  </si>
+  <si>
+    <t>B37300347</t>
+  </si>
+  <si>
+    <t>TRECCARICHI GIOVANNI</t>
   </si>
 </sst>
 </file>
@@ -8389,10 +9073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO486"/>
+  <dimension ref="A1:AO531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A409" activeCellId="16" sqref="A180:XFD180 A186:XFD186 A191:XFD191 A194:XFD194 A196:XFD196 A263:XFD263 A264:XFD264 A265:XFD265 A266:XFD266 A345:XFD345 A348:XFD348 A349:XFD349 A375:XFD375 A406:XFD406 A407:XFD407 A408:XFD408 A409:XFD409"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="E494" sqref="E494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -67852,6 +68536,5631 @@
         <v>2471</v>
       </c>
     </row>
+    <row r="487" spans="1:41">
+      <c r="A487" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M487" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N487" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O487" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P487" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="Q487" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R487" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="S487" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T487" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U487" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="V487" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="W487" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X487" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y487" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z487" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="AA487" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB487" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC487" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD487" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE487" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF487" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG487" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH487" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI487" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ487" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK487" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL487" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM487" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN487" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO487" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="488" spans="1:41">
+      <c r="A488" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K488" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L488" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M488" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N488" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O488" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P488" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="Q488" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="R488" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="S488" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T488" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U488" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="V488" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="W488" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X488" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="Y488" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z488" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="AA488" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB488" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC488" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD488" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE488" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF488" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG488" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH488" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI488" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ488" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK488" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL488" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM488" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN488" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO488" s="1" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="489" spans="1:41">
+      <c r="A489" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K489" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L489" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M489" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N489" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O489" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P489" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="Q489" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R489" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S489" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T489" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U489" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="V489" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="W489" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X489" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="Y489" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z489" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="AA489" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB489" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC489" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD489" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE489" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF489" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG489" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH489" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI489" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ489" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK489" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL489" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM489" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN489" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO489" s="1" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="490" spans="1:41">
+      <c r="A490" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K490" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L490" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M490" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N490" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O490" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P490" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="Q490" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="R490" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S490" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T490" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U490" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="V490" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="W490" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X490" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="Y490" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z490" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="AA490" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB490" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC490" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD490" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE490" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF490" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG490" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH490" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI490" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ490" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK490" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL490" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM490" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN490" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO490" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="491" spans="1:41">
+      <c r="A491" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K491" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L491" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M491" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N491" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O491" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P491" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="Q491" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R491" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S491" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T491" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U491" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="V491" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="W491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X491" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="Y491" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z491" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="AA491" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB491" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC491" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD491" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE491" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF491" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG491" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI491" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK491" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN491" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AO491" s="1" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="492" spans="1:41">
+      <c r="A492" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K492" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L492" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M492" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N492" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O492" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P492" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="Q492" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R492" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S492" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T492" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U492" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="V492" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="W492" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X492" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="Y492" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z492" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AA492" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB492" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC492" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD492" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE492" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF492" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG492" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH492" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI492" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ492" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK492" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL492" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM492" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN492" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AO492" s="1" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="493" spans="1:41">
+      <c r="A493" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K493" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L493" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M493" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N493" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O493" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P493" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="Q493" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="R493" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S493" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T493" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U493" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="V493" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="W493" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X493" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="Y493" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z493" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AA493" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB493" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC493" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD493" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE493" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF493" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG493" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH493" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI493" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ493" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK493" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL493" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM493" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN493" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO493" s="1" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="494" spans="1:41">
+      <c r="A494" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K494" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L494" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M494" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N494" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O494" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P494" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="Q494" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R494" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S494" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T494" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U494" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="V494" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="W494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X494" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="Y494" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z494" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AA494" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB494" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC494" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD494" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE494" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF494" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG494" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI494" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK494" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL494" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM494" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN494" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO494" s="1" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="495" spans="1:41">
+      <c r="A495" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K495" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L495" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M495" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N495" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O495" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P495" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="Q495" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R495" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S495" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T495" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U495" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="V495" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="W495" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X495" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="Y495" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z495" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="AA495" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB495" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC495" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD495" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE495" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF495" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG495" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH495" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI495" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ495" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK495" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL495" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM495" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN495" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO495" s="1" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="496" spans="1:41">
+      <c r="A496" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K496" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L496" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M496" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N496" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O496" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P496" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="Q496" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R496" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S496" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T496" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U496" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="V496" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="W496" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X496" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="Y496" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z496" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AA496" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB496" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC496" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD496" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE496" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF496" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG496" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH496" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI496" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ496" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK496" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL496" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM496" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN496" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO496" s="1" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="497" spans="1:41">
+      <c r="A497" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K497" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L497" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M497" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N497" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O497" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P497" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q497" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R497" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S497" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T497" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U497" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="V497" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="W497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X497" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="Y497" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z497" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AA497" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB497" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC497" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD497" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE497" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF497" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG497" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI497" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK497" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM497" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN497" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AO497" s="1" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="498" spans="1:41">
+      <c r="A498" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K498" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L498" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M498" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N498" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O498" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P498" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="Q498" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R498" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S498" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T498" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U498" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="V498" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="W498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X498" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="Y498" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z498" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="AA498" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB498" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC498" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD498" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE498" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF498" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG498" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI498" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK498" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL498" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN498" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO498" s="1" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="499" spans="1:41">
+      <c r="A499" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L499" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M499" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N499" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O499" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P499" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="Q499" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R499" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S499" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T499" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U499" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="V499" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="W499" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X499" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Y499" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z499" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="AA499" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB499" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC499" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD499" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE499" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF499" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG499" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH499" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI499" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ499" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK499" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL499" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM499" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN499" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO499" s="1" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="500" spans="1:41">
+      <c r="A500" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J500" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K500" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L500" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M500" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N500" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O500" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P500" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="Q500" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="R500" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S500" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T500" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U500" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="V500" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="W500" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X500" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="Y500" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z500" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="AA500" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB500" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC500" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD500" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE500" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF500" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG500" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH500" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI500" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ500" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK500" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL500" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM500" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN500" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO500" s="1" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="501" spans="1:41">
+      <c r="A501" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J501" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K501" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L501" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M501" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N501" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O501" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P501" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="Q501" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R501" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S501" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T501" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U501" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="V501" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="W501" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X501" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="Y501" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z501" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AA501" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB501" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC501" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD501" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE501" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF501" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG501" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH501" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI501" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ501" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK501" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL501" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM501" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN501" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO501" s="1" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="502" spans="1:41">
+      <c r="A502" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K502" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L502" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N502" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O502" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P502" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="Q502" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R502" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S502" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T502" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U502" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="V502" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="W502" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X502" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="Y502" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z502" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="AA502" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB502" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC502" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD502" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE502" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF502" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG502" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH502" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI502" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ502" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK502" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL502" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM502" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN502" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AO502" s="1" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="503" spans="1:41">
+      <c r="A503" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K503" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L503" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M503" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N503" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O503" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P503" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="Q503" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R503" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S503" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T503" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U503" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="V503" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="W503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X503" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="Y503" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z503" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="AA503" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB503" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC503" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD503" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE503" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF503" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG503" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI503" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK503" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN503" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AO503" s="1" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="504" spans="1:41">
+      <c r="A504" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J504" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K504" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L504" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M504" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N504" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O504" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P504" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="Q504" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R504" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S504" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T504" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U504" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="V504" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="W504" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X504" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="Y504" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z504" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AA504" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB504" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC504" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD504" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE504" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF504" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG504" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH504" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI504" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ504" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK504" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL504" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM504" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN504" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO504" s="1" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="505" spans="1:41">
+      <c r="A505" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J505" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K505" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L505" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M505" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N505" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O505" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P505" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Q505" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R505" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S505" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T505" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U505" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="V505" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="W505" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X505" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="Y505" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z505" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="AA505" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB505" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC505" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD505" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE505" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF505" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG505" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH505" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI505" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ505" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK505" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL505" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM505" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN505" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO505" s="1" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="506" spans="1:41">
+      <c r="A506" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J506" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K506" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L506" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M506" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N506" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O506" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P506" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="Q506" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R506" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S506" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T506" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U506" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="V506" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="W506" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X506" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="Y506" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z506" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="AA506" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB506" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC506" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD506" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE506" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF506" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG506" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH506" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI506" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ506" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK506" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL506" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM506" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN506" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO506" s="1" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="507" spans="1:41">
+      <c r="A507" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J507" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K507" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L507" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M507" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N507" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O507" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P507" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="Q507" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R507" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S507" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T507" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U507" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="V507" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="W507" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X507" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="Y507" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z507" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="AA507" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB507" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC507" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD507" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE507" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF507" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG507" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH507" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI507" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ507" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK507" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL507" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM507" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN507" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO507" s="1" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="508" spans="1:41">
+      <c r="A508" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J508" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K508" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L508" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M508" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N508" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O508" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P508" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="Q508" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R508" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S508" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T508" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U508" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="V508" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="W508" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X508" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="Y508" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z508" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="AA508" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB508" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC508" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD508" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE508" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF508" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG508" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH508" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI508" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ508" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK508" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL508" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM508" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN508" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO508" s="1" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="509" spans="1:41">
+      <c r="A509" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J509" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K509" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L509" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M509" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N509" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O509" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P509" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="Q509" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R509" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S509" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T509" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U509" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="V509" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="W509" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X509" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="Y509" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z509" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AA509" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB509" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC509" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD509" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE509" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF509" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG509" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH509" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI509" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ509" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK509" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL509" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM509" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN509" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO509" s="1" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="510" spans="1:41">
+      <c r="A510" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J510" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K510" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L510" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M510" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N510" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O510" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P510" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="Q510" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R510" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S510" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T510" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U510" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="V510" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="W510" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X510" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="Y510" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z510" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="AA510" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB510" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC510" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD510" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE510" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF510" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG510" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH510" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI510" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ510" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK510" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL510" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM510" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN510" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO510" s="1" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="511" spans="1:41">
+      <c r="A511" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H511" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J511" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K511" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L511" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M511" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N511" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O511" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P511" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="Q511" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R511" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S511" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T511" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U511" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="V511" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="W511" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X511" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="Y511" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z511" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="AA511" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB511" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC511" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD511" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE511" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF511" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG511" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH511" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI511" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ511" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK511" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL511" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM511" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN511" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO511" s="1" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="512" spans="1:41">
+      <c r="A512" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L512" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M512" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N512" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O512" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P512" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="Q512" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R512" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S512" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T512" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U512" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="V512" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="W512" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X512" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="Y512" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="Z512" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="AA512" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB512" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC512" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD512" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE512" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF512" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG512" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH512" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI512" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ512" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK512" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL512" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM512" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN512" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="AO512" s="1" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="513" spans="1:41">
+      <c r="A513" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K513" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L513" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M513" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N513" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O513" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P513" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="Q513" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R513" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S513" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T513" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U513" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="V513" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="W513" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X513" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="Y513" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z513" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AA513" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB513" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC513" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD513" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE513" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF513" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG513" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH513" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI513" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ513" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK513" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL513" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM513" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN513" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO513" s="1" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="514" spans="1:41">
+      <c r="A514" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H514" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I514" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J514" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K514" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L514" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M514" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N514" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O514" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P514" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="Q514" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R514" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S514" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T514" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U514" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="V514" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="W514" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X514" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="Y514" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z514" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="AA514" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB514" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC514" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD514" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE514" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF514" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG514" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH514" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI514" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ514" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK514" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL514" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM514" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN514" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO514" s="2" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="515" spans="1:41">
+      <c r="A515" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L515" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M515" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N515" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O515" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P515" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="Q515" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="R515" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S515" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T515" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U515" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="V515" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="W515" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X515" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="Y515" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z515" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="AA515" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB515" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC515" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD515" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE515" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF515" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG515" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH515" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI515" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK515" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL515" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM515" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN515" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO515" s="1" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="516" spans="1:41">
+      <c r="A516" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J516" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K516" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L516" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M516" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N516" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O516" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P516" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="Q516" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="R516" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S516" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T516" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U516" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="V516" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="W516" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X516" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="Y516" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z516" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AA516" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB516" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC516" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD516" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE516" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF516" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG516" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH516" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI516" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ516" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK516" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL516" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM516" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN516" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO516" s="1" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="517" spans="1:41">
+      <c r="A517" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L517" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M517" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N517" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O517" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P517" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="Q517" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R517" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S517" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T517" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U517" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="V517" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="W517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X517" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="Y517" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z517" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AA517" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB517" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC517" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD517" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE517" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF517" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG517" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI517" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK517" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL517" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM517" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN517" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO517" s="1" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="518" spans="1:41">
+      <c r="A518" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J518" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L518" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M518" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N518" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O518" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P518" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="Q518" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R518" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S518" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T518" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U518" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="V518" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="W518" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X518" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="Y518" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z518" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="AA518" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB518" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC518" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD518" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE518" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF518" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG518" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH518" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI518" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ518" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK518" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL518" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM518" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN518" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO518" s="1" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="519" spans="1:41">
+      <c r="A519" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J519" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L519" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M519" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N519" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O519" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P519" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="Q519" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R519" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S519" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T519" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U519" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="V519" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="W519" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X519" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="Y519" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z519" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AA519" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB519" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC519" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD519" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE519" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF519" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG519" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH519" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI519" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ519" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK519" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL519" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM519" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN519" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO519" s="1" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="520" spans="1:41">
+      <c r="A520" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K520" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L520" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M520" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N520" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O520" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P520" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q520" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R520" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S520" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T520" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U520" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="V520" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="W520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X520" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="Y520" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z520" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AA520" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB520" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC520" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD520" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE520" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF520" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG520" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI520" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK520" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM520" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN520" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AO520" s="1" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="521" spans="1:41">
+      <c r="A521" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K521" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L521" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M521" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N521" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O521" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P521" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="Q521" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R521" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S521" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T521" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U521" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="V521" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="W521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X521" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="Y521" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z521" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="AA521" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB521" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC521" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD521" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE521" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF521" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG521" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI521" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK521" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL521" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN521" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO521" s="1" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="522" spans="1:41">
+      <c r="A522" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J522" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K522" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L522" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M522" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N522" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O522" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P522" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="Q522" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R522" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S522" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T522" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U522" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="V522" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="W522" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X522" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Y522" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z522" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="AA522" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB522" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC522" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD522" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE522" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF522" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG522" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH522" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI522" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ522" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK522" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL522" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM522" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN522" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO522" s="1" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="523" spans="1:41">
+      <c r="A523" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J523" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L523" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M523" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N523" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O523" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P523" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="Q523" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="R523" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S523" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T523" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U523" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="V523" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="W523" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X523" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="Y523" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z523" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="AA523" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB523" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC523" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD523" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE523" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF523" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG523" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH523" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI523" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ523" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK523" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL523" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM523" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN523" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO523" s="1" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="524" spans="1:41">
+      <c r="A524" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L524" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M524" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N524" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O524" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P524" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="Q524" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R524" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S524" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T524" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U524" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="V524" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="W524" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X524" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="Y524" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z524" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AA524" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB524" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC524" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD524" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE524" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF524" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG524" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH524" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI524" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ524" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK524" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL524" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM524" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN524" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO524" s="1" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="525" spans="1:41">
+      <c r="A525" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J525" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L525" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M525" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N525" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O525" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P525" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="Q525" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R525" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S525" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T525" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U525" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="V525" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="W525" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X525" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="Y525" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z525" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="AA525" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB525" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC525" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD525" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE525" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF525" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG525" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH525" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI525" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ525" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK525" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL525" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM525" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN525" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO525" s="1" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="526" spans="1:41">
+      <c r="A526" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J526" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L526" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M526" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N526" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O526" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P526" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="Q526" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R526" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S526" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T526" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U526" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="V526" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="W526" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X526" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="Y526" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z526" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="AA526" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB526" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC526" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD526" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE526" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF526" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG526" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH526" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI526" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ526" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK526" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL526" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM526" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN526" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO526" s="1" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="527" spans="1:41">
+      <c r="A527" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J527" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L527" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M527" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N527" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O527" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P527" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="Q527" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R527" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S527" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T527" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U527" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="V527" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="W527" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X527" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="Y527" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z527" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AA527" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB527" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC527" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD527" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE527" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF527" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG527" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH527" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI527" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ527" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK527" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL527" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM527" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN527" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO527" s="1" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="528" spans="1:41">
+      <c r="A528" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J528" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L528" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M528" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N528" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O528" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P528" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="Q528" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R528" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S528" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T528" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U528" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="V528" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="W528" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X528" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="Y528" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z528" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="AA528" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB528" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC528" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD528" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE528" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF528" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG528" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH528" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI528" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ528" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK528" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL528" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM528" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN528" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO528" s="1" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="529" spans="1:41">
+      <c r="A529" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J529" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L529" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M529" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N529" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O529" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P529" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="Q529" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R529" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S529" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T529" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U529" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="V529" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="W529" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X529" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="Y529" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z529" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="AA529" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB529" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC529" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD529" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE529" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF529" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG529" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH529" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI529" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ529" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK529" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL529" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM529" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN529" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO529" s="1" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="530" spans="1:41">
+      <c r="A530" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K530" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L530" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M530" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N530" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O530" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P530" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="Q530" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R530" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="S530" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T530" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U530" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="V530" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="W530" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X530" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="Y530" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="Z530" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="AA530" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB530" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC530" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD530" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE530" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF530" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG530" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH530" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI530" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ530" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK530" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL530" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM530" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN530" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="AO530" s="1" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="531" spans="1:41">
+      <c r="A531" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J531" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L531" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M531" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N531" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O531" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P531" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="Q531" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="R531" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="S531" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T531" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U531" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="V531" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="W531" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X531" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="Y531" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z531" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AA531" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB531" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC531" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD531" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE531" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF531" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG531" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH531" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI531" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ531" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK531" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL531" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM531" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN531" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO531" s="1" t="s">
+        <v>2903</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AN486"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21325" uniqueCount="2905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22555" uniqueCount="3029">
   <si>
     <t>Codice</t>
   </si>
@@ -8732,6 +8732,378 @@
   </si>
   <si>
     <t>TRECCARICHI GIOVANNI</t>
+  </si>
+  <si>
+    <t>ADSL1004639746</t>
+  </si>
+  <si>
+    <t>91825502</t>
+  </si>
+  <si>
+    <t>19/08/2025</t>
+  </si>
+  <si>
+    <t>CONTRADA STALLONE SNC</t>
+  </si>
+  <si>
+    <t>19/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>DTU0066378285</t>
+  </si>
+  <si>
+    <t>G600070456</t>
+  </si>
+  <si>
+    <t>E70091825502</t>
+  </si>
+  <si>
+    <t>01/08/2025 10:14</t>
+  </si>
+  <si>
+    <t>B37064814</t>
+  </si>
+  <si>
+    <t>ADSL1004641401</t>
+  </si>
+  <si>
+    <t>91836507</t>
+  </si>
+  <si>
+    <t>30 - Sospensione</t>
+  </si>
+  <si>
+    <t>VIA GIOACHINO ROSSINI 66</t>
+  </si>
+  <si>
+    <t>19/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>DTU0066240541</t>
+  </si>
+  <si>
+    <t>93114750130</t>
+  </si>
+  <si>
+    <t>E70091836507</t>
+  </si>
+  <si>
+    <t>B37073218</t>
+  </si>
+  <si>
+    <t>ADSL1004673866</t>
+  </si>
+  <si>
+    <t>92045565</t>
+  </si>
+  <si>
+    <t>VIA CIRO MENOTTI 73</t>
+  </si>
+  <si>
+    <t>DTU0066566297</t>
+  </si>
+  <si>
+    <t>0931587364</t>
+  </si>
+  <si>
+    <t>E70092045565</t>
+  </si>
+  <si>
+    <t>09/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>B37276988</t>
+  </si>
+  <si>
+    <t>ADSL1004677050</t>
+  </si>
+  <si>
+    <t>92065874</t>
+  </si>
+  <si>
+    <t>VIA LUIGI FORNACIARI 2</t>
+  </si>
+  <si>
+    <t>DTU0066529591</t>
+  </si>
+  <si>
+    <t>0931861804</t>
+  </si>
+  <si>
+    <t>E70092065874</t>
+  </si>
+  <si>
+    <t>11/08/2025 12:40</t>
+  </si>
+  <si>
+    <t>B37304293</t>
+  </si>
+  <si>
+    <t>ADSL1004688361</t>
+  </si>
+  <si>
+    <t>92141408</t>
+  </si>
+  <si>
+    <t>VIA MULINO 60</t>
+  </si>
+  <si>
+    <t>DTU0066603811</t>
+  </si>
+  <si>
+    <t>93114741109</t>
+  </si>
+  <si>
+    <t>E70092141408</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:50</t>
+  </si>
+  <si>
+    <t>B37377400</t>
+  </si>
+  <si>
+    <t>ADSL1004605079</t>
+  </si>
+  <si>
+    <t>91598068</t>
+  </si>
+  <si>
+    <t>A PALO/COLONNINA</t>
+  </si>
+  <si>
+    <t>VIA SAN BENEDETTO DA NORCIA 1</t>
+  </si>
+  <si>
+    <t>DTU0066272355</t>
+  </si>
+  <si>
+    <t>0931861517</t>
+  </si>
+  <si>
+    <t>E70091598068</t>
+  </si>
+  <si>
+    <t>24/07/2025 08:00</t>
+  </si>
+  <si>
+    <t>B36854289</t>
+  </si>
+  <si>
+    <t>ADSL1004652056</t>
+  </si>
+  <si>
+    <t>91902786</t>
+  </si>
+  <si>
+    <t>VIA ASSORO 5</t>
+  </si>
+  <si>
+    <t>19/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>DTU0066469100</t>
+  </si>
+  <si>
+    <t>0931317416</t>
+  </si>
+  <si>
+    <t>E70091902786</t>
+  </si>
+  <si>
+    <t>04/08/2025 19:06</t>
+  </si>
+  <si>
+    <t>B37138426</t>
+  </si>
+  <si>
+    <t>ADSL1004686435</t>
+  </si>
+  <si>
+    <t>92128845</t>
+  </si>
+  <si>
+    <t>VIA SALVO RANDONE 14</t>
+  </si>
+  <si>
+    <t>DTU0065658987</t>
+  </si>
+  <si>
+    <t>0931316699</t>
+  </si>
+  <si>
+    <t>E70092128845</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:52</t>
+  </si>
+  <si>
+    <t>B37361698</t>
+  </si>
+  <si>
+    <t>ADSL1004689965</t>
+  </si>
+  <si>
+    <t>92152704</t>
+  </si>
+  <si>
+    <t>VIALE SCALA GRECA 384/C</t>
+  </si>
+  <si>
+    <t>DTU0066619959</t>
+  </si>
+  <si>
+    <t>0931759315</t>
+  </si>
+  <si>
+    <t>E70092152704</t>
+  </si>
+  <si>
+    <t>14/08/2025 17:40</t>
+  </si>
+  <si>
+    <t>B37385921</t>
+  </si>
+  <si>
+    <t>ADSL1004649946</t>
+  </si>
+  <si>
+    <t>91888590</t>
+  </si>
+  <si>
+    <t>VIA SILVIO PELLICO 82</t>
+  </si>
+  <si>
+    <t>DTU0066369715</t>
+  </si>
+  <si>
+    <t>93114758217</t>
+  </si>
+  <si>
+    <t>E70091888590</t>
+  </si>
+  <si>
+    <t>04/08/2025 13:36</t>
+  </si>
+  <si>
+    <t>B37127905</t>
+  </si>
+  <si>
+    <t>ADSL1004653591</t>
+  </si>
+  <si>
+    <t>91912319</t>
+  </si>
+  <si>
+    <t>VIA CRISTOFORO COLOMBO 34</t>
+  </si>
+  <si>
+    <t>DTU0065903949</t>
+  </si>
+  <si>
+    <t>0931967846</t>
+  </si>
+  <si>
+    <t>E70091912319</t>
+  </si>
+  <si>
+    <t>05/08/2025 10:24</t>
+  </si>
+  <si>
+    <t>B37150239</t>
+  </si>
+  <si>
+    <t>ADSL1004661523</t>
+  </si>
+  <si>
+    <t>91968292</t>
+  </si>
+  <si>
+    <t>VIA PALESTRO 192</t>
+  </si>
+  <si>
+    <t>19/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>DTU0066514019</t>
+  </si>
+  <si>
+    <t>0931942405</t>
+  </si>
+  <si>
+    <t>E70091968292</t>
+  </si>
+  <si>
+    <t>B37198425</t>
+  </si>
+  <si>
+    <t>ADSL1004688010</t>
+  </si>
+  <si>
+    <t>92138636</t>
+  </si>
+  <si>
+    <t>VIALE PIETRO NENNI 5</t>
+  </si>
+  <si>
+    <t>DTU0066619160</t>
+  </si>
+  <si>
+    <t>93114739747</t>
+  </si>
+  <si>
+    <t>E70092138636</t>
+  </si>
+  <si>
+    <t>B37375217</t>
+  </si>
+  <si>
+    <t>ADSL1004692461</t>
+  </si>
+  <si>
+    <t>92166651</t>
+  </si>
+  <si>
+    <t>VIA ORAZIO NELSON 33</t>
+  </si>
+  <si>
+    <t>DTU0066646406</t>
+  </si>
+  <si>
+    <t>0931861063</t>
+  </si>
+  <si>
+    <t>E70092166651</t>
+  </si>
+  <si>
+    <t>16/08/2025 13:46</t>
+  </si>
+  <si>
+    <t>B37408081</t>
+  </si>
+  <si>
+    <t>ADSL1004662531</t>
+  </si>
+  <si>
+    <t>91973547</t>
+  </si>
+  <si>
+    <t>VIA GIOVANNI HUSS 100</t>
+  </si>
+  <si>
+    <t>DTU0066518548</t>
+  </si>
+  <si>
+    <t>0931861789</t>
+  </si>
+  <si>
+    <t>E70091973547</t>
+  </si>
+  <si>
+    <t>06/08/2025 19:28</t>
+  </si>
+  <si>
+    <t>B37202498</t>
   </si>
 </sst>
 </file>
@@ -8741,10 +9113,15 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-410]d\-mmm;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8773,12 +9150,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -9073,10 +9452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO531"/>
+  <dimension ref="A1:AO561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="E494" sqref="E494"/>
+    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="A538" sqref="A538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -74161,6 +74540,3756 @@
         <v>2903</v>
       </c>
     </row>
+    <row r="532" spans="1:41">
+      <c r="A532" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J532" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K532" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L532" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M532" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N532" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O532" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P532" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="Q532" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R532" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S532" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T532" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U532" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="V532" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="W532" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X532" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="Y532" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z532" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="AA532" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB532" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC532" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD532" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE532" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF532" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG532" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH532" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI532" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ532" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK532" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL532" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM532" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN532" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AO532" s="1" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="533" spans="1:41">
+      <c r="A533" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L533" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M533" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N533" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O533" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="P533" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="Q533" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R533" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S533" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T533" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U533" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="V533" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="W533" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X533" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="Y533" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z533" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AA533" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB533" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC533" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD533" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE533" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF533" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG533" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH533" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI533" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK533" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL533" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN533" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO533" s="1" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="534" spans="1:41">
+      <c r="A534" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J534" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L534" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M534" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N534" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O534" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P534" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="Q534" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R534" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S534" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T534" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U534" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="V534" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="W534" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X534" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="Y534" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z534" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AA534" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB534" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC534" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD534" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE534" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF534" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG534" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH534" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI534" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ534" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK534" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL534" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM534" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN534" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO534" s="1" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="535" spans="1:41">
+      <c r="A535" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J535" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K535" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L535" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M535" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N535" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O535" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P535" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="Q535" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R535" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S535" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T535" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U535" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="V535" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="W535" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X535" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="Y535" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z535" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="AA535" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB535" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC535" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD535" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE535" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF535" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG535" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH535" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI535" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ535" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK535" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL535" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM535" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN535" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AO535" s="1" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="536" spans="1:41">
+      <c r="A536" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K536" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L536" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M536" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N536" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O536" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P536" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q536" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R536" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S536" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T536" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U536" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="V536" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="W536" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X536" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="Y536" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z536" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="AA536" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB536" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC536" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD536" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE536" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF536" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG536" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH536" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI536" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ536" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK536" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL536" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM536" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN536" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO536" s="1" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="537" spans="1:41">
+      <c r="A537" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K537" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L537" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N537" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O537" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P537" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="Q537" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R537" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S537" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T537" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U537" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="V537" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="W537" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X537" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="Y537" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z537" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="AA537" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB537" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC537" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD537" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE537" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF537" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG537" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH537" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI537" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ537" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK537" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL537" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM537" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN537" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AO537" s="1" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="538" spans="1:41">
+      <c r="A538" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J538" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L538" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M538" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N538" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O538" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P538" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Q538" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="R538" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S538" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T538" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U538" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="V538" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="W538" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X538" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="Y538" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z538" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AA538" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB538" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC538" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD538" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE538" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF538" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG538" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH538" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI538" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ538" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK538" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL538" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM538" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN538" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AO538" s="1" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="539" spans="1:41">
+      <c r="A539" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L539" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M539" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N539" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O539" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P539" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="Q539" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R539" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S539" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T539" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U539" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="V539" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="W539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X539" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="Y539" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z539" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="AA539" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB539" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC539" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD539" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE539" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF539" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG539" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH539" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI539" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK539" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL539" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN539" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO539" s="1" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="540" spans="1:41">
+      <c r="A540" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K540" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L540" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M540" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N540" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O540" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P540" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Q540" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="R540" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S540" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T540" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U540" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="V540" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="W540" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X540" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="Y540" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z540" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="AA540" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB540" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC540" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD540" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE540" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF540" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG540" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH540" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI540" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ540" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK540" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL540" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM540" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN540" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO540" s="1" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="541" spans="1:41">
+      <c r="A541" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J541" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L541" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M541" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N541" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O541" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P541" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="Q541" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R541" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S541" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T541" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U541" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="V541" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="W541" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X541" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="Y541" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z541" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="AA541" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB541" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC541" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD541" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE541" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF541" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG541" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH541" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI541" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ541" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK541" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL541" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM541" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN541" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AO541" s="1" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="542" spans="1:41">
+      <c r="A542" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J542" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K542" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L542" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M542" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N542" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O542" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P542" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="Q542" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R542" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S542" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T542" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U542" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="V542" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="W542" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X542" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="Y542" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z542" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="AA542" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB542" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC542" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD542" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE542" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF542" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG542" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH542" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI542" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ542" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK542" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL542" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM542" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN542" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO542" s="1" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="543" spans="1:41">
+      <c r="A543" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L543" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M543" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N543" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P543" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="Q543" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="R543" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S543" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T543" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U543" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="V543" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="W543" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X543" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="Y543" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z543" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AA543" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB543" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC543" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD543" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE543" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF543" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG543" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH543" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI543" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ543" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK543" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL543" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM543" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN543" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO543" s="1" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="544" spans="1:41">
+      <c r="A544" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L544" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M544" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N544" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O544" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P544" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="Q544" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="R544" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S544" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T544" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U544" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="V544" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="W544" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X544" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Y544" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z544" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AA544" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB544" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC544" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD544" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE544" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF544" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG544" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH544" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI544" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ544" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK544" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL544" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM544" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN544" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO544" s="1" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="545" spans="1:41">
+      <c r="A545" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K545" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L545" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M545" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N545" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O545" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P545" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Q545" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R545" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S545" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T545" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U545" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="V545" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="W545" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X545" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="Y545" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z545" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="AA545" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB545" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC545" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD545" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE545" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF545" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG545" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH545" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI545" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ545" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK545" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL545" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM545" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN545" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO545" s="1" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="546" spans="1:41">
+      <c r="A546" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L546" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M546" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N546" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O546" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P546" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="Q546" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R546" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S546" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T546" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U546" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="V546" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="W546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X546" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="Y546" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z546" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AA546" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB546" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC546" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD546" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE546" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF546" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG546" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH546" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI546" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK546" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL546" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN546" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO546" s="1" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="547" spans="1:41">
+      <c r="A547" s="2" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H547" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I547" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J547" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K547" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L547" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M547" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N547" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O547" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P547" s="2" t="s">
+        <v>2908</v>
+      </c>
+      <c r="Q547" s="2" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R547" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S547" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T547" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U547" s="2" t="s">
+        <v>2910</v>
+      </c>
+      <c r="V547" s="2" t="s">
+        <v>2911</v>
+      </c>
+      <c r="W547" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X547" s="2" t="s">
+        <v>2912</v>
+      </c>
+      <c r="Y547" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z547" s="2" t="s">
+        <v>2913</v>
+      </c>
+      <c r="AA547" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB547" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC547" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD547" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE547" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF547" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG547" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH547" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI547" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK547" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM547" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN547" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AO547" s="2" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="548" spans="1:41">
+      <c r="A548" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K548" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L548" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M548" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N548" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O548" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="P548" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="Q548" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R548" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S548" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T548" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U548" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="V548" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="W548" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X548" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="Y548" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z548" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AA548" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB548" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC548" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD548" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE548" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF548" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG548" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH548" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI548" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK548" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL548" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN548" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO548" s="1" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="549" spans="1:41">
+      <c r="A549" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M549" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N549" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O549" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P549" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="Q549" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R549" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S549" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T549" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U549" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="V549" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="W549" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X549" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="Y549" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z549" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AA549" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB549" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC549" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD549" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE549" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF549" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG549" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH549" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI549" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ549" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK549" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL549" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM549" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN549" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO549" s="1" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="550" spans="1:41">
+      <c r="A550" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J550" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K550" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N550" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O550" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P550" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="Q550" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R550" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S550" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T550" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U550" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="V550" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="W550" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X550" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="Y550" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z550" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="AA550" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB550" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC550" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD550" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE550" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF550" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG550" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH550" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI550" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ550" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK550" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL550" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM550" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN550" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AO550" s="1" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="551" spans="1:41">
+      <c r="A551" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J551" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K551" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L551" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M551" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N551" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O551" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P551" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q551" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R551" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S551" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T551" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U551" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="V551" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="W551" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X551" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="Y551" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z551" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="AA551" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB551" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC551" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD551" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE551" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF551" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG551" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH551" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI551" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ551" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK551" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL551" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM551" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN551" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO551" s="1" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="552" spans="1:41">
+      <c r="A552" s="6" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K552" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L552" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M552" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N552" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O552" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P552" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="Q552" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R552" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S552" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T552" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U552" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="V552" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="W552" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X552" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="Y552" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z552" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="AA552" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB552" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC552" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD552" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE552" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF552" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG552" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH552" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI552" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ552" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK552" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL552" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM552" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN552" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AO552" s="1" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="553" spans="1:41">
+      <c r="A553" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J553" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K553" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L553" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M553" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N553" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O553" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P553" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Q553" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="R553" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S553" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T553" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U553" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="V553" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="W553" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X553" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="Y553" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z553" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AA553" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB553" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC553" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD553" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE553" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF553" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG553" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH553" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI553" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ553" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK553" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL553" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM553" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN553" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AO553" s="1" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="554" spans="1:41">
+      <c r="A554" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L554" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M554" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N554" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O554" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P554" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="Q554" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R554" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S554" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T554" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U554" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="V554" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="W554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X554" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="Y554" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z554" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="AA554" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB554" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC554" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD554" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE554" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF554" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG554" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH554" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI554" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK554" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL554" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN554" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO554" s="1" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="555" spans="1:41">
+      <c r="A555" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K555" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L555" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M555" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N555" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O555" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P555" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Q555" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="R555" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S555" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T555" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U555" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="V555" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="W555" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X555" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="Y555" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z555" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="AA555" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB555" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC555" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD555" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE555" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF555" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG555" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH555" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI555" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ555" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK555" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL555" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM555" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN555" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO555" s="1" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="556" spans="1:41">
+      <c r="A556" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L556" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M556" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N556" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O556" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P556" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="Q556" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R556" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S556" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T556" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U556" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="V556" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="W556" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X556" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="Y556" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z556" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="AA556" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB556" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC556" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD556" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE556" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF556" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG556" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH556" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI556" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ556" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK556" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL556" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM556" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN556" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AO556" s="1" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="557" spans="1:41">
+      <c r="A557" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K557" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L557" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M557" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O557" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P557" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="Q557" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="R557" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S557" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T557" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U557" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="V557" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="W557" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X557" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="Y557" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z557" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="AA557" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB557" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC557" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD557" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE557" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF557" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG557" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH557" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI557" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ557" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK557" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL557" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM557" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN557" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO557" s="1" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="558" spans="1:41">
+      <c r="A558" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K558" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L558" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M558" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N558" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O558" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P558" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="Q558" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="R558" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S558" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T558" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U558" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="V558" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="W558" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X558" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="Y558" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z558" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AA558" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB558" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC558" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD558" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE558" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF558" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG558" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH558" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI558" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ558" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK558" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL558" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM558" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN558" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO558" s="1" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="559" spans="1:41">
+      <c r="A559" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L559" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M559" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N559" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O559" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P559" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="Q559" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="R559" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S559" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T559" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U559" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="V559" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="W559" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X559" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Y559" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z559" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AA559" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB559" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC559" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD559" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE559" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF559" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG559" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH559" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI559" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ559" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK559" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL559" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM559" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN559" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO559" s="1" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="560" spans="1:41">
+      <c r="A560" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L560" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N560" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O560" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P560" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Q560" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R560" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S560" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T560" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U560" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="V560" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="W560" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X560" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="Y560" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z560" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="AA560" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB560" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC560" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD560" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE560" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF560" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG560" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH560" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI560" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ560" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK560" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL560" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM560" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN560" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AO560" s="1" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="561" spans="1:41">
+      <c r="A561" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K561" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L561" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M561" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N561" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O561" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P561" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="Q561" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="R561" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S561" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T561" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U561" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="V561" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="W561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X561" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="Y561" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z561" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AA561" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB561" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC561" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD561" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE561" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF561" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG561" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH561" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI561" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK561" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL561" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN561" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO561" s="1" t="s">
+        <v>3028</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AN486"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22555" uniqueCount="3029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23867" uniqueCount="3183">
   <si>
     <t>Codice</t>
   </si>
@@ -9104,6 +9104,468 @@
   </si>
   <si>
     <t>B37202498</t>
+  </si>
+  <si>
+    <t>ADSL1004698685</t>
+  </si>
+  <si>
+    <t>92202795</t>
+  </si>
+  <si>
+    <t>20/08/2025</t>
+  </si>
+  <si>
+    <t>VIA ALFREDO CATALANI 25</t>
+  </si>
+  <si>
+    <t>20/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>DTU0066662114</t>
+  </si>
+  <si>
+    <t>0931861842</t>
+  </si>
+  <si>
+    <t>E70092202795</t>
+  </si>
+  <si>
+    <t>18/08/2025 19:42</t>
+  </si>
+  <si>
+    <t>B37444036</t>
+  </si>
+  <si>
+    <t>ADSL1004641410</t>
+  </si>
+  <si>
+    <t>91836530</t>
+  </si>
+  <si>
+    <t>VIA GALILEO GALILEI 52</t>
+  </si>
+  <si>
+    <t>20/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>DTU0066324876</t>
+  </si>
+  <si>
+    <t>0931861738</t>
+  </si>
+  <si>
+    <t>E70091836530</t>
+  </si>
+  <si>
+    <t>B37073224</t>
+  </si>
+  <si>
+    <t>ADSL1004663231</t>
+  </si>
+  <si>
+    <t>91976500</t>
+  </si>
+  <si>
+    <t>VIA PEPPINO IMPASTATO 4</t>
+  </si>
+  <si>
+    <t>20/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>DTU0066512366</t>
+  </si>
+  <si>
+    <t>93114757777</t>
+  </si>
+  <si>
+    <t>E70091976500</t>
+  </si>
+  <si>
+    <t>07/08/2025 00:16</t>
+  </si>
+  <si>
+    <t>B37205611</t>
+  </si>
+  <si>
+    <t>ADSL1004687885</t>
+  </si>
+  <si>
+    <t>92137568</t>
+  </si>
+  <si>
+    <t>VIA GIUSEPPE GARIBALDI 151</t>
+  </si>
+  <si>
+    <t>DTU0066625858</t>
+  </si>
+  <si>
+    <t>93114736608</t>
+  </si>
+  <si>
+    <t>E70092137568</t>
+  </si>
+  <si>
+    <t>14/08/2025 09:50</t>
+  </si>
+  <si>
+    <t>B37374358</t>
+  </si>
+  <si>
+    <t>ADSL1004699836</t>
+  </si>
+  <si>
+    <t>92209969</t>
+  </si>
+  <si>
+    <t>VIA NAPOLI 1</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>DTU0066663287</t>
+  </si>
+  <si>
+    <t>93114732268</t>
+  </si>
+  <si>
+    <t>E70092209969</t>
+  </si>
+  <si>
+    <t>19/08/2025 10:20</t>
+  </si>
+  <si>
+    <t>B37453647</t>
+  </si>
+  <si>
+    <t>ADSL1004616032</t>
+  </si>
+  <si>
+    <t>91668932</t>
+  </si>
+  <si>
+    <t>VIA ARCHIMEDE 378</t>
+  </si>
+  <si>
+    <t>DTU0066291020</t>
+  </si>
+  <si>
+    <t>93114738258</t>
+  </si>
+  <si>
+    <t>E70091668932</t>
+  </si>
+  <si>
+    <t>B36921676</t>
+  </si>
+  <si>
+    <t>ADSL1004666029</t>
+  </si>
+  <si>
+    <t>91998932</t>
+  </si>
+  <si>
+    <t>VIA SALVATORE MONTEFORTE 8/B</t>
+  </si>
+  <si>
+    <t>DTU0066506505</t>
+  </si>
+  <si>
+    <t>0931861127</t>
+  </si>
+  <si>
+    <t>E70091998932</t>
+  </si>
+  <si>
+    <t>07/08/2025 16:00</t>
+  </si>
+  <si>
+    <t>B37229488</t>
+  </si>
+  <si>
+    <t>ADSL1004698267</t>
+  </si>
+  <si>
+    <t>92200705</t>
+  </si>
+  <si>
+    <t>VIA SALVATORE ALBANI 13</t>
+  </si>
+  <si>
+    <t>DTU0066663434</t>
+  </si>
+  <si>
+    <t>93114738495</t>
+  </si>
+  <si>
+    <t>E70092200705</t>
+  </si>
+  <si>
+    <t>18/08/2025 18:02</t>
+  </si>
+  <si>
+    <t>B37442748</t>
+  </si>
+  <si>
+    <t>ADSL1004671052</t>
+  </si>
+  <si>
+    <t>92030346</t>
+  </si>
+  <si>
+    <t>VIA IUGOSLAVIA 9</t>
+  </si>
+  <si>
+    <t>DTU0066551302</t>
+  </si>
+  <si>
+    <t>0931750023</t>
+  </si>
+  <si>
+    <t>E70092030346</t>
+  </si>
+  <si>
+    <t>08/08/2025 16:08</t>
+  </si>
+  <si>
+    <t>B37259756</t>
+  </si>
+  <si>
+    <t>ADSL1004686239</t>
+  </si>
+  <si>
+    <t>92127531</t>
+  </si>
+  <si>
+    <t>VIA PATERNO' 26</t>
+  </si>
+  <si>
+    <t>DTU0066619406</t>
+  </si>
+  <si>
+    <t>0931861820</t>
+  </si>
+  <si>
+    <t>E70092127531</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:12</t>
+  </si>
+  <si>
+    <t>B37360775</t>
+  </si>
+  <si>
+    <t>ADSL1004693581</t>
+  </si>
+  <si>
+    <t>92172504</t>
+  </si>
+  <si>
+    <t>VIA DECIO FURNO' 20</t>
+  </si>
+  <si>
+    <t>DTU0066647456</t>
+  </si>
+  <si>
+    <t>E70092172504</t>
+  </si>
+  <si>
+    <t>17/08/2025 09:12</t>
+  </si>
+  <si>
+    <t>B37417353</t>
+  </si>
+  <si>
+    <t>ADSL1004669835</t>
+  </si>
+  <si>
+    <t>92022246</t>
+  </si>
+  <si>
+    <t>VIA DUCEZIO 6</t>
+  </si>
+  <si>
+    <t>DTU0066511933</t>
+  </si>
+  <si>
+    <t>93114751397</t>
+  </si>
+  <si>
+    <t>E70092022246</t>
+  </si>
+  <si>
+    <t>08/08/2025 13:08</t>
+  </si>
+  <si>
+    <t>B37253367</t>
+  </si>
+  <si>
+    <t>ADSL1004685616</t>
+  </si>
+  <si>
+    <t>92123965</t>
+  </si>
+  <si>
+    <t>VIA GIOVANNI PASCOLI 1</t>
+  </si>
+  <si>
+    <t>DTU0066608701</t>
+  </si>
+  <si>
+    <t>93114755794</t>
+  </si>
+  <si>
+    <t>E70092123965</t>
+  </si>
+  <si>
+    <t>13/08/2025 14:40</t>
+  </si>
+  <si>
+    <t>B37358225</t>
+  </si>
+  <si>
+    <t>ADSL1004693449</t>
+  </si>
+  <si>
+    <t>92171544</t>
+  </si>
+  <si>
+    <t>VIA UGO LAGO 30</t>
+  </si>
+  <si>
+    <t>DTU0066647853</t>
+  </si>
+  <si>
+    <t>0931861834</t>
+  </si>
+  <si>
+    <t>E70092171544</t>
+  </si>
+  <si>
+    <t>16/08/2025 23:00</t>
+  </si>
+  <si>
+    <t>B37412347</t>
+  </si>
+  <si>
+    <t>ADSL1004698142</t>
+  </si>
+  <si>
+    <t>92199987</t>
+  </si>
+  <si>
+    <t>VIA GIUSEPPE ALLIEVO 8</t>
+  </si>
+  <si>
+    <t>DTU0066664337</t>
+  </si>
+  <si>
+    <t>93114734030</t>
+  </si>
+  <si>
+    <t>E70092199987</t>
+  </si>
+  <si>
+    <t>18/08/2025 17:38</t>
+  </si>
+  <si>
+    <t>B37442153</t>
+  </si>
+  <si>
+    <t>ADSL1004689315</t>
+  </si>
+  <si>
+    <t>92148521</t>
+  </si>
+  <si>
+    <t>AP. WIFI CLI X2</t>
+  </si>
+  <si>
+    <t>CONTR. BUSULMONE SNC</t>
+  </si>
+  <si>
+    <t>SDR0057828166</t>
+  </si>
+  <si>
+    <t>0931861427</t>
+  </si>
+  <si>
+    <t>H00092148521</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:16</t>
+  </si>
+  <si>
+    <t>B37382866</t>
+  </si>
+  <si>
+    <t>ADSL1004698238</t>
+  </si>
+  <si>
+    <t>92200618</t>
+  </si>
+  <si>
+    <t>VIA PIETRO MASCAGNI 55</t>
+  </si>
+  <si>
+    <t>DTU0066661866</t>
+  </si>
+  <si>
+    <t>93114734162</t>
+  </si>
+  <si>
+    <t>E70092200618</t>
+  </si>
+  <si>
+    <t>18/08/2025 17:58</t>
+  </si>
+  <si>
+    <t>B37442657</t>
+  </si>
+  <si>
+    <t>ADSL1004697746</t>
+  </si>
+  <si>
+    <t>92197626</t>
+  </si>
+  <si>
+    <t>DTU0066649203</t>
+  </si>
+  <si>
+    <t>93114746413</t>
+  </si>
+  <si>
+    <t>E70092197626</t>
+  </si>
+  <si>
+    <t>18/08/2025 16:22</t>
+  </si>
+  <si>
+    <t>B37440513</t>
+  </si>
+  <si>
+    <t>ADSL1004700496</t>
+  </si>
+  <si>
+    <t>92214972</t>
+  </si>
+  <si>
+    <t>VIA GALVANI 5</t>
+  </si>
+  <si>
+    <t>DTU0066636389</t>
+  </si>
+  <si>
+    <t>93114730807</t>
+  </si>
+  <si>
+    <t>E70092214972</t>
+  </si>
+  <si>
+    <t>19/08/2025 12:12</t>
+  </si>
+  <si>
+    <t>B37457091</t>
   </si>
 </sst>
 </file>
@@ -9452,10 +9914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO561"/>
+  <dimension ref="A1:AO593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="A538" sqref="A538"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="B556" sqref="B556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -78290,6 +78752,4006 @@
         <v>3028</v>
       </c>
     </row>
+    <row r="562" spans="1:41">
+      <c r="A562" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J562" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K562" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L562" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M562" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N562" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O562" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P562" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="Q562" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R562" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S562" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T562" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U562" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="V562" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="W562" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X562" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="Y562" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z562" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="AA562" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB562" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC562" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD562" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE562" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF562" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG562" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH562" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI562" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ562" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK562" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL562" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM562" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN562" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO562" s="1" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="563" spans="1:41">
+      <c r="A563" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K563" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L563" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M563" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N563" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O563" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P563" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="Q563" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R563" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S563" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T563" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U563" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="V563" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="W563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X563" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="Y563" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z563" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AA563" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB563" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC563" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD563" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE563" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF563" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG563" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH563" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI563" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK563" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL563" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN563" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AO563" s="1" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="564" spans="1:41">
+      <c r="A564" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M564" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N564" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O564" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P564" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="Q564" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="R564" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S564" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T564" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U564" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="V564" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="W564" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X564" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="Y564" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z564" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="AA564" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB564" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC564" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD564" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE564" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF564" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG564" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH564" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI564" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ564" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK564" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL564" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM564" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN564" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO564" s="1" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="565" spans="1:41">
+      <c r="A565" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K565" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L565" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M565" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N565" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O565" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P565" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="Q565" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R565" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S565" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T565" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U565" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="V565" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="W565" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X565" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="Y565" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z565" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="AA565" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB565" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC565" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD565" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE565" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF565" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG565" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH565" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI565" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ565" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK565" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL565" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM565" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN565" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO565" s="1" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="566" spans="1:41">
+      <c r="A566" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J566" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K566" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L566" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M566" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N566" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O566" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P566" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="Q566" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="R566" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S566" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T566" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U566" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="V566" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="W566" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X566" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="Y566" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z566" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="AA566" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB566" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC566" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD566" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE566" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF566" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG566" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH566" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI566" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ566" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK566" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL566" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM566" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN566" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO566" s="1" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="567" spans="1:41">
+      <c r="A567" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J567" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K567" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L567" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M567" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N567" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O567" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P567" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="Q567" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R567" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S567" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T567" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U567" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="V567" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="W567" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X567" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="Y567" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z567" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA567" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB567" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC567" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD567" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE567" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF567" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG567" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH567" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI567" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ567" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK567" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL567" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM567" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN567" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="AO567" s="1" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="568" spans="1:41">
+      <c r="A568" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K568" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L568" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M568" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N568" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O568" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P568" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="Q568" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R568" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S568" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T568" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U568" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="V568" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="W568" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X568" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="Y568" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z568" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="AA568" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB568" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC568" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD568" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE568" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF568" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG568" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH568" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI568" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ568" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK568" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL568" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM568" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN568" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="AO568" s="1" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="569" spans="1:41">
+      <c r="A569" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J569" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K569" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L569" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M569" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N569" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O569" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P569" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="Q569" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R569" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S569" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T569" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U569" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="V569" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="W569" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X569" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="Y569" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z569" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="AA569" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB569" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC569" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD569" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE569" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF569" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG569" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH569" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI569" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ569" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK569" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL569" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM569" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN569" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO569" s="1" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="570" spans="1:41">
+      <c r="A570" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K570" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L570" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M570" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N570" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O570" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P570" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="Q570" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R570" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S570" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T570" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U570" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V570" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="W570" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X570" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Y570" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z570" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="AA570" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB570" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC570" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD570" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE570" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF570" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG570" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH570" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI570" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ570" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK570" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL570" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM570" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN570" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AO570" s="1" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="571" spans="1:41">
+      <c r="A571" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K571" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L571" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M571" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N571" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O571" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P571" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="Q571" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R571" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S571" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T571" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U571" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="V571" s="1" t="s">
+        <v>3108</v>
+      </c>
+      <c r="W571" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X571" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="Y571" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z571" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="AA571" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB571" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC571" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD571" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE571" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF571" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG571" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH571" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI571" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ571" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK571" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL571" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM571" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN571" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO571" s="1" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="572" spans="1:41">
+      <c r="A572" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K572" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L572" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M572" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N572" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O572" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P572" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="Q572" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R572" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S572" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T572" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U572" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="V572" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="W572" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X572" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="Y572" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z572" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="AA572" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB572" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC572" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD572" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE572" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF572" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG572" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH572" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI572" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ572" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK572" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL572" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM572" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN572" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO572" s="1" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="573" spans="1:41">
+      <c r="A573" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K573" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L573" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M573" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N573" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O573" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P573" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="Q573" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R573" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S573" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T573" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U573" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="V573" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="W573" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X573" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="Y573" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z573" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="AA573" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB573" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC573" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD573" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE573" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF573" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG573" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH573" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI573" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ573" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK573" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL573" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM573" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN573" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AO573" s="1" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="574" spans="1:41">
+      <c r="A574" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J574" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K574" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L574" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M574" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N574" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O574" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P574" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="Q574" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R574" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S574" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T574" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U574" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="V574" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="W574" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X574" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="Y574" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z574" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="AA574" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB574" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC574" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD574" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE574" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF574" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG574" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH574" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI574" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ574" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK574" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL574" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM574" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN574" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AO574" s="1" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="575" spans="1:41">
+      <c r="A575" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J575" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K575" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L575" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M575" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N575" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O575" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P575" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="Q575" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R575" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S575" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T575" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U575" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="V575" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="W575" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X575" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="Y575" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z575" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="AA575" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB575" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC575" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD575" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE575" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF575" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG575" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH575" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI575" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ575" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK575" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL575" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM575" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN575" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AO575" s="1" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="576" spans="1:41">
+      <c r="A576" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K576" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L576" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M576" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N576" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O576" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P576" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="Q576" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R576" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S576" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T576" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U576" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="V576" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="W576" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X576" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="Y576" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z576" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="AA576" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB576" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC576" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD576" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE576" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF576" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG576" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH576" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI576" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ576" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK576" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL576" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM576" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN576" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO576" s="1" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="577" spans="1:41">
+      <c r="A577" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K577" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L577" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M577" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N577" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O577" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P577" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="Q577" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R577" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S577" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T577" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U577" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="V577" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="W577" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X577" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="Y577" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z577" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="AA577" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB577" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC577" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD577" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE577" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF577" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG577" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH577" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI577" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ577" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK577" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL577" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM577" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN577" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AO577" s="1" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="578" spans="1:41">
+      <c r="A578" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J578" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K578" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L578" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M578" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N578" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O578" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P578" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="Q578" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="R578" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S578" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T578" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U578" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="V578" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="W578" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X578" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="Y578" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z578" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="AA578" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB578" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC578" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD578" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE578" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF578" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG578" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH578" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI578" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ578" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK578" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL578" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM578" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN578" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO578" s="1" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="579" spans="1:41">
+      <c r="A579" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K579" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L579" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M579" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O579" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P579" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q579" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R579" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S579" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T579" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U579" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="V579" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="W579" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X579" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="Y579" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z579" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="AA579" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB579" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC579" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD579" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE579" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF579" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG579" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH579" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI579" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ579" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK579" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL579" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM579" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN579" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO579" s="1" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="580" spans="1:41">
+      <c r="A580" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J580" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K580" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L580" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M580" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N580" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O580" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P580" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="Q580" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="R580" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S580" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T580" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U580" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="V580" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W580" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X580" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Y580" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z580" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="AA580" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB580" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC580" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD580" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE580" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF580" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG580" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH580" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI580" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ580" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK580" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL580" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM580" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN580" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO580" s="1" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="581" spans="1:41">
+      <c r="A581" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K581" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L581" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M581" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N581" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O581" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P581" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="Q581" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R581" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S581" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T581" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U581" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="V581" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="W581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X581" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="Y581" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z581" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AA581" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB581" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC581" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD581" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE581" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF581" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG581" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH581" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI581" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK581" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL581" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN581" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AO581" s="1" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="582" spans="1:41">
+      <c r="A582" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J582" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K582" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L582" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M582" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N582" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O582" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P582" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="Q582" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="R582" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S582" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T582" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U582" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="V582" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="W582" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X582" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="Y582" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z582" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="AA582" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB582" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC582" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD582" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE582" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF582" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG582" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH582" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI582" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ582" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK582" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL582" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM582" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN582" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO582" s="1" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="583" spans="1:41">
+      <c r="A583" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J583" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K583" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L583" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M583" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N583" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O583" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P583" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="Q583" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R583" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S583" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T583" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U583" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="V583" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="W583" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X583" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="Y583" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z583" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="AA583" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB583" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC583" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD583" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE583" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF583" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG583" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH583" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI583" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ583" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK583" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL583" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM583" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN583" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO583" s="1" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="584" spans="1:41">
+      <c r="A584" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K584" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L584" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M584" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N584" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O584" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P584" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="Q584" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="R584" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S584" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T584" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U584" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="V584" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="W584" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X584" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="Y584" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z584" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="AA584" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB584" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC584" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD584" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE584" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF584" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG584" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH584" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI584" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ584" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK584" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL584" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM584" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN584" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO584" s="1" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="585" spans="1:41">
+      <c r="A585" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K585" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L585" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M585" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N585" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O585" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P585" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="Q585" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R585" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S585" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T585" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U585" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V585" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="W585" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X585" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Y585" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z585" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="AA585" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB585" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC585" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD585" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE585" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF585" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG585" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH585" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI585" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ585" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK585" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL585" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM585" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN585" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AO585" s="1" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="586" spans="1:41">
+      <c r="A586" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J586" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K586" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L586" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M586" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N586" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O586" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P586" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="Q586" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R586" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S586" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T586" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U586" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="V586" s="1" t="s">
+        <v>3108</v>
+      </c>
+      <c r="W586" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X586" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="Y586" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z586" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="AA586" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB586" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC586" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD586" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE586" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF586" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG586" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH586" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI586" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ586" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK586" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL586" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM586" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN586" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO586" s="1" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="587" spans="1:41">
+      <c r="A587" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K587" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L587" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M587" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N587" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O587" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P587" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="Q587" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R587" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S587" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T587" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U587" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="V587" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="W587" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X587" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="Y587" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z587" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="AA587" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB587" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC587" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD587" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE587" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF587" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG587" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH587" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI587" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ587" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK587" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL587" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM587" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN587" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AO587" s="1" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="588" spans="1:41">
+      <c r="A588" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J588" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K588" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L588" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M588" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N588" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O588" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P588" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="Q588" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R588" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S588" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T588" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U588" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="V588" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="W588" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X588" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="Y588" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z588" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="AA588" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB588" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC588" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD588" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE588" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF588" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG588" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH588" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI588" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ588" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK588" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL588" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM588" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN588" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AO588" s="1" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="589" spans="1:41">
+      <c r="A589" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J589" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K589" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L589" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M589" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N589" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O589" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P589" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="Q589" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="R589" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S589" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T589" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U589" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="V589" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="W589" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X589" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="Y589" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z589" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="AA589" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB589" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC589" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD589" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE589" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF589" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG589" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH589" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI589" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ589" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK589" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL589" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM589" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN589" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AO589" s="1" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="590" spans="1:41">
+      <c r="A590" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K590" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L590" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N590" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O590" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P590" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="Q590" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R590" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S590" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T590" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U590" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="V590" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="W590" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X590" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="Y590" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z590" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="AA590" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB590" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC590" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD590" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE590" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF590" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG590" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH590" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI590" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ590" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK590" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL590" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM590" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN590" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AO590" s="1" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="591" spans="1:41">
+      <c r="A591" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K591" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L591" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N591" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O591" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P591" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="Q591" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R591" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S591" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T591" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U591" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="V591" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="W591" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X591" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="Y591" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z591" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="AA591" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB591" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC591" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD591" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE591" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF591" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG591" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH591" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI591" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ591" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK591" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL591" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM591" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN591" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AO591" s="1" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="592" spans="1:41">
+      <c r="A592" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J592" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K592" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L592" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N592" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O592" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P592" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q592" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R592" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S592" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T592" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U592" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="V592" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="W592" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X592" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="Y592" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z592" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="AA592" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB592" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC592" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD592" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE592" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF592" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG592" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH592" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI592" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ592" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK592" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL592" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM592" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN592" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO592" s="1" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="593" spans="1:41">
+      <c r="A593" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K593" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L593" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N593" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O593" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P593" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="Q593" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="R593" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S593" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T593" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U593" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="V593" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="W593" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X593" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Y593" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z593" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="AA593" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB593" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC593" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD593" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE593" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF593" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG593" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH593" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI593" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ593" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK593" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL593" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM593" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN593" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AO593" s="1" t="s">
+        <v>3182</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AN486"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23867" uniqueCount="3183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25157" uniqueCount="3339">
   <si>
     <t>Codice</t>
   </si>
@@ -9566,6 +9566,474 @@
   </si>
   <si>
     <t>B37457091</t>
+  </si>
+  <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>21/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>ADSL1004666624</t>
+  </si>
+  <si>
+    <t>92002940</t>
+  </si>
+  <si>
+    <t>VIA DEL CALESSE 56</t>
+  </si>
+  <si>
+    <t>21/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>DTU0066486028</t>
+  </si>
+  <si>
+    <t>93114720062</t>
+  </si>
+  <si>
+    <t>E70092002940</t>
+  </si>
+  <si>
+    <t>07/08/2025 17:20</t>
+  </si>
+  <si>
+    <t>B37232801</t>
+  </si>
+  <si>
+    <t>ADSL1004650254</t>
+  </si>
+  <si>
+    <t>91890977</t>
+  </si>
+  <si>
+    <t>VIA LUIGI CASSIA 64</t>
+  </si>
+  <si>
+    <t>DTU0066469048</t>
+  </si>
+  <si>
+    <t>0931702402</t>
+  </si>
+  <si>
+    <t>E70091890977</t>
+  </si>
+  <si>
+    <t>04/08/2025 14:24</t>
+  </si>
+  <si>
+    <t>B37129639</t>
+  </si>
+  <si>
+    <t>ADSL1004651986</t>
+  </si>
+  <si>
+    <t>91902219</t>
+  </si>
+  <si>
+    <t>VIA ACHILLE ADORNO 15</t>
+  </si>
+  <si>
+    <t>DTU0066468577</t>
+  </si>
+  <si>
+    <t>0931705525</t>
+  </si>
+  <si>
+    <t>E70091902219</t>
+  </si>
+  <si>
+    <t>04/08/2025 18:48</t>
+  </si>
+  <si>
+    <t>B37137995</t>
+  </si>
+  <si>
+    <t>ADSL1004703789</t>
+  </si>
+  <si>
+    <t>92231143</t>
+  </si>
+  <si>
+    <t>VIA POLIMNIA - FONTANE BIANCHE 17</t>
+  </si>
+  <si>
+    <t>DTU0066617159</t>
+  </si>
+  <si>
+    <t>0931587529</t>
+  </si>
+  <si>
+    <t>E70092231143</t>
+  </si>
+  <si>
+    <t>19/08/2025 18:40</t>
+  </si>
+  <si>
+    <t>B37468913</t>
+  </si>
+  <si>
+    <t>ADSL1004705287</t>
+  </si>
+  <si>
+    <t>92238790</t>
+  </si>
+  <si>
+    <t>TRAVERSA DI VIA CASE MESSINA 23</t>
+  </si>
+  <si>
+    <t>DTU0066686032</t>
+  </si>
+  <si>
+    <t>93114731009</t>
+  </si>
+  <si>
+    <t>E70092238790</t>
+  </si>
+  <si>
+    <t>20/08/2025 09:36</t>
+  </si>
+  <si>
+    <t>B37479058</t>
+  </si>
+  <si>
+    <t>ADSL1004706884</t>
+  </si>
+  <si>
+    <t>92249408</t>
+  </si>
+  <si>
+    <t>VIA FAVARA 8</t>
+  </si>
+  <si>
+    <t>21/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>DTU0066686071</t>
+  </si>
+  <si>
+    <t>93114748660</t>
+  </si>
+  <si>
+    <t>E70092249408</t>
+  </si>
+  <si>
+    <t>20/08/2025 14:12</t>
+  </si>
+  <si>
+    <t>B37486333</t>
+  </si>
+  <si>
+    <t>ADSL1004697385</t>
+  </si>
+  <si>
+    <t>92195876</t>
+  </si>
+  <si>
+    <t>VIALE FILIPPO TURATI 146</t>
+  </si>
+  <si>
+    <t>DTU0066634754</t>
+  </si>
+  <si>
+    <t>0931861471</t>
+  </si>
+  <si>
+    <t>E70092195876</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:42</t>
+  </si>
+  <si>
+    <t>B37439049</t>
+  </si>
+  <si>
+    <t>ADSL1004697040</t>
+  </si>
+  <si>
+    <t>92193150</t>
+  </si>
+  <si>
+    <t>VIALE SANTA PANAGIA 136/F</t>
+  </si>
+  <si>
+    <t>DTU0066659638</t>
+  </si>
+  <si>
+    <t>0931493873</t>
+  </si>
+  <si>
+    <t>E70092193150</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:38</t>
+  </si>
+  <si>
+    <t>B37437298</t>
+  </si>
+  <si>
+    <t>ADSL1004679339</t>
+  </si>
+  <si>
+    <t>92080543</t>
+  </si>
+  <si>
+    <t>EQ1</t>
+  </si>
+  <si>
+    <t>VIA PAPA PIO XII 3</t>
+  </si>
+  <si>
+    <t>21/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>DTU0066589497</t>
+  </si>
+  <si>
+    <t>93114758192</t>
+  </si>
+  <si>
+    <t>E70092080543</t>
+  </si>
+  <si>
+    <t>11/08/2025 20:58</t>
+  </si>
+  <si>
+    <t>B37315206</t>
+  </si>
+  <si>
+    <t>ADSL1004698959</t>
+  </si>
+  <si>
+    <t>92203934</t>
+  </si>
+  <si>
+    <t>VIA POLLUCE - FONTANE BIANCHE 15</t>
+  </si>
+  <si>
+    <t>DTU0066325478</t>
+  </si>
+  <si>
+    <t>93114759468</t>
+  </si>
+  <si>
+    <t>E70092203934</t>
+  </si>
+  <si>
+    <t>18/08/2025 21:00</t>
+  </si>
+  <si>
+    <t>V111927</t>
+  </si>
+  <si>
+    <t>91973648</t>
+  </si>
+  <si>
+    <t>B37445009</t>
+  </si>
+  <si>
+    <t>ADSL1004699614</t>
+  </si>
+  <si>
+    <t>92208081</t>
+  </si>
+  <si>
+    <t>ERNCRI-CAR</t>
+  </si>
+  <si>
+    <t>VIA SAN MICHELE ARCANGELO SNC</t>
+  </si>
+  <si>
+    <t>DTU0066659783</t>
+  </si>
+  <si>
+    <t>0931812298</t>
+  </si>
+  <si>
+    <t>E70092208081</t>
+  </si>
+  <si>
+    <t>FTTC RI Del35: COST COL+PER+PROD+REC IMP</t>
+  </si>
+  <si>
+    <t>19/08/2025 09:30</t>
+  </si>
+  <si>
+    <t>B37452339</t>
+  </si>
+  <si>
+    <t>ADSL1004702861</t>
+  </si>
+  <si>
+    <t>92225973</t>
+  </si>
+  <si>
+    <t>VIA ROMA 38</t>
+  </si>
+  <si>
+    <t>DTU0066677291</t>
+  </si>
+  <si>
+    <t>93114752732</t>
+  </si>
+  <si>
+    <t>E70092225973</t>
+  </si>
+  <si>
+    <t>19/08/2025 15:48</t>
+  </si>
+  <si>
+    <t>B37465480</t>
+  </si>
+  <si>
+    <t>ADSL1004704900</t>
+  </si>
+  <si>
+    <t>92235189</t>
+  </si>
+  <si>
+    <t>VIA ROSARIO LIVATINO 12</t>
+  </si>
+  <si>
+    <t>DTU0066679668</t>
+  </si>
+  <si>
+    <t>93114730143</t>
+  </si>
+  <si>
+    <t>E70092235189</t>
+  </si>
+  <si>
+    <t>20/08/2025 01:56</t>
+  </si>
+  <si>
+    <t>B37473558</t>
+  </si>
+  <si>
+    <t>ADSL1004614679</t>
+  </si>
+  <si>
+    <t>91661289</t>
+  </si>
+  <si>
+    <t>VIA DELLE MIMOSE 36</t>
+  </si>
+  <si>
+    <t>DTU0066325132</t>
+  </si>
+  <si>
+    <t>93114759462</t>
+  </si>
+  <si>
+    <t>E70091661289</t>
+  </si>
+  <si>
+    <t>25/07/2025 21:14</t>
+  </si>
+  <si>
+    <t>B36910884</t>
+  </si>
+  <si>
+    <t>ADSL1004680009</t>
+  </si>
+  <si>
+    <t>92086146</t>
+  </si>
+  <si>
+    <t>VIA TORINO 72</t>
+  </si>
+  <si>
+    <t>DTU0066156629</t>
+  </si>
+  <si>
+    <t>0931861579</t>
+  </si>
+  <si>
+    <t>E70092086146</t>
+  </si>
+  <si>
+    <t>12/08/2025 09:46</t>
+  </si>
+  <si>
+    <t>91604638</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>B37324089</t>
+  </si>
+  <si>
+    <t>ADSL1004687005</t>
+  </si>
+  <si>
+    <t>92132182</t>
+  </si>
+  <si>
+    <t>VIA CESARE BATTISTI 51</t>
+  </si>
+  <si>
+    <t>DTU0066624694</t>
+  </si>
+  <si>
+    <t>0931834352</t>
+  </si>
+  <si>
+    <t>E70092132182</t>
+  </si>
+  <si>
+    <t>13/08/2025 19:22</t>
+  </si>
+  <si>
+    <t>B37364171</t>
+  </si>
+  <si>
+    <t>ADSL1004698775</t>
+  </si>
+  <si>
+    <t>92203311</t>
+  </si>
+  <si>
+    <t>VIA MARIA MONTESSORI - BELVEDERE 30</t>
+  </si>
+  <si>
+    <t>DTU0066659654</t>
+  </si>
+  <si>
+    <t>0931744663</t>
+  </si>
+  <si>
+    <t>E70092203311</t>
+  </si>
+  <si>
+    <t>18/08/2025 20:14</t>
+  </si>
+  <si>
+    <t>B37444437</t>
+  </si>
+  <si>
+    <t>ADSL1004701140</t>
+  </si>
+  <si>
+    <t>92218382</t>
+  </si>
+  <si>
+    <t>VIA SACERDOTE ROSARIO FRATANTONIO 8</t>
+  </si>
+  <si>
+    <t>DTU0066636448</t>
+  </si>
+  <si>
+    <t>0931586802</t>
+  </si>
+  <si>
+    <t>E70092218382</t>
+  </si>
+  <si>
+    <t>19/08/2025 13:28</t>
+  </si>
+  <si>
+    <t>B37459759</t>
   </si>
 </sst>
 </file>
@@ -9914,10 +10382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO593"/>
+  <dimension ref="A1:AQ623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="B556" sqref="B556"/>
+    <sheetView tabSelected="1" topLeftCell="H587" workbookViewId="0">
+      <selection activeCell="Q621" sqref="Q621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -82627,7 +83095,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="593" spans="1:41">
+    <row r="593" spans="1:43">
       <c r="A593" s="1" t="s">
         <v>3175</v>
       </c>
@@ -82750,6 +83218,3936 @@
       </c>
       <c r="AO593" s="1" t="s">
         <v>3182</v>
+      </c>
+    </row>
+    <row r="594" spans="1:43">
+      <c r="A594" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K594" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N594" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O594" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P594" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="Q594" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="R594" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S594" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T594" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U594" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="V594" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="W594" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X594" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="Y594" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z594" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AA594" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB594" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC594" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD594" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE594" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF594" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG594" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH594" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI594" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ594" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK594" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL594" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM594" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN594" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO594" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP594" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AQ594" s="1" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="595" spans="1:43">
+      <c r="A595" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K595" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L595" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N595" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O595" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P595" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="Q595" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="R595" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S595" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T595" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U595" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="V595" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="W595" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X595" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="Y595" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z595" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="AA595" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB595" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC595" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD595" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE595" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF595" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG595" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH595" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI595" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ595" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK595" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL595" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM595" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN595" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO595" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP595" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AQ595" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="596" spans="1:43">
+      <c r="A596" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K596" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L596" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N596" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P596" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="Q596" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="R596" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S596" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T596" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U596" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="V596" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="W596" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X596" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="Y596" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z596" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="AA596" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB596" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC596" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD596" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE596" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF596" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG596" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH596" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI596" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ596" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK596" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL596" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM596" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN596" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO596" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP596" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ596" s="1" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="597" spans="1:43">
+      <c r="A597" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J597" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K597" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L597" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M597" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N597" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O597" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P597" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="Q597" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="R597" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S597" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T597" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U597" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="V597" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="W597" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X597" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="Y597" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z597" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="AA597" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB597" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC597" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD597" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE597" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF597" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG597" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH597" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI597" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ597" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK597" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL597" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM597" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN597" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO597" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP597" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AQ597" s="1" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="598" spans="1:43">
+      <c r="A598" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K598" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L598" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N598" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O598" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P598" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="Q598" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="R598" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S598" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T598" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U598" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="V598" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="W598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X598" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="Y598" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z598" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="AA598" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB598" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC598" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD598" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE598" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF598" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG598" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH598" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK598" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM598" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN598" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP598" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ598" s="1" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="599" spans="1:43">
+      <c r="A599" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K599" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L599" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N599" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O599" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P599" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="Q599" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="R599" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S599" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T599" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U599" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="V599" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="W599" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X599" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="Y599" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z599" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="AA599" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB599" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC599" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD599" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE599" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF599" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG599" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH599" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK599" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM599" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN599" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO599" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP599" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ599" s="1" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="600" spans="1:43">
+      <c r="A600" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K600" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N600" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O600" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P600" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="Q600" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="R600" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S600" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T600" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U600" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="V600" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="W600" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X600" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="Y600" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z600" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="AA600" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB600" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC600" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD600" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE600" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF600" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG600" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH600" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI600" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ600" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK600" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL600" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM600" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN600" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO600" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP600" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ600" s="1" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="601" spans="1:43">
+      <c r="A601" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K601" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N601" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O601" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P601" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="Q601" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="R601" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S601" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T601" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U601" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="V601" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="W601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X601" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="Y601" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z601" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="AA601" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB601" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC601" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD601" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE601" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF601" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG601" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH601" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK601" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM601" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN601" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO601" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP601" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ601" s="1" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="602" spans="1:43">
+      <c r="A602" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K602" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L602" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N602" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O602" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P602" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="Q602" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="R602" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S602" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T602" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U602" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="V602" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="W602" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X602" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="Y602" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="Z602" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="AA602" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB602" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC602" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD602" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE602" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF602" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG602" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH602" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI602" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ602" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK602" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL602" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM602" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN602" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO602" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP602" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ602" s="1" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="603" spans="1:43">
+      <c r="A603" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K603" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L603" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N603" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O603" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P603" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="Q603" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="R603" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S603" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T603" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U603" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="V603" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="W603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X603" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="Y603" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z603" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="AA603" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB603" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC603" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD603" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE603" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF603" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG603" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK603" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM603" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP603" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ603" s="1" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="604" spans="1:43">
+      <c r="A604" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K604" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L604" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N604" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O604" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P604" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="Q604" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="R604" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S604" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T604" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U604" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="V604" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="W604" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X604" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="Y604" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z604" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="AA604" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB604" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC604" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD604" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE604" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF604" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG604" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH604" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI604" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ604" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="AK604" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL604" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM604" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN604" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO604" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP604" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ604" s="1" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="605" spans="1:43">
+      <c r="A605" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J605" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K605" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N605" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O605" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P605" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="Q605" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="R605" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S605" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T605" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U605" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="V605" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="W605" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X605" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="Y605" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="Z605" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="AA605" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB605" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC605" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD605" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE605" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF605" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG605" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH605" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI605" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ605" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK605" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL605" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM605" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN605" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO605" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP605" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ605" s="1" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="606" spans="1:43">
+      <c r="A606" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K606" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N606" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O606" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P606" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="Q606" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="R606" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S606" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T606" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U606" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="V606" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="W606" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X606" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="Y606" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z606" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="AA606" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB606" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC606" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD606" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE606" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF606" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG606" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH606" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI606" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ606" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK606" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL606" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM606" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN606" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO606" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP606" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ606" s="1" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="607" spans="1:43">
+      <c r="A607" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K607" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N607" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P607" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="Q607" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="R607" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S607" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T607" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U607" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="V607" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="W607" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X607" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="Y607" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z607" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="AA607" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB607" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC607" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD607" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE607" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF607" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG607" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH607" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK607" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM607" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN607" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO607" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP607" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ607" s="1" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="608" spans="1:43">
+      <c r="A608" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J608" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K608" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L608" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M608" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N608" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O608" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P608" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="Q608" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="R608" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S608" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T608" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U608" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="V608" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="W608" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X608" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="Y608" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z608" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AA608" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB608" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC608" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD608" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE608" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF608" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG608" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH608" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI608" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ608" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK608" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL608" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM608" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN608" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO608" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP608" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ608" s="1" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="609" spans="1:43">
+      <c r="A609" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J609" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K609" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L609" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N609" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O609" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P609" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="Q609" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="R609" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S609" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T609" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U609" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="V609" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="W609" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X609" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="Y609" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z609" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="AA609" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB609" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC609" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD609" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE609" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF609" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG609" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH609" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI609" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ609" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AK609" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL609" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM609" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN609" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO609" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP609" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AQ609" s="1" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="610" spans="1:43">
+      <c r="A610" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J610" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K610" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L610" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N610" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O610" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P610" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="Q610" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="R610" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S610" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T610" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U610" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="V610" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="W610" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X610" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="Y610" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z610" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AA610" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB610" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC610" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD610" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE610" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF610" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG610" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH610" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI610" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ610" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK610" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL610" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM610" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN610" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO610" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP610" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ610" s="1" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="611" spans="1:43">
+      <c r="A611" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K611" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L611" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N611" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O611" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P611" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="Q611" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="R611" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S611" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T611" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U611" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="V611" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="W611" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X611" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="Y611" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z611" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="AA611" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="AB611" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AC611" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD611" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE611" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF611" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG611" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH611" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI611" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ611" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK611" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL611" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM611" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN611" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO611" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP611" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ611" s="1" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="612" spans="1:43">
+      <c r="A612" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J612" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K612" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L612" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N612" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O612" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P612" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="Q612" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="R612" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S612" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T612" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U612" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="V612" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="W612" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X612" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="Y612" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z612" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="AA612" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB612" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC612" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD612" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE612" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF612" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG612" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH612" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI612" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ612" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK612" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL612" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM612" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN612" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO612" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP612" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ612" s="1" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="613" spans="1:43">
+      <c r="A613" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J613" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K613" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L613" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N613" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O613" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P613" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="Q613" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="R613" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S613" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T613" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U613" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="V613" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="W613" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X613" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="Y613" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z613" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AA613" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB613" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC613" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD613" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE613" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF613" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG613" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH613" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI613" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ613" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK613" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL613" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM613" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN613" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO613" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP613" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AQ613" s="1" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="614" spans="1:43">
+      <c r="A614" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J614" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K614" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L614" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N614" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O614" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P614" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="Q614" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="R614" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S614" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T614" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U614" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="V614" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="W614" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X614" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="Y614" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z614" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="AA614" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB614" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC614" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD614" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE614" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF614" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG614" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH614" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI614" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ614" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK614" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL614" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM614" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN614" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO614" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP614" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AQ614" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="615" spans="1:43">
+      <c r="A615" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J615" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K615" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L615" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N615" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O615" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P615" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="Q615" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="R615" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S615" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T615" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U615" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="V615" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="W615" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X615" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="Y615" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z615" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="AA615" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB615" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC615" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD615" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE615" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF615" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG615" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH615" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI615" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ615" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK615" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL615" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM615" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN615" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO615" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP615" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ615" s="1" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="616" spans="1:43">
+      <c r="A616" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J616" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K616" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L616" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M616" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N616" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O616" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P616" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="Q616" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="R616" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S616" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T616" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U616" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="V616" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="W616" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X616" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="Y616" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z616" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="AA616" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB616" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC616" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD616" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE616" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF616" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG616" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH616" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI616" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ616" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK616" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL616" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM616" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN616" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO616" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP616" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AQ616" s="1" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="617" spans="1:43">
+      <c r="A617" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K617" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L617" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N617" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O617" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P617" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="Q617" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="R617" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S617" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T617" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U617" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="V617" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="W617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X617" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="Y617" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z617" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="AA617" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB617" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC617" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD617" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE617" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF617" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG617" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH617" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK617" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM617" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN617" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP617" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ617" s="1" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="618" spans="1:43">
+      <c r="A618" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K618" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L618" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N618" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O618" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P618" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="Q618" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="R618" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S618" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T618" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U618" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="V618" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="W618" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X618" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="Y618" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z618" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="AA618" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB618" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC618" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD618" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE618" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF618" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG618" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH618" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK618" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM618" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN618" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO618" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP618" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ618" s="1" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="619" spans="1:43">
+      <c r="A619" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J619" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K619" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L619" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N619" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O619" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P619" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="Q619" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="R619" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S619" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T619" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U619" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="V619" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="W619" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X619" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="Y619" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z619" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="AA619" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB619" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC619" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD619" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE619" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF619" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG619" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH619" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI619" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ619" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK619" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL619" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM619" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN619" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO619" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP619" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ619" s="1" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="620" spans="1:43">
+      <c r="A620" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J620" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K620" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L620" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M620" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N620" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O620" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P620" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="Q620" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="R620" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S620" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T620" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U620" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="V620" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="W620" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X620" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="Y620" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="Z620" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="AA620" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB620" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC620" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD620" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE620" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF620" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG620" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH620" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI620" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ620" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK620" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL620" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM620" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN620" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO620" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP620" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ620" s="1" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="621" spans="1:43">
+      <c r="A621" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J621" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K621" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L621" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M621" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N621" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O621" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P621" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="Q621" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="R621" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S621" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T621" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U621" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="V621" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="W621" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X621" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="Y621" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z621" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AA621" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB621" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC621" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD621" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE621" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF621" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG621" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH621" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI621" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ621" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK621" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL621" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM621" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN621" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO621" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP621" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ621" s="1" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="622" spans="1:43">
+      <c r="A622" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J622" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K622" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L622" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="M622" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N622" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O622" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P622" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="Q622" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="R622" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S622" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T622" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U622" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="V622" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="W622" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X622" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="Y622" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z622" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="AA622" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="AB622" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AC622" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD622" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE622" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF622" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG622" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH622" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI622" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ622" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK622" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL622" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM622" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN622" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO622" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP622" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ622" s="1" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="623" spans="1:43">
+      <c r="A623" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J623" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K623" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L623" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M623" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N623" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O623" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P623" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="Q623" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="R623" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S623" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T623" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U623" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="V623" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="W623" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X623" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="Y623" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z623" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="AA623" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB623" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC623" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD623" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE623" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF623" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG623" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH623" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI623" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ623" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK623" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL623" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM623" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN623" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO623" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP623" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ623" s="1" t="s">
+        <v>3338</v>
       </c>
     </row>
   </sheetData>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25157" uniqueCount="3339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28081" uniqueCount="3674">
   <si>
     <t>Codice</t>
   </si>
@@ -10034,6 +10034,1011 @@
   </si>
   <si>
     <t>B37459759</t>
+  </si>
+  <si>
+    <t>ADSL1004684159</t>
+  </si>
+  <si>
+    <t>92113600</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>VIA NIZZA 108</t>
+  </si>
+  <si>
+    <t>22/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>DTU0066594070</t>
+  </si>
+  <si>
+    <t>93114757738</t>
+  </si>
+  <si>
+    <t>E70092113600</t>
+  </si>
+  <si>
+    <t>13/08/2025 10:08</t>
+  </si>
+  <si>
+    <t>B37350483</t>
+  </si>
+  <si>
+    <t>ADSL1004689870</t>
+  </si>
+  <si>
+    <t>92152174</t>
+  </si>
+  <si>
+    <t>VIA RICCARDO ZANDONAI 33</t>
+  </si>
+  <si>
+    <t>DTU0066634347</t>
+  </si>
+  <si>
+    <t>93114732246</t>
+  </si>
+  <si>
+    <t>E70092152174</t>
+  </si>
+  <si>
+    <t>14/08/2025 17:14</t>
+  </si>
+  <si>
+    <t>B37385578</t>
+  </si>
+  <si>
+    <t>ADSL1004698944</t>
+  </si>
+  <si>
+    <t>92203918</t>
+  </si>
+  <si>
+    <t>VIALE LIDO 7</t>
+  </si>
+  <si>
+    <t>22/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>DTU0066669044</t>
+  </si>
+  <si>
+    <t>93114732532</t>
+  </si>
+  <si>
+    <t>E70092203918</t>
+  </si>
+  <si>
+    <t>B37445016</t>
+  </si>
+  <si>
+    <t>ADSL1004709860</t>
+  </si>
+  <si>
+    <t>92268234</t>
+  </si>
+  <si>
+    <t>VIALE PRINCIPE DI PIEMONTE 79</t>
+  </si>
+  <si>
+    <t>DTU0066675063</t>
+  </si>
+  <si>
+    <t>93114757437</t>
+  </si>
+  <si>
+    <t>E70092268234</t>
+  </si>
+  <si>
+    <t>21/08/2025 10:14</t>
+  </si>
+  <si>
+    <t>B37503865</t>
+  </si>
+  <si>
+    <t>ADSL1004688052</t>
+  </si>
+  <si>
+    <t>92138941</t>
+  </si>
+  <si>
+    <t>VIA NATALE TOMMASO 28</t>
+  </si>
+  <si>
+    <t>22/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>DTU0066607420</t>
+  </si>
+  <si>
+    <t>0931969366</t>
+  </si>
+  <si>
+    <t>E70092138941</t>
+  </si>
+  <si>
+    <t>14/08/2025 10:40</t>
+  </si>
+  <si>
+    <t>B37375417</t>
+  </si>
+  <si>
+    <t>ADSL1004692808</t>
+  </si>
+  <si>
+    <t>92168457</t>
+  </si>
+  <si>
+    <t>VIA DEI MILLE 93</t>
+  </si>
+  <si>
+    <t>DTU0066646275</t>
+  </si>
+  <si>
+    <t>93114749890</t>
+  </si>
+  <si>
+    <t>E70092168457</t>
+  </si>
+  <si>
+    <t>16/08/2025 15:36</t>
+  </si>
+  <si>
+    <t>B37409435</t>
+  </si>
+  <si>
+    <t>ADSL1004697153</t>
+  </si>
+  <si>
+    <t>92194238</t>
+  </si>
+  <si>
+    <t>VIA CARLO RAMPULLA 39</t>
+  </si>
+  <si>
+    <t>DTU0066589872</t>
+  </si>
+  <si>
+    <t>93114735873</t>
+  </si>
+  <si>
+    <t>E70092194238</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:02</t>
+  </si>
+  <si>
+    <t>92108753</t>
+  </si>
+  <si>
+    <t>B37438058</t>
+  </si>
+  <si>
+    <t>ADSL1004704997</t>
+  </si>
+  <si>
+    <t>92236147</t>
+  </si>
+  <si>
+    <t>VIA GIANLUCA BARBIERI 19</t>
+  </si>
+  <si>
+    <t>DTU0066685226</t>
+  </si>
+  <si>
+    <t>93114759442</t>
+  </si>
+  <si>
+    <t>E70092236147</t>
+  </si>
+  <si>
+    <t>20/08/2025 08:14</t>
+  </si>
+  <si>
+    <t>B37476809</t>
+  </si>
+  <si>
+    <t>ADSL1004670543</t>
+  </si>
+  <si>
+    <t>92026918</t>
+  </si>
+  <si>
+    <t>VIA DEGLI ULIVI - CASSIBILE 15</t>
+  </si>
+  <si>
+    <t>DTU0066448129</t>
+  </si>
+  <si>
+    <t>93114734009</t>
+  </si>
+  <si>
+    <t>E70092026918</t>
+  </si>
+  <si>
+    <t>B37256969</t>
+  </si>
+  <si>
+    <t>ADSL1004688229</t>
+  </si>
+  <si>
+    <t>92140307</t>
+  </si>
+  <si>
+    <t>VIA NICOLO' CARBONARO 58</t>
+  </si>
+  <si>
+    <t>DTU0066602939</t>
+  </si>
+  <si>
+    <t>0931861123</t>
+  </si>
+  <si>
+    <t>E70092140307</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:22</t>
+  </si>
+  <si>
+    <t>B37376483</t>
+  </si>
+  <si>
+    <t>ADSL1004698231</t>
+  </si>
+  <si>
+    <t>92200598</t>
+  </si>
+  <si>
+    <t>VIA RIMINI 10</t>
+  </si>
+  <si>
+    <t>22/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>DTU0066665531</t>
+  </si>
+  <si>
+    <t>0931586147</t>
+  </si>
+  <si>
+    <t>E70092200598</t>
+  </si>
+  <si>
+    <t>B37442656</t>
+  </si>
+  <si>
+    <t>ADSL1004698708</t>
+  </si>
+  <si>
+    <t>92202932</t>
+  </si>
+  <si>
+    <t>E70092202932</t>
+  </si>
+  <si>
+    <t>18/08/2025 19:50</t>
+  </si>
+  <si>
+    <t>B37444104</t>
+  </si>
+  <si>
+    <t>ADSL1004707589</t>
+  </si>
+  <si>
+    <t>92253903</t>
+  </si>
+  <si>
+    <t>VIA GIACOMO PUCCINI 24</t>
+  </si>
+  <si>
+    <t>DTU0066684599</t>
+  </si>
+  <si>
+    <t>0931861832</t>
+  </si>
+  <si>
+    <t>E70092253903</t>
+  </si>
+  <si>
+    <t>20/08/2025 16:14</t>
+  </si>
+  <si>
+    <t>B37489438</t>
+  </si>
+  <si>
+    <t>ADSL1004707639</t>
+  </si>
+  <si>
+    <t>92254233</t>
+  </si>
+  <si>
+    <t>23/08/2025</t>
+  </si>
+  <si>
+    <t>23/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>DTU0066688521</t>
+  </si>
+  <si>
+    <t>93114759349</t>
+  </si>
+  <si>
+    <t>E70092254233</t>
+  </si>
+  <si>
+    <t>20/08/2025 16:22</t>
+  </si>
+  <si>
+    <t>B37489643</t>
+  </si>
+  <si>
+    <t>ADSL1004708541</t>
+  </si>
+  <si>
+    <t>92259106</t>
+  </si>
+  <si>
+    <t>VIA DEGLI ACERI - CASSIBILE 20</t>
+  </si>
+  <si>
+    <t>DTU0066688344</t>
+  </si>
+  <si>
+    <t>93114748252</t>
+  </si>
+  <si>
+    <t>E70092259106</t>
+  </si>
+  <si>
+    <t>20/08/2025 19:24</t>
+  </si>
+  <si>
+    <t>B37493143</t>
+  </si>
+  <si>
+    <t>ADSL1004709840</t>
+  </si>
+  <si>
+    <t>92267995</t>
+  </si>
+  <si>
+    <t>VIA DELLA PASTORIZIA 7</t>
+  </si>
+  <si>
+    <t>DTU0066706285</t>
+  </si>
+  <si>
+    <t>93114741937</t>
+  </si>
+  <si>
+    <t>E70092267995</t>
+  </si>
+  <si>
+    <t>21/08/2025 10:10</t>
+  </si>
+  <si>
+    <t>B37503613</t>
+  </si>
+  <si>
+    <t>ADSL1004713324</t>
+  </si>
+  <si>
+    <t>92289540</t>
+  </si>
+  <si>
+    <t>VIA PANAREA 8</t>
+  </si>
+  <si>
+    <t>DTU0066713390</t>
+  </si>
+  <si>
+    <t>93114722153</t>
+  </si>
+  <si>
+    <t>E70092289540</t>
+  </si>
+  <si>
+    <t>21/08/2025 18:14</t>
+  </si>
+  <si>
+    <t>B37517626</t>
+  </si>
+  <si>
+    <t>ADSL1004713677</t>
+  </si>
+  <si>
+    <t>92291732</t>
+  </si>
+  <si>
+    <t>VIA NINNI CASSARA' 44</t>
+  </si>
+  <si>
+    <t>23/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>DTU0066707749</t>
+  </si>
+  <si>
+    <t>0931861478</t>
+  </si>
+  <si>
+    <t>E70092291732</t>
+  </si>
+  <si>
+    <t>21/08/2025 19:40</t>
+  </si>
+  <si>
+    <t>B37518908</t>
+  </si>
+  <si>
+    <t>ADSL1004713705</t>
+  </si>
+  <si>
+    <t>92291927</t>
+  </si>
+  <si>
+    <t>VIA MARSALA 60</t>
+  </si>
+  <si>
+    <t>23/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>DTU0066714356</t>
+  </si>
+  <si>
+    <t>0931861831</t>
+  </si>
+  <si>
+    <t>E70092291927</t>
+  </si>
+  <si>
+    <t>21/08/2025 19:50</t>
+  </si>
+  <si>
+    <t>B37519100</t>
+  </si>
+  <si>
+    <t>ADSL1004714046</t>
+  </si>
+  <si>
+    <t>92293255</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>VIA ANGELO CAVARRA 148</t>
+  </si>
+  <si>
+    <t>DTU0066711947</t>
+  </si>
+  <si>
+    <t>93114735550</t>
+  </si>
+  <si>
+    <t>E70092293255</t>
+  </si>
+  <si>
+    <t>21/08/2025 21:02</t>
+  </si>
+  <si>
+    <t>B37520075</t>
+  </si>
+  <si>
+    <t>ADSL1004618854</t>
+  </si>
+  <si>
+    <t>91686365</t>
+  </si>
+  <si>
+    <t>VIA SALVATORE RAITI 6</t>
+  </si>
+  <si>
+    <t>DTU0066335589</t>
+  </si>
+  <si>
+    <t>93114752007</t>
+  </si>
+  <si>
+    <t>E70091686365</t>
+  </si>
+  <si>
+    <t>28/07/2025 08:34</t>
+  </si>
+  <si>
+    <t>B36944617</t>
+  </si>
+  <si>
+    <t>ADSL1004645330</t>
+  </si>
+  <si>
+    <t>91858925</t>
+  </si>
+  <si>
+    <t>VIA ACHILLE ADORNO 5</t>
+  </si>
+  <si>
+    <t>DTU0066450534</t>
+  </si>
+  <si>
+    <t>0931781745</t>
+  </si>
+  <si>
+    <t>E70091858925</t>
+  </si>
+  <si>
+    <t>02/08/2025 13:52</t>
+  </si>
+  <si>
+    <t>B37094683</t>
+  </si>
+  <si>
+    <t>ADSL1004658363</t>
+  </si>
+  <si>
+    <t>91947226</t>
+  </si>
+  <si>
+    <t>VIA ACHILLE ADORNO 5/A</t>
+  </si>
+  <si>
+    <t>DTU0066171118</t>
+  </si>
+  <si>
+    <t>0931318438</t>
+  </si>
+  <si>
+    <t>E70091947226</t>
+  </si>
+  <si>
+    <t>06/08/2025 08:58</t>
+  </si>
+  <si>
+    <t>91434907</t>
+  </si>
+  <si>
+    <t>B37182241</t>
+  </si>
+  <si>
+    <t>ADSL1004687246</t>
+  </si>
+  <si>
+    <t>92133470</t>
+  </si>
+  <si>
+    <t>E70092133470</t>
+  </si>
+  <si>
+    <t>13/08/2025 21:00</t>
+  </si>
+  <si>
+    <t>B37365364</t>
+  </si>
+  <si>
+    <t>ADSL1004708096</t>
+  </si>
+  <si>
+    <t>92256748</t>
+  </si>
+  <si>
+    <t>VIA PITAGORA 28</t>
+  </si>
+  <si>
+    <t>DTU0066695901</t>
+  </si>
+  <si>
+    <t>93114736365</t>
+  </si>
+  <si>
+    <t>E70092256748</t>
+  </si>
+  <si>
+    <t>20/08/2025 17:54</t>
+  </si>
+  <si>
+    <t>B37491410</t>
+  </si>
+  <si>
+    <t>ADSL1004704281</t>
+  </si>
+  <si>
+    <t>92233585</t>
+  </si>
+  <si>
+    <t>VIALE DEI COMUNI 75</t>
+  </si>
+  <si>
+    <t>DTU0066684536</t>
+  </si>
+  <si>
+    <t>0931491044</t>
+  </si>
+  <si>
+    <t>E70092233585</t>
+  </si>
+  <si>
+    <t>19/08/2025 20:54</t>
+  </si>
+  <si>
+    <t>B37470573</t>
+  </si>
+  <si>
+    <t>ADSL1004711662</t>
+  </si>
+  <si>
+    <t>92279506</t>
+  </si>
+  <si>
+    <t>VIALE SANTA PANAGIA 102</t>
+  </si>
+  <si>
+    <t>DTU0066709076</t>
+  </si>
+  <si>
+    <t>0931861821</t>
+  </si>
+  <si>
+    <t>E70092279506</t>
+  </si>
+  <si>
+    <t>21/08/2025 14:04</t>
+  </si>
+  <si>
+    <t>B37511060</t>
+  </si>
+  <si>
+    <t>ADSL1004697522</t>
+  </si>
+  <si>
+    <t>92196552</t>
+  </si>
+  <si>
+    <t>VIA PROMETEO - FONTANE BIANCHE 16</t>
+  </si>
+  <si>
+    <t>DTU0066581220</t>
+  </si>
+  <si>
+    <t>93114758984</t>
+  </si>
+  <si>
+    <t>E70092196552</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:56</t>
+  </si>
+  <si>
+    <t>B37439639</t>
+  </si>
+  <si>
+    <t>ADSL1004705011</t>
+  </si>
+  <si>
+    <t>92236259</t>
+  </si>
+  <si>
+    <t>STRADA OGNINA 22</t>
+  </si>
+  <si>
+    <t>DTU0066681545</t>
+  </si>
+  <si>
+    <t>93114750204</t>
+  </si>
+  <si>
+    <t>E70092236259</t>
+  </si>
+  <si>
+    <t>20/08/2025 08:20</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>ENK2101SMA</t>
+  </si>
+  <si>
+    <t>B37476923</t>
+  </si>
+  <si>
+    <t>ADSL1004705089</t>
+  </si>
+  <si>
+    <t>92237115</t>
+  </si>
+  <si>
+    <t>VIA DELLO SPARVIERO 89</t>
+  </si>
+  <si>
+    <t>DTU0066684908</t>
+  </si>
+  <si>
+    <t>93114749362</t>
+  </si>
+  <si>
+    <t>E70092237115</t>
+  </si>
+  <si>
+    <t>20/08/2025 08:50</t>
+  </si>
+  <si>
+    <t>B37477869</t>
+  </si>
+  <si>
+    <t>ADSL1004708179</t>
+  </si>
+  <si>
+    <t>92257119</t>
+  </si>
+  <si>
+    <t>VIA CROCE DEL SUD 17</t>
+  </si>
+  <si>
+    <t>DTU0066695722</t>
+  </si>
+  <si>
+    <t>93114735331</t>
+  </si>
+  <si>
+    <t>E70092257119</t>
+  </si>
+  <si>
+    <t>20/08/2025 18:04</t>
+  </si>
+  <si>
+    <t>B37491725</t>
+  </si>
+  <si>
+    <t>ADSL1004709663</t>
+  </si>
+  <si>
+    <t>92266604</t>
+  </si>
+  <si>
+    <t>VIA DELL'ANGUILLA 2</t>
+  </si>
+  <si>
+    <t>DTU0066692732</t>
+  </si>
+  <si>
+    <t>0931861855</t>
+  </si>
+  <si>
+    <t>E70092266604</t>
+  </si>
+  <si>
+    <t>21/08/2025 09:40</t>
+  </si>
+  <si>
+    <t>B37502609</t>
+  </si>
+  <si>
+    <t>ADSL1004710519</t>
+  </si>
+  <si>
+    <t>92273094</t>
+  </si>
+  <si>
+    <t>VIA PEGASO 43/A</t>
+  </si>
+  <si>
+    <t>DTU0066697869</t>
+  </si>
+  <si>
+    <t>0931861826</t>
+  </si>
+  <si>
+    <t>E70092273094</t>
+  </si>
+  <si>
+    <t>21/08/2025 11:56</t>
+  </si>
+  <si>
+    <t>B37506904</t>
+  </si>
+  <si>
+    <t>ADSL1004671132</t>
+  </si>
+  <si>
+    <t>92031006</t>
+  </si>
+  <si>
+    <t>RIUTILIZZO IMP.</t>
+  </si>
+  <si>
+    <t>VIA GIULIO CESARE SNC</t>
+  </si>
+  <si>
+    <t>DTU0066255323</t>
+  </si>
+  <si>
+    <t>0931855438</t>
+  </si>
+  <si>
+    <t>E70092031006</t>
+  </si>
+  <si>
+    <t>08/08/2025 16:26</t>
+  </si>
+  <si>
+    <t>AB_VOCE_100M_NAKED_FIBRAC_N2-AUTO</t>
+  </si>
+  <si>
+    <t>91608983</t>
+  </si>
+  <si>
+    <t>B37260268</t>
+  </si>
+  <si>
+    <t>ADSL1004706783</t>
+  </si>
+  <si>
+    <t>92248850</t>
+  </si>
+  <si>
+    <t>VIALE ALDO MORO 57</t>
+  </si>
+  <si>
+    <t>DTU0066603865</t>
+  </si>
+  <si>
+    <t>93114734308</t>
+  </si>
+  <si>
+    <t>E70092248850</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:58</t>
+  </si>
+  <si>
+    <t>B37486000</t>
+  </si>
+  <si>
+    <t>ADSL1004707773</t>
+  </si>
+  <si>
+    <t>92255035</t>
+  </si>
+  <si>
+    <t>VIA MAESTRO DEL BUONO 10</t>
+  </si>
+  <si>
+    <t>DTU0066692698</t>
+  </si>
+  <si>
+    <t>0931901014</t>
+  </si>
+  <si>
+    <t>E70092255035</t>
+  </si>
+  <si>
+    <t>20/08/2025 16:48</t>
+  </si>
+  <si>
+    <t>B37490189</t>
+  </si>
+  <si>
+    <t>ADSL1004709581</t>
+  </si>
+  <si>
+    <t>92265775</t>
+  </si>
+  <si>
+    <t>VIA AGRIGENTO 2</t>
+  </si>
+  <si>
+    <t>DTU0066694658</t>
+  </si>
+  <si>
+    <t>0931861829</t>
+  </si>
+  <si>
+    <t>E70092265775</t>
+  </si>
+  <si>
+    <t>21/08/2025 09:20</t>
+  </si>
+  <si>
+    <t>B37502187</t>
+  </si>
+  <si>
+    <t>ADSL1004695779</t>
+  </si>
+  <si>
+    <t>92185219</t>
+  </si>
+  <si>
+    <t>VIA MONTEGRAPPA 56</t>
+  </si>
+  <si>
+    <t>DTU0066659630</t>
+  </si>
+  <si>
+    <t>0931775466</t>
+  </si>
+  <si>
+    <t>E70092185219</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:20</t>
+  </si>
+  <si>
+    <t>B37432031</t>
+  </si>
+  <si>
+    <t>ADSL1004698975</t>
+  </si>
+  <si>
+    <t>92203991</t>
+  </si>
+  <si>
+    <t>VIA PAPA GIOVANNI PAOLO I 18</t>
+  </si>
+  <si>
+    <t>DTU0066668953</t>
+  </si>
+  <si>
+    <t>0931861833</t>
+  </si>
+  <si>
+    <t>E70092203991</t>
+  </si>
+  <si>
+    <t>18/08/2025 21:04</t>
+  </si>
+  <si>
+    <t>B37445101</t>
+  </si>
+  <si>
+    <t>ADSL1004700127</t>
+  </si>
+  <si>
+    <t>92212234</t>
+  </si>
+  <si>
+    <t>PORTICO BOLOGNA 2</t>
+  </si>
+  <si>
+    <t>DTU0066675196</t>
+  </si>
+  <si>
+    <t>0931968525</t>
+  </si>
+  <si>
+    <t>E70092212234</t>
+  </si>
+  <si>
+    <t>19/08/2025 11:12</t>
+  </si>
+  <si>
+    <t>B37455087</t>
+  </si>
+  <si>
+    <t>ADSL1004708721</t>
+  </si>
+  <si>
+    <t>92260280</t>
+  </si>
+  <si>
+    <t>VIA GIOVANNI HUSS 34</t>
+  </si>
+  <si>
+    <t>DTU0066698509</t>
+  </si>
+  <si>
+    <t>93114732311</t>
+  </si>
+  <si>
+    <t>E70092260280</t>
+  </si>
+  <si>
+    <t>20/08/2025 20:08</t>
+  </si>
+  <si>
+    <t>B37493831</t>
   </si>
 </sst>
 </file>
@@ -10382,10 +11387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ623"/>
+  <dimension ref="A1:AQ691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H587" workbookViewId="0">
-      <selection activeCell="Q621" sqref="Q621"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="A610" sqref="A610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -87150,6 +88155,8914 @@
         <v>3338</v>
       </c>
     </row>
+    <row r="624" spans="1:43">
+      <c r="A624" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J624" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K624" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L624" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M624" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N624" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O624" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P624" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="Q624" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R624" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S624" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T624" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U624" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="V624" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="W624" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X624" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="Y624" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z624" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="AA624" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB624" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC624" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD624" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE624" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF624" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG624" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH624" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI624" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ624" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK624" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL624" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM624" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN624" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO624" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP624" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ624" s="1" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="625" spans="1:43">
+      <c r="A625" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H625" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I625" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J625" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K625" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L625" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M625" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N625" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O625" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P625" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="Q625" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R625" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S625" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T625" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U625" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="V625" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="W625" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X625" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="Y625" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z625" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="AA625" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB625" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC625" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD625" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE625" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF625" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG625" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH625" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI625" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ625" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK625" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL625" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM625" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN625" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO625" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP625" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AQ625" s="1" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="626" spans="1:43">
+      <c r="A626" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J626" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K626" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L626" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M626" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N626" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O626" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P626" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="Q626" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R626" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S626" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T626" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U626" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="V626" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="W626" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X626" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="Y626" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z626" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="AA626" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB626" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC626" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD626" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE626" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF626" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG626" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH626" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI626" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ626" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK626" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL626" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM626" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN626" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO626" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP626" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ626" s="1" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="627" spans="1:43">
+      <c r="A627" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J627" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K627" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L627" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M627" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N627" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O627" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P627" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="Q627" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R627" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S627" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T627" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U627" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="V627" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="W627" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X627" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="Y627" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z627" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AA627" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB627" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC627" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD627" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE627" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF627" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG627" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH627" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI627" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ627" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK627" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL627" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM627" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN627" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO627" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP627" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ627" s="1" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="628" spans="1:43">
+      <c r="A628" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J628" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K628" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L628" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M628" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N628" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O628" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P628" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="Q628" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R628" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S628" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T628" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U628" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="V628" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="W628" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X628" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="Y628" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z628" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AA628" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB628" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC628" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD628" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE628" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF628" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG628" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH628" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI628" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ628" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK628" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL628" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM628" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN628" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO628" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP628" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ628" s="1" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="629" spans="1:43">
+      <c r="A629" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J629" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K629" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L629" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M629" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N629" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O629" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P629" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="Q629" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R629" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S629" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T629" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U629" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="V629" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="W629" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X629" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="Y629" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z629" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="AA629" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB629" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC629" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD629" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE629" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF629" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG629" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH629" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI629" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ629" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK629" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL629" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM629" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN629" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO629" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP629" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ629" s="1" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="630" spans="1:43">
+      <c r="A630" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J630" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K630" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L630" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M630" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N630" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O630" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P630" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="Q630" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R630" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S630" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T630" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U630" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="V630" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="W630" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X630" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="Y630" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z630" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="AA630" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB630" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC630" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD630" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE630" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF630" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG630" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH630" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI630" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ630" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="AK630" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL630" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM630" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN630" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO630" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP630" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ630" s="1" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="631" spans="1:43">
+      <c r="A631" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J631" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K631" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L631" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M631" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N631" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O631" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P631" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="Q631" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R631" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S631" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T631" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U631" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="V631" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="W631" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X631" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="Y631" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z631" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="AA631" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB631" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC631" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD631" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE631" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF631" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG631" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH631" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI631" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ631" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK631" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL631" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM631" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN631" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO631" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP631" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ631" s="1" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="632" spans="1:43">
+      <c r="A632" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H632" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J632" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K632" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L632" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M632" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N632" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O632" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P632" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="Q632" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R632" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S632" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T632" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U632" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="V632" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="W632" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X632" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="Y632" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z632" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AA632" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB632" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC632" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD632" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE632" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF632" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG632" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH632" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI632" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ632" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK632" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL632" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM632" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN632" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO632" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP632" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ632" s="1" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="633" spans="1:43">
+      <c r="A633" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H633" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J633" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K633" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L633" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M633" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N633" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O633" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P633" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="Q633" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R633" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S633" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T633" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U633" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="V633" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="W633" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X633" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="Y633" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z633" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="AA633" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB633" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC633" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD633" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE633" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF633" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG633" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH633" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI633" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ633" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK633" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL633" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM633" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN633" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO633" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP633" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ633" s="1" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="634" spans="1:43">
+      <c r="A634" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J634" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K634" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L634" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M634" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N634" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O634" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P634" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="Q634" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R634" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S634" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T634" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U634" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="V634" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="W634" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X634" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="Y634" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z634" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="AA634" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB634" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC634" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD634" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE634" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF634" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG634" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH634" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI634" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ634" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="AK634" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL634" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM634" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN634" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO634" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP634" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ634" s="1" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="635" spans="1:43">
+      <c r="A635" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H635" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J635" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K635" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L635" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M635" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N635" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O635" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P635" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="Q635" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R635" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S635" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T635" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U635" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="V635" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="W635" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X635" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="Y635" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z635" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="AA635" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB635" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC635" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD635" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE635" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF635" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG635" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH635" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI635" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ635" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK635" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL635" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM635" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN635" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO635" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP635" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ635" s="1" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="636" spans="1:43">
+      <c r="A636" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K636" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L636" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M636" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N636" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O636" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P636" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="Q636" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R636" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S636" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T636" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U636" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="V636" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="W636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X636" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="Y636" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z636" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AA636" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB636" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC636" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD636" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE636" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF636" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG636" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK636" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM636" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN636" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO636" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP636" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AQ636" s="1" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="637" spans="1:43">
+      <c r="A637" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H637" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I637" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J637" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K637" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L637" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M637" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N637" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O637" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P637" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="Q637" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R637" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S637" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T637" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U637" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="V637" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="W637" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X637" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="Y637" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z637" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="AA637" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB637" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC637" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD637" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE637" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF637" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG637" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH637" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI637" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ637" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK637" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL637" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM637" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN637" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO637" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP637" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AQ637" s="1" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="638" spans="1:43">
+      <c r="A638" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K638" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L638" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M638" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N638" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O638" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P638" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="Q638" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="R638" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S638" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T638" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U638" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="V638" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="W638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X638" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="Y638" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z638" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="AA638" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB638" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC638" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD638" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE638" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF638" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG638" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH638" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK638" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM638" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN638" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP638" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ638" s="1" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="639" spans="1:43">
+      <c r="A639" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H639" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I639" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J639" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K639" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L639" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M639" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N639" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O639" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P639" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q639" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R639" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S639" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T639" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U639" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="V639" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="W639" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X639" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="Y639" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z639" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="AA639" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB639" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC639" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD639" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE639" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF639" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG639" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH639" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI639" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ639" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AK639" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL639" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM639" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN639" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO639" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP639" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ639" s="1" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="640" spans="1:43">
+      <c r="A640" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K640" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L640" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M640" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N640" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O640" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P640" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="Q640" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R640" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S640" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T640" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U640" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="V640" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="W640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X640" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="Y640" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z640" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="AA640" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB640" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC640" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD640" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE640" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF640" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG640" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH640" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK640" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM640" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN640" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO640" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP640" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ640" s="1" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="641" spans="1:43">
+      <c r="A641" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H641" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J641" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K641" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L641" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M641" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N641" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O641" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P641" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="Q641" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="R641" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S641" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T641" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U641" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="V641" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="W641" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X641" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="Y641" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z641" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="AA641" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB641" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC641" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD641" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE641" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF641" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG641" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH641" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI641" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ641" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK641" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL641" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM641" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN641" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO641" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP641" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ641" s="1" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="642" spans="1:43">
+      <c r="A642" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H642" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I642" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J642" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K642" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L642" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M642" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N642" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O642" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P642" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="Q642" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R642" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S642" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T642" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U642" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="V642" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="W642" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X642" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="Y642" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z642" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="AA642" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB642" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC642" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD642" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE642" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF642" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG642" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH642" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI642" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ642" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK642" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL642" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM642" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN642" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO642" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP642" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ642" s="1" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="643" spans="1:43">
+      <c r="A643" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J643" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K643" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L643" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M643" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N643" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O643" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P643" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="Q643" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R643" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S643" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T643" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U643" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="V643" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="W643" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X643" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="Y643" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z643" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="AA643" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB643" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC643" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD643" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE643" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF643" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG643" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH643" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI643" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ643" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK643" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL643" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM643" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN643" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO643" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP643" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ643" s="1" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="644" spans="1:43">
+      <c r="A644" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K644" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L644" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M644" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N644" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O644" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P644" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="Q644" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="R644" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S644" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T644" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U644" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="V644" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="W644" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X644" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="Y644" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z644" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="AA644" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB644" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC644" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD644" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE644" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF644" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG644" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH644" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK644" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM644" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN644" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO644" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP644" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ644" s="1" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="645" spans="1:43">
+      <c r="A645" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H645" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J645" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K645" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L645" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M645" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N645" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O645" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P645" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="Q645" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="R645" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S645" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T645" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U645" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="V645" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="W645" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X645" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="Y645" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z645" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="AA645" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB645" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC645" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD645" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE645" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF645" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG645" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH645" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI645" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ645" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK645" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL645" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM645" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN645" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO645" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP645" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ645" s="1" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="646" spans="1:43">
+      <c r="A646" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H646" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J646" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K646" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L646" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M646" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N646" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O646" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P646" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="Q646" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="R646" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S646" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T646" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U646" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="V646" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="W646" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X646" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="Y646" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z646" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="AA646" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB646" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC646" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD646" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE646" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF646" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG646" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH646" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI646" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ646" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK646" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL646" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM646" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN646" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO646" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP646" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ646" s="1" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="647" spans="1:43">
+      <c r="A647" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K647" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L647" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M647" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N647" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O647" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P647" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="Q647" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="R647" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S647" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T647" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U647" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="V647" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="W647" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X647" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="Y647" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z647" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="AA647" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB647" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC647" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD647" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE647" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF647" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG647" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH647" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK647" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM647" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN647" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO647" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP647" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ647" s="1" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="648" spans="1:43">
+      <c r="A648" s="2" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K648" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L648" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M648" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N648" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O648" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P648" s="2" t="s">
+        <v>3409</v>
+      </c>
+      <c r="Q648" s="2" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R648" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S648" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T648" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U648" s="2" t="s">
+        <v>3410</v>
+      </c>
+      <c r="V648" s="2" t="s">
+        <v>3411</v>
+      </c>
+      <c r="W648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X648" s="2" t="s">
+        <v>3412</v>
+      </c>
+      <c r="Y648" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z648" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AA648" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB648" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC648" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD648" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE648" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF648" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG648" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK648" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL648" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM648" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN648" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO648" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP648" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AQ648" s="2" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="649" spans="1:43">
+      <c r="A649" s="2" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E649" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G649" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H649" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I649" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J649" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K649" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L649" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M649" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N649" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O649" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P649" s="2" t="s">
+        <v>3416</v>
+      </c>
+      <c r="Q649" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R649" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S649" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T649" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U649" s="2" t="s">
+        <v>3417</v>
+      </c>
+      <c r="V649" s="2" t="s">
+        <v>3418</v>
+      </c>
+      <c r="W649" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X649" s="2" t="s">
+        <v>3419</v>
+      </c>
+      <c r="Y649" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z649" s="2" t="s">
+        <v>3420</v>
+      </c>
+      <c r="AA649" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB649" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC649" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD649" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE649" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF649" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG649" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH649" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI649" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ649" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK649" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL649" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM649" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN649" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO649" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP649" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AQ649" s="2" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="650" spans="1:43">
+      <c r="A650" s="2" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E650" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K650" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L650" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M650" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N650" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O650" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P650" s="2" t="s">
+        <v>3424</v>
+      </c>
+      <c r="Q650" s="2" t="s">
+        <v>3425</v>
+      </c>
+      <c r="R650" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S650" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T650" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U650" s="2" t="s">
+        <v>3426</v>
+      </c>
+      <c r="V650" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="W650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X650" s="2" t="s">
+        <v>3428</v>
+      </c>
+      <c r="Y650" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z650" s="2" t="s">
+        <v>3166</v>
+      </c>
+      <c r="AA650" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB650" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC650" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD650" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE650" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF650" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG650" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH650" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK650" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM650" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN650" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO650" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP650" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ650" s="2" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="651" spans="1:43">
+      <c r="A651" s="2" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G651" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H651" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I651" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J651" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K651" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L651" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M651" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N651" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O651" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P651" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q651" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R651" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S651" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T651" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U651" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="V651" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="W651" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X651" s="2" t="s">
+        <v>3432</v>
+      </c>
+      <c r="Y651" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z651" s="2" t="s">
+        <v>3433</v>
+      </c>
+      <c r="AA651" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB651" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC651" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD651" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE651" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF651" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG651" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH651" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI651" s="2" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ651" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AK651" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL651" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM651" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN651" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO651" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP651" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ651" s="2" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="652" spans="1:43">
+      <c r="A652" s="2" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E652" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K652" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L652" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M652" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N652" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O652" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P652" s="2" t="s">
+        <v>3437</v>
+      </c>
+      <c r="Q652" s="2" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R652" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S652" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T652" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U652" s="2" t="s">
+        <v>3438</v>
+      </c>
+      <c r="V652" s="2" t="s">
+        <v>3439</v>
+      </c>
+      <c r="W652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X652" s="2" t="s">
+        <v>3440</v>
+      </c>
+      <c r="Y652" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z652" s="2" t="s">
+        <v>3441</v>
+      </c>
+      <c r="AA652" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB652" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC652" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD652" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE652" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF652" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG652" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH652" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK652" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL652" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM652" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN652" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO652" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP652" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ652" s="2" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="653" spans="1:43">
+      <c r="A653" s="2" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E653" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F653" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G653" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H653" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I653" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J653" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K653" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L653" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M653" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N653" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O653" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P653" s="2" t="s">
+        <v>3023</v>
+      </c>
+      <c r="Q653" s="2" t="s">
+        <v>3446</v>
+      </c>
+      <c r="R653" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S653" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T653" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U653" s="2" t="s">
+        <v>3447</v>
+      </c>
+      <c r="V653" s="2" t="s">
+        <v>3448</v>
+      </c>
+      <c r="W653" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X653" s="2" t="s">
+        <v>3449</v>
+      </c>
+      <c r="Y653" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z653" s="2" t="s">
+        <v>3450</v>
+      </c>
+      <c r="AA653" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB653" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC653" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD653" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE653" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF653" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG653" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH653" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI653" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ653" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK653" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL653" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM653" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN653" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO653" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP653" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ653" s="2" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="654" spans="1:43">
+      <c r="A654" s="2" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E654" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G654" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H654" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I654" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J654" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K654" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L654" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M654" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N654" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O654" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P654" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="Q654" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R654" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S654" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T654" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U654" s="2" t="s">
+        <v>3455</v>
+      </c>
+      <c r="V654" s="2" t="s">
+        <v>3456</v>
+      </c>
+      <c r="W654" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X654" s="2" t="s">
+        <v>3457</v>
+      </c>
+      <c r="Y654" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z654" s="2" t="s">
+        <v>3458</v>
+      </c>
+      <c r="AA654" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB654" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC654" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD654" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE654" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF654" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG654" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH654" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI654" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ654" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK654" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL654" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM654" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN654" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO654" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP654" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ654" s="2" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="655" spans="1:43">
+      <c r="A655" s="2" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E655" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F655" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G655" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H655" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I655" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J655" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K655" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L655" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M655" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N655" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O655" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P655" s="2" t="s">
+        <v>3462</v>
+      </c>
+      <c r="Q655" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R655" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S655" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T655" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U655" s="2" t="s">
+        <v>3463</v>
+      </c>
+      <c r="V655" s="2" t="s">
+        <v>3464</v>
+      </c>
+      <c r="W655" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X655" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="Y655" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z655" s="2" t="s">
+        <v>3466</v>
+      </c>
+      <c r="AA655" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB655" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC655" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD655" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE655" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF655" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG655" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH655" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI655" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ655" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK655" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL655" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM655" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN655" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO655" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP655" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ655" s="2" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="656" spans="1:43">
+      <c r="A656" s="2" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E656" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F656" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G656" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H656" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I656" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J656" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K656" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L656" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M656" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N656" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O656" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P656" s="2" t="s">
+        <v>3470</v>
+      </c>
+      <c r="Q656" s="2" t="s">
+        <v>3446</v>
+      </c>
+      <c r="R656" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S656" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T656" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U656" s="2" t="s">
+        <v>3471</v>
+      </c>
+      <c r="V656" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="W656" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X656" s="2" t="s">
+        <v>3473</v>
+      </c>
+      <c r="Y656" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z656" s="2" t="s">
+        <v>3474</v>
+      </c>
+      <c r="AA656" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB656" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC656" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD656" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE656" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF656" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG656" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH656" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI656" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ656" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK656" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL656" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM656" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN656" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO656" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP656" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ656" s="2" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="657" spans="1:43">
+      <c r="A657" s="2" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E657" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F657" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G657" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H657" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I657" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J657" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K657" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L657" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M657" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N657" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O657" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P657" s="2" t="s">
+        <v>3478</v>
+      </c>
+      <c r="Q657" s="2" t="s">
+        <v>3479</v>
+      </c>
+      <c r="R657" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S657" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T657" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U657" s="2" t="s">
+        <v>3480</v>
+      </c>
+      <c r="V657" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="W657" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X657" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="Y657" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z657" s="2" t="s">
+        <v>3483</v>
+      </c>
+      <c r="AA657" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB657" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC657" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD657" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE657" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF657" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG657" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH657" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI657" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ657" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK657" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL657" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM657" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN657" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO657" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP657" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ657" s="2" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="658" spans="1:43">
+      <c r="A658" s="2" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F658" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G658" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H658" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I658" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J658" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K658" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L658" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M658" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N658" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O658" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P658" s="2" t="s">
+        <v>3487</v>
+      </c>
+      <c r="Q658" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="R658" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S658" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T658" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U658" s="2" t="s">
+        <v>3489</v>
+      </c>
+      <c r="V658" s="2" t="s">
+        <v>3490</v>
+      </c>
+      <c r="W658" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X658" s="2" t="s">
+        <v>3491</v>
+      </c>
+      <c r="Y658" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z658" s="2" t="s">
+        <v>3492</v>
+      </c>
+      <c r="AA658" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB658" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC658" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD658" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE658" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF658" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG658" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH658" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI658" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ658" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK658" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL658" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM658" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN658" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO658" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP658" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ658" s="2" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="659" spans="1:43">
+      <c r="A659" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>3495</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>3496</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G659" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H659" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I659" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J659" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K659" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L659" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M659" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N659" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O659" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P659" s="2" t="s">
+        <v>3497</v>
+      </c>
+      <c r="Q659" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="R659" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S659" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T659" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U659" s="2" t="s">
+        <v>3498</v>
+      </c>
+      <c r="V659" s="2" t="s">
+        <v>3499</v>
+      </c>
+      <c r="W659" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X659" s="2" t="s">
+        <v>3500</v>
+      </c>
+      <c r="Y659" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z659" s="2" t="s">
+        <v>3501</v>
+      </c>
+      <c r="AA659" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB659" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC659" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD659" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE659" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF659" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG659" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH659" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI659" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ659" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK659" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL659" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM659" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN659" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO659" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP659" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ659" s="2" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="660" spans="1:43">
+      <c r="A660" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H660" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I660" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J660" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K660" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L660" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M660" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N660" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O660" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P660" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="Q660" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R660" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S660" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T660" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U660" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="V660" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="W660" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X660" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="Y660" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z660" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="AA660" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB660" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC660" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD660" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE660" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF660" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG660" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH660" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI660" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ660" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK660" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL660" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM660" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN660" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO660" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP660" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ660" s="1" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="661" spans="1:43">
+      <c r="A661" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G661" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H661" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I661" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J661" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K661" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L661" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M661" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N661" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O661" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P661" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="Q661" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R661" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S661" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T661" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U661" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="V661" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="W661" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X661" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="Y661" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z661" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="AA661" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB661" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC661" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD661" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE661" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF661" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG661" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH661" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI661" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ661" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK661" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL661" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM661" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN661" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO661" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP661" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AQ661" s="1" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="662" spans="1:43">
+      <c r="A662" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G662" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H662" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I662" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J662" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K662" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L662" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M662" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N662" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O662" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P662" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="Q662" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R662" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S662" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T662" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U662" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="V662" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="W662" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X662" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="Y662" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z662" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="AA662" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB662" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC662" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD662" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE662" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF662" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG662" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH662" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI662" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ662" s="1" t="s">
+        <v>3526</v>
+      </c>
+      <c r="AK662" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL662" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM662" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN662" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO662" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP662" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AQ662" s="1" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="663" spans="1:43">
+      <c r="A663" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G663" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H663" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I663" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J663" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K663" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L663" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M663" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N663" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O663" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P663" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="Q663" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R663" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S663" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T663" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U663" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="V663" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="W663" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X663" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="Y663" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z663" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="AA663" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB663" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC663" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD663" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE663" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF663" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG663" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH663" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI663" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ663" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="AK663" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL663" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM663" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN663" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO663" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP663" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AQ663" s="1" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="664" spans="1:43">
+      <c r="A664" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G664" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H664" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I664" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J664" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K664" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L664" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M664" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N664" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O664" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P664" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="Q664" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R664" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S664" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T664" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U664" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="V664" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="W664" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X664" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="Y664" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z664" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="AA664" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB664" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC664" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD664" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE664" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF664" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG664" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH664" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI664" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ664" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK664" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL664" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM664" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN664" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO664" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP664" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ664" s="1" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="665" spans="1:43">
+      <c r="A665" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G665" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H665" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I665" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J665" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K665" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L665" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M665" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N665" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O665" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P665" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="Q665" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R665" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S665" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T665" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U665" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="V665" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="W665" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X665" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="Y665" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z665" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="AA665" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB665" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC665" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD665" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE665" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF665" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG665" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH665" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI665" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ665" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK665" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL665" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM665" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN665" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO665" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP665" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ665" s="1" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="666" spans="1:43">
+      <c r="A666" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G666" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H666" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I666" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J666" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K666" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L666" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M666" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N666" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O666" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P666" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="Q666" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R666" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S666" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T666" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U666" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="V666" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="W666" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X666" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="Y666" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z666" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="AA666" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB666" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC666" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD666" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE666" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF666" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG666" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH666" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI666" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ666" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK666" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL666" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM666" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN666" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO666" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP666" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AQ666" s="1" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="667" spans="1:43">
+      <c r="A667" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G667" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H667" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I667" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J667" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K667" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L667" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M667" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N667" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O667" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P667" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="Q667" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R667" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S667" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T667" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U667" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="V667" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="W667" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X667" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="Y667" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z667" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="AA667" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB667" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC667" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD667" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE667" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF667" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG667" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH667" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI667" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ667" s="1" t="s">
+        <v>3526</v>
+      </c>
+      <c r="AK667" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL667" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM667" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN667" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO667" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP667" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AQ667" s="1" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="668" spans="1:43">
+      <c r="A668" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G668" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H668" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I668" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J668" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K668" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L668" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M668" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N668" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O668" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P668" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="Q668" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R668" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S668" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T668" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U668" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="V668" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="W668" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X668" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="Y668" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z668" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="AA668" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB668" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC668" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD668" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE668" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF668" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG668" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH668" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI668" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ668" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="AK668" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL668" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM668" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN668" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO668" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP668" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="AQ668" s="1" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="669" spans="1:43">
+      <c r="A669" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G669" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H669" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I669" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J669" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K669" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L669" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M669" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N669" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O669" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P669" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="Q669" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R669" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S669" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T669" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U669" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="V669" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="W669" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X669" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="Y669" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z669" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="AA669" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB669" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC669" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD669" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE669" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF669" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG669" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH669" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI669" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ669" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK669" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL669" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM669" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN669" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO669" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP669" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ669" s="1" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="670" spans="1:43">
+      <c r="A670" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K670" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L670" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M670" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N670" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O670" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P670" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="Q670" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="R670" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S670" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T670" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U670" s="1" t="s">
+        <v>3544</v>
+      </c>
+      <c r="V670" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="W670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X670" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="Y670" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z670" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="AA670" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB670" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC670" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD670" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE670" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF670" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG670" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH670" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK670" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM670" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN670" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP670" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ670" s="1" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="671" spans="1:43">
+      <c r="A671" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K671" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L671" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M671" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N671" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O671" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P671" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="Q671" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="R671" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="S671" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T671" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U671" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="V671" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="W671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X671" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="Y671" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z671" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="AA671" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB671" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC671" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD671" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE671" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF671" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG671" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH671" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK671" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM671" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN671" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO671" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP671" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ671" s="1" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="672" spans="1:43">
+      <c r="A672" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K672" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L672" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M672" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N672" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O672" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P672" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="Q672" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="R672" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S672" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T672" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U672" s="1" t="s">
+        <v>3544</v>
+      </c>
+      <c r="V672" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="W672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X672" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="Y672" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z672" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="AA672" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB672" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC672" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD672" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE672" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF672" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG672" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH672" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK672" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM672" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN672" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP672" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ672" s="1" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="673" spans="1:43">
+      <c r="A673" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K673" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L673" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M673" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N673" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O673" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P673" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="Q673" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="R673" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S673" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T673" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U673" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="V673" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="W673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X673" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="Y673" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z673" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="AA673" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB673" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC673" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD673" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE673" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF673" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG673" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH673" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK673" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM673" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN673" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO673" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP673" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ673" s="1" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="674" spans="1:43">
+      <c r="A674" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K674" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L674" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M674" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N674" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O674" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P674" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="Q674" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R674" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S674" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T674" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U674" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="V674" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="W674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X674" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="Y674" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z674" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="AA674" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB674" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC674" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD674" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE674" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF674" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG674" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK674" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM674" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO674" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP674" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ674" s="1" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="675" spans="1:43">
+      <c r="A675" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K675" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L675" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M675" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N675" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O675" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P675" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="Q675" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R675" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S675" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T675" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U675" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="V675" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="W675" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X675" s="1" t="s">
+        <v>3570</v>
+      </c>
+      <c r="Y675" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z675" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="AA675" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB675" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC675" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD675" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE675" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF675" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG675" s="1" t="s">
+        <v>3572</v>
+      </c>
+      <c r="AH675" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="AI675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK675" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM675" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN675" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP675" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ675" s="1" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="676" spans="1:43">
+      <c r="A676" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K676" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L676" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M676" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N676" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O676" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P676" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="Q676" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R676" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S676" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T676" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U676" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="V676" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="W676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X676" s="1" t="s">
+        <v>3580</v>
+      </c>
+      <c r="Y676" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z676" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="AA676" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB676" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC676" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD676" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE676" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF676" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG676" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK676" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM676" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO676" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP676" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ676" s="1" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="677" spans="1:43">
+      <c r="A677" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H677" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I677" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J677" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K677" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L677" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M677" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N677" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O677" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P677" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="Q677" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R677" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S677" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T677" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U677" s="1" t="s">
+        <v>3586</v>
+      </c>
+      <c r="V677" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="W677" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X677" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="Y677" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z677" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AA677" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB677" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC677" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD677" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE677" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF677" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG677" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH677" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI677" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ677" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK677" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL677" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM677" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN677" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO677" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP677" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ677" s="1" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="678" spans="1:43">
+      <c r="A678" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G678" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H678" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I678" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J678" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K678" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L678" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M678" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N678" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O678" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P678" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="Q678" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="R678" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S678" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T678" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U678" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="V678" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="W678" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X678" s="1" t="s">
+        <v>3596</v>
+      </c>
+      <c r="Y678" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z678" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="AA678" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB678" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC678" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD678" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE678" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF678" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG678" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH678" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI678" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ678" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK678" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL678" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM678" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN678" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO678" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP678" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ678" s="1" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="679" spans="1:43">
+      <c r="A679" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G679" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H679" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I679" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J679" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K679" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L679" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M679" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N679" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O679" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P679" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="Q679" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R679" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="S679" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T679" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U679" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="V679" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="W679" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X679" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="Y679" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z679" s="1" t="s">
+        <v>3605</v>
+      </c>
+      <c r="AA679" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB679" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC679" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD679" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE679" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF679" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG679" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH679" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI679" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ679" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK679" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL679" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM679" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN679" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO679" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP679" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AQ679" s="1" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="680" spans="1:43">
+      <c r="A680" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G680" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H680" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I680" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J680" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K680" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="L680" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M680" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N680" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O680" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P680" s="1" t="s">
+        <v>3610</v>
+      </c>
+      <c r="Q680" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R680" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S680" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T680" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U680" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="V680" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="W680" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X680" s="1" t="s">
+        <v>3613</v>
+      </c>
+      <c r="Y680" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="Z680" s="1" t="s">
+        <v>3614</v>
+      </c>
+      <c r="AA680" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB680" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC680" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD680" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE680" s="1" t="s">
+        <v>3615</v>
+      </c>
+      <c r="AF680" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG680" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH680" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI680" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ680" s="1" t="s">
+        <v>3616</v>
+      </c>
+      <c r="AK680" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL680" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM680" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN680" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO680" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP680" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="AQ680" s="1" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="681" spans="1:43">
+      <c r="A681" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G681" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H681" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I681" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J681" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K681" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L681" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M681" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N681" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O681" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P681" s="1" t="s">
+        <v>3620</v>
+      </c>
+      <c r="Q681" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R681" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S681" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T681" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U681" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="V681" s="1" t="s">
+        <v>3622</v>
+      </c>
+      <c r="W681" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X681" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="Y681" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z681" s="1" t="s">
+        <v>3624</v>
+      </c>
+      <c r="AA681" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB681" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC681" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD681" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE681" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF681" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG681" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH681" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI681" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ681" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK681" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL681" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM681" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN681" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO681" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP681" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ681" s="1" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="682" spans="1:43">
+      <c r="A682" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G682" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H682" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I682" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J682" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K682" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L682" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M682" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N682" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O682" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P682" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="Q682" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="R682" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S682" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T682" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U682" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="V682" s="1" t="s">
+        <v>3630</v>
+      </c>
+      <c r="W682" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X682" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="Y682" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z682" s="1" t="s">
+        <v>3632</v>
+      </c>
+      <c r="AA682" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB682" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC682" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD682" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE682" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF682" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG682" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH682" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI682" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ682" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK682" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL682" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM682" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN682" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO682" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP682" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AQ682" s="1" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="683" spans="1:43">
+      <c r="A683" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G683" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H683" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I683" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J683" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K683" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L683" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M683" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N683" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O683" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P683" s="1" t="s">
+        <v>3636</v>
+      </c>
+      <c r="Q683" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="R683" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S683" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T683" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U683" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="V683" s="1" t="s">
+        <v>3638</v>
+      </c>
+      <c r="W683" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X683" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="Y683" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z683" s="1" t="s">
+        <v>3640</v>
+      </c>
+      <c r="AA683" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB683" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC683" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD683" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE683" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF683" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG683" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH683" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI683" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ683" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK683" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL683" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM683" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN683" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO683" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP683" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ683" s="1" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="684" spans="1:43">
+      <c r="A684" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G684" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H684" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I684" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J684" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K684" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L684" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M684" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N684" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O684" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P684" s="1" t="s">
+        <v>3644</v>
+      </c>
+      <c r="Q684" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R684" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S684" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T684" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U684" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="V684" s="1" t="s">
+        <v>3646</v>
+      </c>
+      <c r="W684" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X684" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="Y684" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z684" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="AA684" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB684" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC684" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD684" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE684" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF684" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG684" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH684" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI684" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ684" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK684" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL684" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM684" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN684" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO684" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP684" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ684" s="1" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="685" spans="1:43">
+      <c r="A685" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G685" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H685" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I685" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J685" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K685" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L685" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M685" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N685" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O685" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P685" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="Q685" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R685" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S685" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T685" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U685" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="V685" s="1" t="s">
+        <v>3654</v>
+      </c>
+      <c r="W685" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X685" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="Y685" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z685" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="AA685" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB685" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC685" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD685" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE685" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF685" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG685" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH685" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI685" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ685" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK685" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL685" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM685" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN685" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO685" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP685" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ685" s="1" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="686" spans="1:43">
+      <c r="A686" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H686" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I686" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J686" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K686" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L686" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M686" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N686" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O686" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P686" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="Q686" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R686" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S686" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T686" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U686" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="V686" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="W686" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X686" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="Y686" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z686" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="AA686" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB686" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC686" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD686" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE686" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF686" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG686" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH686" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI686" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ686" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK686" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL686" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM686" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN686" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO686" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP686" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ686" s="1" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="687" spans="1:43">
+      <c r="A687" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G687" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H687" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I687" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J687" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K687" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L687" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M687" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N687" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O687" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P687" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="Q687" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="R687" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S687" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T687" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U687" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="V687" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="W687" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X687" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="Y687" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z687" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="AA687" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB687" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC687" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD687" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE687" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF687" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG687" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH687" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI687" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ687" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK687" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL687" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM687" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN687" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO687" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP687" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ687" s="1" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="688" spans="1:43">
+      <c r="A688" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G688" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H688" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I688" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J688" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K688" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L688" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M688" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N688" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O688" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P688" s="1" t="s">
+        <v>3644</v>
+      </c>
+      <c r="Q688" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R688" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S688" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T688" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U688" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="V688" s="1" t="s">
+        <v>3646</v>
+      </c>
+      <c r="W688" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X688" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="Y688" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z688" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="AA688" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB688" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC688" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD688" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE688" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF688" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG688" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH688" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI688" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ688" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK688" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL688" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM688" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN688" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO688" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP688" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ688" s="1" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="689" spans="1:43">
+      <c r="A689" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G689" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H689" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I689" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J689" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K689" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L689" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M689" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N689" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O689" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P689" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="Q689" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="R689" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S689" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T689" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U689" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="V689" s="1" t="s">
+        <v>3654</v>
+      </c>
+      <c r="W689" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X689" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="Y689" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z689" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="AA689" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB689" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC689" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD689" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE689" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF689" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG689" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH689" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI689" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ689" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK689" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL689" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM689" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN689" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO689" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP689" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ689" s="1" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="690" spans="1:43">
+      <c r="A690" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G690" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H690" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I690" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J690" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K690" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L690" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M690" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N690" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O690" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P690" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="Q690" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="R690" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S690" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T690" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U690" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="V690" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="W690" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X690" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="Y690" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z690" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="AA690" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB690" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC690" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD690" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE690" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF690" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG690" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH690" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI690" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ690" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK690" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL690" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM690" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN690" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO690" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP690" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ690" s="1" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="691" spans="1:43">
+      <c r="A691" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G691" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H691" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I691" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J691" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K691" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L691" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M691" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N691" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O691" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P691" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="Q691" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="R691" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S691" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T691" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U691" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="V691" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="W691" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X691" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="Y691" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z691" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="AA691" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB691" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC691" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD691" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE691" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF691" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG691" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH691" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI691" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ691" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK691" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL691" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM691" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN691" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO691" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP691" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ691" s="1" t="s">
+        <v>3673</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AN486"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/delivery.xlsx
+++ b/delivery.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28081" uniqueCount="3674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29930" uniqueCount="3880">
   <si>
     <t>Codice</t>
   </si>
@@ -11039,6 +11039,624 @@
   </si>
   <si>
     <t>B37493831</t>
+  </si>
+  <si>
+    <t>ADSL1004685025</t>
+  </si>
+  <si>
+    <t>92119994</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>AP FB+AP WIFI TIM+WIFI CLIX3</t>
+  </si>
+  <si>
+    <t>V. REGINA MARGHERITA 47</t>
+  </si>
+  <si>
+    <t>25/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>DTU0066617228</t>
+  </si>
+  <si>
+    <t>0931594222</t>
+  </si>
+  <si>
+    <t>E70092119994</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:50</t>
+  </si>
+  <si>
+    <t>B37355347</t>
+  </si>
+  <si>
+    <t>ADSL1004697298</t>
+  </si>
+  <si>
+    <t>92195258</t>
+  </si>
+  <si>
+    <t>VIA LUIGI SETTEMBRINI 48</t>
+  </si>
+  <si>
+    <t>DTU0066663272</t>
+  </si>
+  <si>
+    <t>0931593473</t>
+  </si>
+  <si>
+    <t>E70092195258</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:26</t>
+  </si>
+  <si>
+    <t>B37438705</t>
+  </si>
+  <si>
+    <t>ADSL1004710250</t>
+  </si>
+  <si>
+    <t>92270943</t>
+  </si>
+  <si>
+    <t>25/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>DTU0066695968</t>
+  </si>
+  <si>
+    <t>93114758360</t>
+  </si>
+  <si>
+    <t>E70092270943</t>
+  </si>
+  <si>
+    <t>21/08/2025 11:12</t>
+  </si>
+  <si>
+    <t>B37505522</t>
+  </si>
+  <si>
+    <t>ADSL1004716197</t>
+  </si>
+  <si>
+    <t>92307934</t>
+  </si>
+  <si>
+    <t>VIA PIETRO MASCAGNI 36</t>
+  </si>
+  <si>
+    <t>DTU0066309534</t>
+  </si>
+  <si>
+    <t>93114734558</t>
+  </si>
+  <si>
+    <t>E70092307934</t>
+  </si>
+  <si>
+    <t>22/08/2025 13:20</t>
+  </si>
+  <si>
+    <t>B37537239</t>
+  </si>
+  <si>
+    <t>ADSL1004682495</t>
+  </si>
+  <si>
+    <t>92103553</t>
+  </si>
+  <si>
+    <t>VIA NEGHELLI 128</t>
+  </si>
+  <si>
+    <t>25/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>DTU0066581245</t>
+  </si>
+  <si>
+    <t>93114721926</t>
+  </si>
+  <si>
+    <t>E70092103553</t>
+  </si>
+  <si>
+    <t>12/08/2025 17:04</t>
+  </si>
+  <si>
+    <t>B37337039</t>
+  </si>
+  <si>
+    <t>ADSL1004696375</t>
+  </si>
+  <si>
+    <t>92189343</t>
+  </si>
+  <si>
+    <t>VIA GALENO 101</t>
+  </si>
+  <si>
+    <t>DTU0066425412</t>
+  </si>
+  <si>
+    <t>93114721984</t>
+  </si>
+  <si>
+    <t>E70092189343</t>
+  </si>
+  <si>
+    <t>18/08/2025 13:02</t>
+  </si>
+  <si>
+    <t>B37434703</t>
+  </si>
+  <si>
+    <t>ADSL1004715693</t>
+  </si>
+  <si>
+    <t>92304679</t>
+  </si>
+  <si>
+    <t>VIALE LIDO 11</t>
+  </si>
+  <si>
+    <t>DTU0066700642</t>
+  </si>
+  <si>
+    <t>93114748082</t>
+  </si>
+  <si>
+    <t>E70092304679</t>
+  </si>
+  <si>
+    <t>22/08/2025 12:04</t>
+  </si>
+  <si>
+    <t>B37534320</t>
+  </si>
+  <si>
+    <t>ADSL1004718412</t>
+  </si>
+  <si>
+    <t>92319969</t>
+  </si>
+  <si>
+    <t>VIA DEI CICLAMINI - CASSIBILE 3</t>
+  </si>
+  <si>
+    <t>DTU0066734346</t>
+  </si>
+  <si>
+    <t>E70092319969</t>
+  </si>
+  <si>
+    <t>22/08/2025 19:12</t>
+  </si>
+  <si>
+    <t>B37546632</t>
+  </si>
+  <si>
+    <t>ADSL1004657295</t>
+  </si>
+  <si>
+    <t>91941858</t>
+  </si>
+  <si>
+    <t>CAVO SING.CONTESTUAL</t>
+  </si>
+  <si>
+    <t>VIA ALESSANDRO SPECCHI 98/20</t>
+  </si>
+  <si>
+    <t>25/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>DTU0066491477</t>
+  </si>
+  <si>
+    <t>0931703012</t>
+  </si>
+  <si>
+    <t>E70091941858</t>
+  </si>
+  <si>
+    <t>05/08/2025 19:28</t>
+  </si>
+  <si>
+    <t>B37172831</t>
+  </si>
+  <si>
+    <t>ADSL1004680317</t>
+  </si>
+  <si>
+    <t>92088351</t>
+  </si>
+  <si>
+    <t>VIALE SANTA PANAGIA 136/R</t>
+  </si>
+  <si>
+    <t>DTU0066583487</t>
+  </si>
+  <si>
+    <t>0931861959</t>
+  </si>
+  <si>
+    <t>E70092088351</t>
+  </si>
+  <si>
+    <t>12/08/2025 10:46</t>
+  </si>
+  <si>
+    <t>B37325778</t>
+  </si>
+  <si>
+    <t>ADSL1004686414</t>
+  </si>
+  <si>
+    <t>92128698</t>
+  </si>
+  <si>
+    <t>W50</t>
+  </si>
+  <si>
+    <t>VIA CASSARO 1</t>
+  </si>
+  <si>
+    <t>DTU0065859936</t>
+  </si>
+  <si>
+    <t>93114753978</t>
+  </si>
+  <si>
+    <t>E70092128698</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:48</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>91586075</t>
+  </si>
+  <si>
+    <t>B37361562</t>
+  </si>
+  <si>
+    <t>ADSL1004707941</t>
+  </si>
+  <si>
+    <t>92255991</t>
+  </si>
+  <si>
+    <t>VIA FAVARA 14</t>
+  </si>
+  <si>
+    <t>DTU0066420304</t>
+  </si>
+  <si>
+    <t>0931861082</t>
+  </si>
+  <si>
+    <t>E70092255991</t>
+  </si>
+  <si>
+    <t>20/08/2025 17:22</t>
+  </si>
+  <si>
+    <t>B37490861</t>
+  </si>
+  <si>
+    <t>ADSL1004712635</t>
+  </si>
+  <si>
+    <t>92286119</t>
+  </si>
+  <si>
+    <t>VIA LUIGI CASSIA 65/B</t>
+  </si>
+  <si>
+    <t>DTU0066714168</t>
+  </si>
+  <si>
+    <t>0931775817</t>
+  </si>
+  <si>
+    <t>E70092286119</t>
+  </si>
+  <si>
+    <t>21/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>B37515362</t>
+  </si>
+  <si>
+    <t>ADSL1004717211</t>
+  </si>
+  <si>
+    <t>92314066</t>
+  </si>
+  <si>
+    <t>DTU0066680130</t>
+  </si>
+  <si>
+    <t>93114751941</t>
+  </si>
+  <si>
+    <t>E70092314066</t>
+  </si>
+  <si>
+    <t>22/08/2025 15:46</t>
+  </si>
+  <si>
+    <t>B37542229</t>
+  </si>
+  <si>
+    <t>ADSL1004689365</t>
+  </si>
+  <si>
+    <t>92148949</t>
+  </si>
+  <si>
+    <t>VIA PIEMONTE 10</t>
+  </si>
+  <si>
+    <t>DTU0066560886</t>
+  </si>
+  <si>
+    <t>93114741405</t>
+  </si>
+  <si>
+    <t>E70092148949</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:28</t>
+  </si>
+  <si>
+    <t>B37383157</t>
+  </si>
+  <si>
+    <t>ADSL1004691460</t>
+  </si>
+  <si>
+    <t>92161070</t>
+  </si>
+  <si>
+    <t>DTU0066620334</t>
+  </si>
+  <si>
+    <t>E70092161070</t>
+  </si>
+  <si>
+    <t>15/08/2025 19:52</t>
+  </si>
+  <si>
+    <t>B37399056</t>
+  </si>
+  <si>
+    <t>ADSL1004697482</t>
+  </si>
+  <si>
+    <t>92196272</t>
+  </si>
+  <si>
+    <t>VIA ARCHITETTO SALVATORE RIZZA 31</t>
+  </si>
+  <si>
+    <t>DTU0066661470</t>
+  </si>
+  <si>
+    <t>93114746701</t>
+  </si>
+  <si>
+    <t>E70092196272</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:52</t>
+  </si>
+  <si>
+    <t>B37439416</t>
+  </si>
+  <si>
+    <t>ADSL1004710108</t>
+  </si>
+  <si>
+    <t>92270144</t>
+  </si>
+  <si>
+    <t>VIA ANCONA 113</t>
+  </si>
+  <si>
+    <t>DTU0066708698</t>
+  </si>
+  <si>
+    <t>0931861759</t>
+  </si>
+  <si>
+    <t>E70092270144</t>
+  </si>
+  <si>
+    <t>21/08/2025 10:56</t>
+  </si>
+  <si>
+    <t>B37505094</t>
+  </si>
+  <si>
+    <t>ADSL1004678310</t>
+  </si>
+  <si>
+    <t>92074818</t>
+  </si>
+  <si>
+    <t>CONTRADA SCALA CORTA 7</t>
+  </si>
+  <si>
+    <t>DTU0066336724</t>
+  </si>
+  <si>
+    <t>93114748916</t>
+  </si>
+  <si>
+    <t>E70092074818</t>
+  </si>
+  <si>
+    <t>11/08/2025 16:22</t>
+  </si>
+  <si>
+    <t>B37310832</t>
+  </si>
+  <si>
+    <t>ADSL1004707159</t>
+  </si>
+  <si>
+    <t>92250962</t>
+  </si>
+  <si>
+    <t>VIA LEONARDO SCIASCIA 13</t>
+  </si>
+  <si>
+    <t>DTU0066646062</t>
+  </si>
+  <si>
+    <t>93114736587</t>
+  </si>
+  <si>
+    <t>E70092250962</t>
+  </si>
+  <si>
+    <t>20/08/2025 14:56</t>
+  </si>
+  <si>
+    <t>B37487363</t>
+  </si>
+  <si>
+    <t>ADSL1004709393</t>
+  </si>
+  <si>
+    <t>92263698</t>
+  </si>
+  <si>
+    <t>VIA BOSCHETTO 57</t>
+  </si>
+  <si>
+    <t>DTU0066702357</t>
+  </si>
+  <si>
+    <t>0931861856</t>
+  </si>
+  <si>
+    <t>E70092263698</t>
+  </si>
+  <si>
+    <t>21/08/2025 08:14</t>
+  </si>
+  <si>
+    <t>B37500914</t>
+  </si>
+  <si>
+    <t>ADSL1004707388</t>
+  </si>
+  <si>
+    <t>92252482</t>
+  </si>
+  <si>
+    <t>VIA PAPA GIOVANNI XXIII 84</t>
+  </si>
+  <si>
+    <t>DTU0066696730</t>
+  </si>
+  <si>
+    <t>0931454283</t>
+  </si>
+  <si>
+    <t>E70092252482</t>
+  </si>
+  <si>
+    <t>20/08/2025 15:38</t>
+  </si>
+  <si>
+    <t>B37488368</t>
+  </si>
+  <si>
+    <t>ADSL1004709631</t>
+  </si>
+  <si>
+    <t>92266311</t>
+  </si>
+  <si>
+    <t>ANTENNA</t>
+  </si>
+  <si>
+    <t>V. SENIGALLIA - FONTANE BIANCHE 20</t>
+  </si>
+  <si>
+    <t>SDR0058114360</t>
+  </si>
+  <si>
+    <t>0931313038</t>
+  </si>
+  <si>
+    <t>H00092266311</t>
+  </si>
+  <si>
+    <t>21/08/2025 09:34</t>
+  </si>
+  <si>
+    <t>B37502509</t>
+  </si>
+  <si>
+    <t>ADSL1004717314</t>
+  </si>
+  <si>
+    <t>92314585</t>
+  </si>
+  <si>
+    <t>VIA EMANUELE FILIBERTO 75</t>
+  </si>
+  <si>
+    <t>DTU0066723765</t>
+  </si>
+  <si>
+    <t>93114725868</t>
+  </si>
+  <si>
+    <t>E70092314585</t>
+  </si>
+  <si>
+    <t>22/08/2025 15:56</t>
+  </si>
+  <si>
+    <t>B37542677</t>
+  </si>
+  <si>
+    <t>ADSL1004717408</t>
+  </si>
+  <si>
+    <t>92315145</t>
+  </si>
+  <si>
+    <t>VIA DELLE PETUNIE - CASSIBILE 92</t>
+  </si>
+  <si>
+    <t>DTU0066716858</t>
+  </si>
+  <si>
+    <t>93114738918</t>
+  </si>
+  <si>
+    <t>E70092315145</t>
+  </si>
+  <si>
+    <t>22/08/2025 16:12</t>
+  </si>
+  <si>
+    <t>B37543039</t>
   </si>
 </sst>
 </file>
@@ -11387,10 +12005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ691"/>
+  <dimension ref="A1:AQ734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="A610" sqref="A610"/>
+    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
+      <selection activeCell="C704" sqref="C704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -97063,6 +97681,5639 @@
         <v>3673</v>
       </c>
     </row>
+    <row r="692" spans="1:43">
+      <c r="A692" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G692" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H692" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I692" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="J692" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K692" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L692" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M692" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N692" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O692" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P692" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="Q692" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R692" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S692" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T692" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U692" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="V692" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="W692" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X692" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="Y692" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z692" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="AA692" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB692" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC692" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD692" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE692" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF692" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG692" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH692" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI692" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ692" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK692" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL692" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM692" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN692" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO692" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP692" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AQ692" s="1" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="693" spans="1:43">
+      <c r="A693" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G693" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H693" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I693" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J693" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K693" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L693" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M693" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N693" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O693" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P693" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="Q693" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R693" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S693" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T693" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U693" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="V693" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="W693" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X693" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="Y693" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z693" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="AA693" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB693" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC693" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD693" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE693" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF693" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG693" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH693" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI693" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ693" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK693" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL693" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM693" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN693" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO693" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP693" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AQ693" s="1" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:43">
+      <c r="A694" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G694" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H694" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I694" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J694" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K694" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L694" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M694" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N694" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O694" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P694" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="Q694" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R694" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S694" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T694" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U694" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="V694" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="W694" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X694" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="Y694" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z694" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="AA694" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB694" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC694" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD694" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE694" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF694" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG694" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH694" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI694" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ694" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK694" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL694" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM694" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN694" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO694" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP694" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ694" s="1" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="695" spans="1:43">
+      <c r="A695" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K695" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L695" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M695" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N695" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O695" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P695" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="Q695" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R695" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S695" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T695" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U695" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="V695" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="W695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X695" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="Y695" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z695" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="AA695" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB695" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC695" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD695" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE695" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF695" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG695" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK695" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM695" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN695" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO695" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP695" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ695" s="1" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="696" spans="1:43">
+      <c r="A696" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G696" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H696" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I696" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J696" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K696" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L696" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M696" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N696" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O696" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P696" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="Q696" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R696" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S696" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T696" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U696" s="1" t="s">
+        <v>3713</v>
+      </c>
+      <c r="V696" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="W696" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X696" s="1" t="s">
+        <v>3715</v>
+      </c>
+      <c r="Y696" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z696" s="1" t="s">
+        <v>3716</v>
+      </c>
+      <c r="AA696" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB696" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC696" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD696" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE696" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF696" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG696" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH696" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI696" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ696" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK696" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL696" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM696" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN696" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO696" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP696" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ696" s="1" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="697" spans="1:43">
+      <c r="A697" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G697" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H697" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I697" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J697" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K697" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L697" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M697" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N697" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O697" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P697" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="Q697" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R697" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S697" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T697" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U697" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="V697" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="W697" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X697" s="1" t="s">
+        <v>3723</v>
+      </c>
+      <c r="Y697" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z697" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="AA697" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB697" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC697" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD697" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE697" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF697" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG697" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH697" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI697" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ697" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK697" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL697" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM697" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN697" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO697" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP697" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ697" s="1" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="698" spans="1:43">
+      <c r="A698" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G698" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="H698" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I698" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J698" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K698" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L698" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M698" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N698" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O698" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P698" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="Q698" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R698" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S698" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T698" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U698" s="1" t="s">
+        <v>3729</v>
+      </c>
+      <c r="V698" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="W698" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X698" s="1" t="s">
+        <v>3731</v>
+      </c>
+      <c r="Y698" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z698" s="1" t="s">
+        <v>3732</v>
+      </c>
+      <c r="AA698" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB698" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC698" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD698" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE698" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF698" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG698" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH698" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI698" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ698" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK698" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL698" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM698" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN698" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO698" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP698" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AQ698" s="1" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="699" spans="1:43">
+      <c r="A699" s="1" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G699" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H699" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I699" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J699" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K699" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L699" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M699" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N699" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O699" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P699" s="1" t="s">
+        <v>3736</v>
+      </c>
+      <c r="Q699" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R699" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S699" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T699" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U699" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="V699" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="W699" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X699" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="Y699" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z699" s="1" t="s">
+        <v>3739</v>
+      </c>
+      <c r="AA699" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB699" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC699" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD699" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE699" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF699" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG699" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH699" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI699" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ699" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK699" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL699" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM699" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN699" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO699" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP699" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ699" s="1" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="700" spans="1:43">
+      <c r="A700" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>3742</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G700" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="H700" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I700" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J700" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K700" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L700" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M700" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N700" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O700" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P700" s="1" t="s">
+        <v>3744</v>
+      </c>
+      <c r="Q700" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="R700" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S700" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T700" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U700" s="1" t="s">
+        <v>3746</v>
+      </c>
+      <c r="V700" s="1" t="s">
+        <v>3747</v>
+      </c>
+      <c r="W700" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X700" s="1" t="s">
+        <v>3748</v>
+      </c>
+      <c r="Y700" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z700" s="1" t="s">
+        <v>3749</v>
+      </c>
+      <c r="AA700" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB700" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC700" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD700" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE700" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF700" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG700" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH700" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI700" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ700" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK700" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL700" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM700" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN700" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO700" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP700" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AQ700" s="1" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="701" spans="1:43">
+      <c r="A701" s="1" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G701" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="H701" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I701" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J701" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K701" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L701" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M701" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N701" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O701" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P701" s="1" t="s">
+        <v>3753</v>
+      </c>
+      <c r="Q701" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R701" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S701" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T701" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U701" s="1" t="s">
+        <v>3754</v>
+      </c>
+      <c r="V701" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="W701" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X701" s="1" t="s">
+        <v>3756</v>
+      </c>
+      <c r="Y701" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z701" s="1" t="s">
+        <v>3757</v>
+      </c>
+      <c r="AA701" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB701" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC701" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD701" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE701" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF701" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG701" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH701" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI701" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ701" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK701" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL701" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM701" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN701" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO701" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP701" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ701" s="1" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="702" spans="1:43">
+      <c r="A702" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>3761</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K702" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L702" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M702" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N702" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O702" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P702" s="1" t="s">
+        <v>3762</v>
+      </c>
+      <c r="Q702" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R702" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S702" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T702" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U702" s="1" t="s">
+        <v>3763</v>
+      </c>
+      <c r="V702" s="1" t="s">
+        <v>3764</v>
+      </c>
+      <c r="W702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X702" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="Y702" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z702" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="AA702" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB702" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC702" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD702" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE702" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF702" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG702" s="1" t="s">
+        <v>3767</v>
+      </c>
+      <c r="AH702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI702" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ702" s="1" t="s">
+        <v>3768</v>
+      </c>
+      <c r="AK702" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM702" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP702" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ702" s="1" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="703" spans="1:43">
+      <c r="A703" s="1" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G703" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H703" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I703" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J703" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K703" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L703" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M703" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N703" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O703" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P703" s="1" t="s">
+        <v>3772</v>
+      </c>
+      <c r="Q703" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R703" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S703" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T703" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U703" s="1" t="s">
+        <v>3773</v>
+      </c>
+      <c r="V703" s="1" t="s">
+        <v>3774</v>
+      </c>
+      <c r="W703" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X703" s="1" t="s">
+        <v>3775</v>
+      </c>
+      <c r="Y703" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z703" s="1" t="s">
+        <v>3776</v>
+      </c>
+      <c r="AA703" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB703" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC703" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD703" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE703" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF703" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG703" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH703" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI703" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ703" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK703" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL703" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM703" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN703" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO703" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP703" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ703" s="1" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="704" spans="1:43">
+      <c r="A704" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G704" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="H704" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I704" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J704" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K704" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L704" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M704" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N704" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O704" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P704" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="Q704" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R704" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S704" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T704" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U704" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="V704" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="W704" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X704" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="Y704" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z704" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="AA704" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB704" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC704" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD704" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE704" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF704" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG704" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH704" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI704" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ704" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK704" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL704" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM704" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN704" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO704" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP704" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ704" s="1" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="705" spans="1:43">
+      <c r="A705" s="1" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G705" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H705" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I705" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J705" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K705" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L705" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M705" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N705" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O705" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P705" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q705" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R705" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S705" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T705" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U705" s="1" t="s">
+        <v>3788</v>
+      </c>
+      <c r="V705" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="W705" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X705" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="Y705" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z705" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="AA705" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB705" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC705" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD705" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE705" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF705" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG705" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH705" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI705" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ705" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK705" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL705" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM705" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN705" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO705" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP705" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ705" s="1" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="706" spans="1:43">
+      <c r="A706" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G706" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H706" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I706" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J706" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K706" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L706" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M706" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N706" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O706" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P706" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="Q706" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R706" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S706" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T706" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U706" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="V706" s="1" t="s">
+        <v>3797</v>
+      </c>
+      <c r="W706" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X706" s="1" t="s">
+        <v>3798</v>
+      </c>
+      <c r="Y706" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z706" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="AA706" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB706" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC706" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD706" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE706" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF706" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG706" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH706" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI706" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ706" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK706" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL706" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM706" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN706" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO706" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP706" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AQ706" s="1" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="707" spans="1:43">
+      <c r="A707" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K707" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L707" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M707" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N707" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O707" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P707" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q707" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R707" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S707" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T707" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U707" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="V707" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="W707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X707" s="1" t="s">
+        <v>3804</v>
+      </c>
+      <c r="Y707" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z707" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AA707" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB707" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC707" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD707" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE707" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF707" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG707" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK707" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM707" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN707" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO707" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP707" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AQ707" s="1" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="708" spans="1:43">
+      <c r="A708" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G708" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H708" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I708" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J708" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K708" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L708" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M708" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N708" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O708" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P708" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="Q708" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R708" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S708" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T708" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U708" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="V708" s="1" t="s">
+        <v>3811</v>
+      </c>
+      <c r="W708" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X708" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="Y708" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z708" s="1" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AA708" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB708" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC708" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD708" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE708" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF708" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG708" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH708" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI708" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ708" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK708" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL708" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM708" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN708" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO708" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP708" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AQ708" s="1" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="709" spans="1:43">
+      <c r="A709" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G709" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H709" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I709" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J709" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K709" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L709" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M709" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N709" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O709" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P709" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="Q709" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R709" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S709" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T709" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U709" s="1" t="s">
+        <v>3818</v>
+      </c>
+      <c r="V709" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="W709" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X709" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="Y709" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z709" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="AA709" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB709" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC709" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD709" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE709" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF709" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG709" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH709" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI709" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ709" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK709" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL709" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM709" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN709" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO709" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP709" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ709" s="1" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="710" spans="1:43">
+      <c r="A710" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G710" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H710" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J710" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K710" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L710" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M710" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N710" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O710" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P710" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="Q710" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R710" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S710" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T710" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U710" s="1" t="s">
+        <v>3826</v>
+      </c>
+      <c r="V710" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="W710" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X710" s="1" t="s">
+        <v>3828</v>
+      </c>
+      <c r="Y710" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z710" s="1" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AA710" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB710" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC710" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD710" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE710" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF710" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG710" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH710" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI710" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ710" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK710" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL710" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM710" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN710" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO710" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP710" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ710" s="1" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="711" spans="1:43">
+      <c r="A711" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G711" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H711" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I711" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J711" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K711" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L711" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M711" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N711" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O711" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P711" s="1" t="s">
+        <v>3833</v>
+      </c>
+      <c r="Q711" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R711" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S711" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T711" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U711" s="1" t="s">
+        <v>3834</v>
+      </c>
+      <c r="V711" s="1" t="s">
+        <v>3835</v>
+      </c>
+      <c r="W711" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X711" s="1" t="s">
+        <v>3836</v>
+      </c>
+      <c r="Y711" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z711" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="AA711" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB711" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC711" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD711" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE711" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF711" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG711" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH711" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI711" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ711" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK711" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL711" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM711" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN711" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO711" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP711" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AQ711" s="1" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="712" spans="1:43">
+      <c r="A712" s="1" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G712" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H712" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I712" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J712" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K712" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L712" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M712" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N712" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O712" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P712" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="Q712" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R712" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S712" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T712" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U712" s="1" t="s">
+        <v>3842</v>
+      </c>
+      <c r="V712" s="1" t="s">
+        <v>3843</v>
+      </c>
+      <c r="W712" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X712" s="1" t="s">
+        <v>3844</v>
+      </c>
+      <c r="Y712" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z712" s="1" t="s">
+        <v>3845</v>
+      </c>
+      <c r="AA712" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB712" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC712" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD712" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE712" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF712" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG712" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH712" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI712" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ712" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK712" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL712" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM712" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN712" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO712" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP712" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ712" s="1" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="713" spans="1:43">
+      <c r="A713" s="1" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G713" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H713" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I713" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J713" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K713" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L713" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M713" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N713" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O713" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P713" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="Q713" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R713" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S713" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T713" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U713" s="1" t="s">
+        <v>3850</v>
+      </c>
+      <c r="V713" s="1" t="s">
+        <v>3851</v>
+      </c>
+      <c r="W713" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X713" s="1" t="s">
+        <v>3852</v>
+      </c>
+      <c r="Y713" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z713" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="AA713" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB713" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC713" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD713" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE713" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF713" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG713" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH713" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI713" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ713" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK713" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL713" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM713" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN713" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO713" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP713" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ713" s="1" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="714" spans="1:43">
+      <c r="A714" s="1" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G714" s="1" t="s">
+        <v>3857</v>
+      </c>
+      <c r="H714" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I714" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J714" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K714" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L714" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M714" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N714" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O714" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P714" s="1" t="s">
+        <v>3858</v>
+      </c>
+      <c r="Q714" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R714" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S714" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T714" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U714" s="1" t="s">
+        <v>3859</v>
+      </c>
+      <c r="V714" s="1" t="s">
+        <v>3860</v>
+      </c>
+      <c r="W714" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X714" s="1" t="s">
+        <v>3861</v>
+      </c>
+      <c r="Y714" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z714" s="1" t="s">
+        <v>3862</v>
+      </c>
+      <c r="AA714" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB714" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC714" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD714" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE714" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF714" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG714" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH714" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI714" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ714" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK714" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL714" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM714" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN714" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO714" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP714" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AQ714" s="1" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="715" spans="1:43">
+      <c r="A715" s="1" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G715" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H715" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I715" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J715" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K715" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L715" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M715" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N715" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O715" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P715" s="1" t="s">
+        <v>3866</v>
+      </c>
+      <c r="Q715" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="R715" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S715" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T715" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U715" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="V715" s="1" t="s">
+        <v>3868</v>
+      </c>
+      <c r="W715" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X715" s="1" t="s">
+        <v>3869</v>
+      </c>
+      <c r="Y715" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z715" s="1" t="s">
+        <v>3870</v>
+      </c>
+      <c r="AA715" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB715" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC715" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD715" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE715" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF715" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG715" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH715" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI715" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ715" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK715" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL715" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM715" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN715" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO715" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP715" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ715" s="1" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="716" spans="1:43">
+      <c r="A716" s="1" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G716" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="H716" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I716" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J716" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K716" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L716" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M716" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N716" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O716" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P716" s="1" t="s">
+        <v>3874</v>
+      </c>
+      <c r="Q716" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R716" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S716" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T716" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U716" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="V716" s="1" t="s">
+        <v>3876</v>
+      </c>
+      <c r="W716" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X716" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="Y716" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z716" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="AA716" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB716" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC716" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD716" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE716" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF716" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG716" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH716" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI716" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ716" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK716" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL716" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM716" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN716" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO716" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP716" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ716" s="1" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="717" spans="1:43">
+      <c r="A717" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G717" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H717" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I717" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="J717" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K717" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L717" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M717" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N717" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O717" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P717" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="Q717" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R717" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S717" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T717" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U717" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="V717" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="W717" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X717" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="Y717" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z717" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="AA717" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB717" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC717" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD717" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE717" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF717" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG717" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH717" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI717" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ717" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK717" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL717" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM717" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN717" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO717" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP717" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AQ717" s="1" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="718" spans="1:43">
+      <c r="A718" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G718" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H718" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J718" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K718" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L718" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M718" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N718" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O718" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P718" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="Q718" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R718" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S718" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T718" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U718" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="V718" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="W718" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X718" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="Y718" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z718" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="AA718" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB718" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC718" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD718" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE718" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF718" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG718" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH718" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI718" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ718" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK718" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL718" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM718" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN718" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO718" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP718" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AQ718" s="1" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="719" spans="1:43">
+      <c r="A719" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G719" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H719" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I719" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J719" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K719" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L719" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M719" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N719" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O719" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P719" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="Q719" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R719" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S719" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T719" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U719" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="V719" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="W719" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X719" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="Y719" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z719" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="AA719" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB719" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC719" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD719" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE719" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF719" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG719" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH719" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI719" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ719" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK719" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL719" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM719" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN719" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO719" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP719" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ719" s="1" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="720" spans="1:43">
+      <c r="A720" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K720" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L720" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M720" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N720" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O720" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P720" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="Q720" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R720" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S720" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T720" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U720" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="V720" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="W720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X720" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="Y720" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z720" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="AA720" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB720" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC720" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD720" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE720" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF720" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG720" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK720" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM720" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN720" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO720" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP720" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ720" s="1" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="721" spans="1:43">
+      <c r="A721" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>3742</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G721" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="H721" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I721" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J721" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K721" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L721" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M721" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N721" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O721" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P721" s="1" t="s">
+        <v>3744</v>
+      </c>
+      <c r="Q721" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="R721" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="S721" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T721" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U721" s="1" t="s">
+        <v>3746</v>
+      </c>
+      <c r="V721" s="1" t="s">
+        <v>3747</v>
+      </c>
+      <c r="W721" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X721" s="1" t="s">
+        <v>3748</v>
+      </c>
+      <c r="Y721" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z721" s="1" t="s">
+        <v>3749</v>
+      </c>
+      <c r="AA721" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB721" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC721" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD721" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE721" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF721" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG721" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH721" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI721" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ721" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK721" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL721" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM721" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN721" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO721" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP721" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AQ721" s="1" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="722" spans="1:43">
+      <c r="A722" s="1" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G722" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="H722" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I722" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J722" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K722" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L722" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M722" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N722" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O722" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P722" s="1" t="s">
+        <v>3753</v>
+      </c>
+      <c r="Q722" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R722" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="S722" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T722" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U722" s="1" t="s">
+        <v>3754</v>
+      </c>
+      <c r="V722" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="W722" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X722" s="1" t="s">
+        <v>3756</v>
+      </c>
+      <c r="Y722" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z722" s="1" t="s">
+        <v>3757</v>
+      </c>
+      <c r="AA722" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB722" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC722" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD722" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE722" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF722" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG722" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH722" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI722" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ722" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK722" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL722" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM722" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN722" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO722" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP722" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ722" s="1" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="723" spans="1:43">
+      <c r="A723" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>3761</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K723" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L723" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M723" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N723" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O723" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P723" s="1" t="s">
+        <v>3762</v>
+      </c>
+      <c r="Q723" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R723" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="S723" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T723" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U723" s="1" t="s">
+        <v>3763</v>
+      </c>
+      <c r="V723" s="1" t="s">
+        <v>3764</v>
+      </c>
+      <c r="W723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X723" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="Y723" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z723" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="AA723" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB723" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC723" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD723" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE723" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF723" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG723" s="1" t="s">
+        <v>3767</v>
+      </c>
+      <c r="AH723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI723" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AJ723" s="1" t="s">
+        <v>3768</v>
+      </c>
+      <c r="AK723" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM723" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP723" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ723" s="1" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="724" spans="1:43">
+      <c r="A724" s="1" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G724" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H724" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I724" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J724" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K724" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L724" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M724" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N724" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O724" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P724" s="1" t="s">
+        <v>3772</v>
+      </c>
+      <c r="Q724" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R724" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="S724" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T724" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U724" s="1" t="s">
+        <v>3773</v>
+      </c>
+      <c r="V724" s="1" t="s">
+        <v>3774</v>
+      </c>
+      <c r="W724" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X724" s="1" t="s">
+        <v>3775</v>
+      </c>
+      <c r="Y724" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z724" s="1" t="s">
+        <v>3776</v>
+      </c>
+      <c r="AA724" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB724" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC724" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD724" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE724" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF724" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG724" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH724" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI724" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ724" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK724" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL724" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM724" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN724" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO724" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP724" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ724" s="1" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="725" spans="1:43">
+      <c r="A725" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G725" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="H725" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I725" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J725" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K725" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L725" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M725" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N725" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O725" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P725" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="Q725" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R725" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="S725" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T725" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U725" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="V725" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="W725" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X725" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="Y725" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z725" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="AA725" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB725" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC725" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD725" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE725" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF725" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG725" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH725" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI725" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ725" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK725" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL725" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM725" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN725" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO725" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP725" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ725" s="1" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="726" spans="1:43">
+      <c r="A726" s="1" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G726" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H726" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I726" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J726" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K726" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L726" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M726" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N726" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O726" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P726" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q726" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R726" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="S726" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T726" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U726" s="1" t="s">
+        <v>3788</v>
+      </c>
+      <c r="V726" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="W726" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X726" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="Y726" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z726" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="AA726" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB726" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC726" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD726" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE726" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF726" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG726" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH726" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI726" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ726" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK726" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL726" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM726" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN726" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO726" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP726" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ726" s="1" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="727" spans="1:43">
+      <c r="A727" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G727" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H727" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I727" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J727" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K727" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L727" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M727" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N727" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O727" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P727" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="Q727" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R727" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S727" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T727" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U727" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="V727" s="1" t="s">
+        <v>3797</v>
+      </c>
+      <c r="W727" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X727" s="1" t="s">
+        <v>3798</v>
+      </c>
+      <c r="Y727" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z727" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="AA727" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB727" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC727" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD727" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE727" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF727" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG727" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH727" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI727" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ727" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK727" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL727" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM727" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN727" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO727" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP727" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AQ727" s="1" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="728" spans="1:43">
+      <c r="A728" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K728" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L728" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M728" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N728" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O728" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P728" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q728" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R728" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S728" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T728" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U728" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="V728" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="W728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X728" s="1" t="s">
+        <v>3804</v>
+      </c>
+      <c r="Y728" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z728" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AA728" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB728" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC728" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD728" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE728" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF728" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG728" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK728" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM728" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN728" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO728" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP728" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AQ728" s="1" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="729" spans="1:43">
+      <c r="A729" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G729" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H729" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I729" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J729" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K729" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L729" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M729" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N729" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O729" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P729" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="Q729" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R729" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S729" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T729" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U729" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="V729" s="1" t="s">
+        <v>3811</v>
+      </c>
+      <c r="W729" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X729" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="Y729" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z729" s="1" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AA729" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB729" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC729" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD729" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE729" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF729" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG729" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH729" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI729" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ729" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK729" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL729" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM729" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN729" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO729" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP729" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AQ729" s="1" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="730" spans="1:43">
+      <c r="A730" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G730" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H730" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I730" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J730" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K730" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L730" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M730" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N730" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O730" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P730" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="Q730" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R730" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S730" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T730" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U730" s="1" t="s">
+        <v>3818</v>
+      </c>
+      <c r="V730" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="W730" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X730" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="Y730" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z730" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="AA730" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB730" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC730" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD730" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE730" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF730" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG730" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH730" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI730" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ730" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK730" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL730" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM730" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN730" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO730" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP730" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ730" s="1" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="731" spans="1:43">
+      <c r="A731" s="1" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G731" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H731" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I731" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J731" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K731" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L731" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M731" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N731" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O731" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P731" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="Q731" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="R731" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S731" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T731" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U731" s="1" t="s">
+        <v>3850</v>
+      </c>
+      <c r="V731" s="1" t="s">
+        <v>3851</v>
+      </c>
+      <c r="W731" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X731" s="1" t="s">
+        <v>3852</v>
+      </c>
+      <c r="Y731" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z731" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="AA731" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB731" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC731" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD731" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE731" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF731" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG731" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH731" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI731" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ731" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK731" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL731" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM731" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN731" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO731" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP731" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AQ731" s="1" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="732" spans="1:43">
+      <c r="A732" s="1" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G732" s="1" t="s">
+        <v>3857</v>
+      </c>
+      <c r="H732" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I732" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J732" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K732" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L732" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M732" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N732" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O732" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P732" s="1" t="s">
+        <v>3858</v>
+      </c>
+      <c r="Q732" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="R732" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S732" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T732" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U732" s="1" t="s">
+        <v>3859</v>
+      </c>
+      <c r="V732" s="1" t="s">
+        <v>3860</v>
+      </c>
+      <c r="W732" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X732" s="1" t="s">
+        <v>3861</v>
+      </c>
+      <c r="Y732" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z732" s="1" t="s">
+        <v>3862</v>
+      </c>
+      <c r="AA732" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB732" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC732" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD732" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE732" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF732" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG732" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH732" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI732" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ732" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK732" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL732" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM732" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN732" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO732" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP732" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AQ732" s="1" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="733" spans="1:43">
+      <c r="A733" s="1" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G733" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H733" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I733" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J733" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K733" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L733" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M733" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N733" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O733" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P733" s="1" t="s">
+        <v>3866</v>
+      </c>
+      <c r="Q733" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="R733" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S733" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T733" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U733" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="V733" s="1" t="s">
+        <v>3868</v>
+      </c>
+      <c r="W733" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X733" s="1" t="s">
+        <v>3869</v>
+      </c>
+      <c r="Y733" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z733" s="1" t="s">
+        <v>3870</v>
+      </c>
+      <c r="AA733" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB733" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC733" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD733" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE733" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF733" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG733" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH733" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI733" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ733" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK733" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL733" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM733" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN733" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO733" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP733" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ733" s="1" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="734" spans="1:43">
+      <c r="A734" s="1" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G734" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="H734" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I734" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J734" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K734" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L734" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M734" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N734" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O734" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P734" s="1" t="s">
+        <v>3874</v>
+      </c>
+      <c r="Q734" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="R734" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S734" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T734" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U734" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="V734" s="1" t="s">
+        <v>3876</v>
+      </c>
+      <c r="W734" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X734" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="Y734" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z734" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="AA734" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB734" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC734" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD734" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE734" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF734" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG734" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH734" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI734" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ734" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK734" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL734" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM734" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN734" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO734" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP734" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AQ734" s="1" t="s">
+        <v>3879</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AN486"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
